--- a/Data/Quality_MCF-7_15_.xlsx
+++ b/Data/Quality_MCF-7_15_.xlsx
@@ -436,7 +436,7 @@
         <v>0.9785155480715526</v>
       </c>
       <c r="D2">
-        <v>0.0489581197543465</v>
+        <v>-0.09441165598050572</v>
       </c>
       <c r="E2">
         <v>0.1363726855830393</v>
@@ -459,7 +459,7 @@
         <v>0.9578411494151348</v>
       </c>
       <c r="D3">
-        <v>0.5434458402059841</v>
+        <v>0.4778942887114802</v>
       </c>
       <c r="E3">
         <v>0.191033544766821</v>
@@ -482,7 +482,7 @@
         <v>0.9291501872649389</v>
       </c>
       <c r="D4">
-        <v>0.08199791035860027</v>
+        <v>0.1685126858698381</v>
       </c>
       <c r="E4">
         <v>0.2476478756187508</v>
@@ -505,7 +505,7 @@
         <v>0.8758436683563127</v>
       </c>
       <c r="D5">
-        <v>0.5123327636325813</v>
+        <v>0.5235293436677591</v>
       </c>
       <c r="E5">
         <v>0.3278307518103393</v>
@@ -528,7 +528,7 @@
         <v>0.8075675904299009</v>
       </c>
       <c r="D6">
-        <v>0.403539971509405</v>
+        <v>0.6170564116769002</v>
       </c>
       <c r="E6">
         <v>0.4081354913050912</v>
@@ -551,7 +551,7 @@
         <v>0.7772306232675764</v>
       </c>
       <c r="D7">
-        <v>0.4486673865201483</v>
+        <v>0.6615166087233495</v>
       </c>
       <c r="E7">
         <v>0.439129889410544</v>
@@ -574,7 +574,7 @@
         <v>0.685248949313402</v>
       </c>
       <c r="D8">
-        <v>0.5950289236215724</v>
+        <v>0.7465585499591593</v>
       </c>
       <c r="E8">
         <v>0.5219739721568302</v>
@@ -597,7 +597,7 @@
         <v>0.6573384235682245</v>
       </c>
       <c r="D9">
-        <v>0.4911117765008585</v>
+        <v>0.712356534134807</v>
       </c>
       <c r="E9">
         <v>0.5446254826063394</v>
@@ -620,7 +620,7 @@
         <v>0.6572585372547821</v>
       </c>
       <c r="D10">
-        <v>0.4979336240119505</v>
+        <v>0.7140737408421189</v>
       </c>
       <c r="E10">
         <v>0.544688964463493</v>
@@ -643,7 +643,7 @@
         <v>0.6353630445024208</v>
       </c>
       <c r="D11">
-        <v>0.4193387713296646</v>
+        <v>0.6773855345340458</v>
       </c>
       <c r="E11">
         <v>0.5618179288537092</v>
@@ -666,7 +666,7 @@
         <v>0.5501253410350746</v>
       </c>
       <c r="D12">
-        <v>0.4500186270352199</v>
+        <v>0.6945089358005202</v>
       </c>
       <c r="E12">
         <v>0.6240379747548642</v>
@@ -689,7 +689,7 @@
         <v>0.5499817774604181</v>
       </c>
       <c r="D13">
-        <v>0.432047314328075</v>
+        <v>0.6903171130329302</v>
       </c>
       <c r="E13">
         <v>0.6241375380158007</v>
@@ -712,7 +712,7 @@
         <v>0.5463808620726451</v>
       </c>
       <c r="D14">
-        <v>0.4333272209376009</v>
+        <v>0.6901987365371327</v>
       </c>
       <c r="E14">
         <v>0.6266296465088942</v>
@@ -735,7 +735,7 @@
         <v>0.5284833914985586</v>
       </c>
       <c r="D15">
-        <v>0.434586961859065</v>
+        <v>0.6590532668910638</v>
       </c>
       <c r="E15">
         <v>0.6388718474006513</v>
@@ -758,7 +758,7 @@
         <v>0.5270067186510614</v>
       </c>
       <c r="D16">
-        <v>0.4159921538937815</v>
+        <v>0.6472924332168898</v>
       </c>
       <c r="E16">
         <v>0.6398714593126715</v>
@@ -781,7 +781,7 @@
         <v>0.5157033128214173</v>
       </c>
       <c r="D17">
-        <v>0.3655264768212841</v>
+        <v>0.6467981764645965</v>
       </c>
       <c r="E17">
         <v>0.6474720158058367</v>
@@ -804,7 +804,7 @@
         <v>0.5109241241800225</v>
       </c>
       <c r="D18">
-        <v>0.3547581694210209</v>
+        <v>0.6376831139594471</v>
       </c>
       <c r="E18">
         <v>0.650658899303202</v>
@@ -827,7 +827,7 @@
         <v>0.4907381530827223</v>
       </c>
       <c r="D19">
-        <v>0.3692673280578682</v>
+        <v>0.6355287275624781</v>
       </c>
       <c r="E19">
         <v>0.6639506858888914</v>
@@ -850,7 +850,7 @@
         <v>0.4907381530827223</v>
       </c>
       <c r="D20">
-        <v>0.3692673280578682</v>
+        <v>0.6355287275624781</v>
       </c>
       <c r="E20">
         <v>0.6639506858888914</v>
@@ -909,7 +909,7 @@
         <v>0.72740704571746</v>
       </c>
       <c r="D2">
-        <v>0.6620035251866058</v>
+        <v>0.7257050798673448</v>
       </c>
       <c r="E2">
         <v>0.485760913641516</v>
@@ -935,7 +935,7 @@
         <v>0.8191770238141225</v>
       </c>
       <c r="D3">
-        <v>0.7072402978078594</v>
+        <v>0.7511839028212871</v>
       </c>
       <c r="E3">
         <v>0.3956325908153508</v>
@@ -961,7 +961,7 @@
         <v>0.8894990442180499</v>
       </c>
       <c r="D4">
-        <v>0.6880599957794805</v>
+        <v>0.7039231453385276</v>
       </c>
       <c r="E4">
         <v>0.3092774605543282</v>
@@ -987,7 +987,7 @@
         <v>0.9397841500910206</v>
       </c>
       <c r="D5">
-        <v>0.7342305734380132</v>
+        <v>0.7568632568050171</v>
       </c>
       <c r="E5">
         <v>0.228307755114522</v>
@@ -1013,7 +1013,7 @@
         <v>0.974714030818955</v>
       </c>
       <c r="D6">
-        <v>0.7086613283782479</v>
+        <v>0.7412209142263873</v>
       </c>
       <c r="E6">
         <v>0.1479466227130508</v>
@@ -1039,7 +1039,7 @@
         <v>0.9870959738871397</v>
       </c>
       <c r="D7">
-        <v>0.6701973514596271</v>
+        <v>0.6585420279980675</v>
       </c>
       <c r="E7">
         <v>0.1056885330892245</v>
@@ -1065,7 +1065,7 @@
         <v>0.9942139727121078</v>
       </c>
       <c r="D8">
-        <v>0.6807473362869432</v>
+        <v>0.662004338503783</v>
       </c>
       <c r="E8">
         <v>0.07077102607410636</v>
@@ -1091,7 +1091,7 @@
         <v>0.9968551260979557</v>
       </c>
       <c r="D9">
-        <v>0.6725452523272141</v>
+        <v>0.6559893476069151</v>
       </c>
       <c r="E9">
         <v>0.0521755302922634</v>
@@ -1117,7 +1117,7 @@
         <v>0.9978342992766456</v>
       </c>
       <c r="D10">
-        <v>0.7132054481169825</v>
+        <v>0.7462856769615464</v>
       </c>
       <c r="E10">
         <v>0.04329766483940627</v>
@@ -1143,7 +1143,7 @@
         <v>0.9981384667038519</v>
       </c>
       <c r="D11">
-        <v>0.6868272057923859</v>
+        <v>0.6613019219370165</v>
       </c>
       <c r="E11">
         <v>0.04014215262191891</v>
@@ -1169,7 +1169,7 @@
         <v>0.9982370272460644</v>
       </c>
       <c r="D12">
-        <v>0.6688403760649859</v>
+        <v>0.6572642871173477</v>
       </c>
       <c r="E12">
         <v>0.03906502024903283</v>
@@ -1195,7 +1195,7 @@
         <v>0.9982529277797273</v>
       </c>
       <c r="D13">
-        <v>0.6856761177007635</v>
+        <v>0.6732656417385448</v>
       </c>
       <c r="E13">
         <v>0.03888845439079412</v>
@@ -1221,7 +1221,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D14">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E14">
         <v>0.03888633595258084</v>
@@ -1247,7 +1247,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D15">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E15">
         <v>0.03888633595258084</v>
@@ -1273,7 +1273,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D16">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E16">
         <v>0.03888633595258084</v>
@@ -1299,7 +1299,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D17">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E17">
         <v>0.03888633595258084</v>
@@ -1325,7 +1325,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D18">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E18">
         <v>0.03888633595258084</v>
@@ -1351,7 +1351,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D19">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E19">
         <v>0.03888633595258084</v>
@@ -1377,7 +1377,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D20">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E20">
         <v>0.03888633595258084</v>
@@ -1403,7 +1403,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D21">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E21">
         <v>0.03888633595258084</v>
@@ -1429,7 +1429,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D22">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E22">
         <v>0.03888633595258084</v>
@@ -1455,7 +1455,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D23">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E23">
         <v>0.03888633595258084</v>
@@ -1481,7 +1481,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D24">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E24">
         <v>0.03888633595258084</v>
@@ -1507,7 +1507,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D25">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E25">
         <v>0.03888633595258084</v>
@@ -1533,7 +1533,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D26">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E26">
         <v>0.03888633595258084</v>
@@ -1559,7 +1559,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D27">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E27">
         <v>0.03888633595258084</v>
@@ -1585,7 +1585,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D28">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E28">
         <v>0.03888633595258084</v>
@@ -1611,7 +1611,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D29">
-        <v>0.6753517254639132</v>
+        <v>0.6559590697390217</v>
       </c>
       <c r="E29">
         <v>0.03888633595258084</v>
@@ -1637,7 +1637,7 @@
         <v>0.72740704571746</v>
       </c>
       <c r="D30">
-        <v>0.6620035251866059</v>
+        <v>0.7257050798673448</v>
       </c>
       <c r="E30">
         <v>0.485760913641516</v>
@@ -1663,7 +1663,7 @@
         <v>0.8191770238141225</v>
       </c>
       <c r="D31">
-        <v>0.7072402978078582</v>
+        <v>0.7511839028212867</v>
       </c>
       <c r="E31">
         <v>0.3956325908153508</v>
@@ -1689,7 +1689,7 @@
         <v>0.8894990442180498</v>
       </c>
       <c r="D32">
-        <v>0.6815311212610773</v>
+        <v>0.6977262850264985</v>
       </c>
       <c r="E32">
         <v>0.3092774605543282</v>
@@ -1715,7 +1715,7 @@
         <v>0.935068034866284</v>
       </c>
       <c r="D33">
-        <v>0.698228705270624</v>
+        <v>0.6893041878098588</v>
       </c>
       <c r="E33">
         <v>0.2370797861899466</v>
@@ -1741,7 +1741,7 @@
         <v>0.9575873502724503</v>
       </c>
       <c r="D34">
-        <v>0.6748005861897466</v>
+        <v>0.7320870534870323</v>
       </c>
       <c r="E34">
         <v>0.1916076994053292</v>
@@ -1767,7 +1767,7 @@
         <v>0.9707736681051556</v>
       </c>
       <c r="D35">
-        <v>0.671706695924473</v>
+        <v>0.6603250705941833</v>
       </c>
       <c r="E35">
         <v>0.1590568617565508</v>
@@ -1793,7 +1793,7 @@
         <v>0.9780647820289683</v>
       </c>
       <c r="D36">
-        <v>0.6889251724325263</v>
+        <v>0.6780558106693524</v>
       </c>
       <c r="E36">
         <v>0.1377958793733864</v>
@@ -1819,7 +1819,7 @@
         <v>0.9838806104451844</v>
       </c>
       <c r="D37">
-        <v>0.7441069335660596</v>
+        <v>0.7675144074724121</v>
       </c>
       <c r="E37">
         <v>0.1181243818881256</v>
@@ -1845,7 +1845,7 @@
         <v>0.9883865607561103</v>
       </c>
       <c r="D38">
-        <v>0.7367157450168085</v>
+        <v>0.7632623756364575</v>
       </c>
       <c r="E38">
         <v>0.1002641507497846</v>
@@ -1871,7 +1871,7 @@
         <v>0.9909729527363214</v>
       </c>
       <c r="D39">
-        <v>0.7358437612458729</v>
+        <v>0.7607586423110024</v>
       </c>
       <c r="E39">
         <v>0.08839711915672323</v>
@@ -1897,7 +1897,7 @@
         <v>0.994674930283979</v>
       </c>
       <c r="D40">
-        <v>0.6292946148043512</v>
+        <v>0.655286667959729</v>
       </c>
       <c r="E40">
         <v>0.06789345384746943</v>
@@ -1923,7 +1923,7 @@
         <v>0.9963166819561787</v>
       </c>
       <c r="D41">
-        <v>0.7329796861011695</v>
+        <v>0.7535427338553065</v>
       </c>
       <c r="E41">
         <v>0.05646571915969525</v>
@@ -1949,7 +1949,7 @@
         <v>0.9973841151334224</v>
       </c>
       <c r="D42">
-        <v>0.7263793117384976</v>
+        <v>0.7471123207324546</v>
       </c>
       <c r="E42">
         <v>0.04758549224537511</v>
@@ -1975,7 +1975,7 @@
         <v>0.9979707694635964</v>
       </c>
       <c r="D43">
-        <v>0.677324536221257</v>
+        <v>0.6563915417589189</v>
       </c>
       <c r="E43">
         <v>0.04191128225350275</v>
@@ -2001,7 +2001,7 @@
         <v>0.9981793143543236</v>
       </c>
       <c r="D44">
-        <v>0.6797108902790292</v>
+        <v>0.6621119806445268</v>
       </c>
       <c r="E44">
         <v>0.0396992898093287</v>
@@ -2027,7 +2027,7 @@
         <v>0.998238836051118</v>
       </c>
       <c r="D45">
-        <v>0.7317535624765654</v>
+        <v>0.7528114647414521</v>
       </c>
       <c r="E45">
         <v>0.03904497480599167</v>
@@ -2053,7 +2053,7 @@
         <v>0.9982516939353901</v>
       </c>
       <c r="D46">
-        <v>0.687869743884698</v>
+        <v>0.6765788375180579</v>
       </c>
       <c r="E46">
         <v>0.0389021841696668</v>
@@ -2079,7 +2079,7 @@
         <v>0.9982530337237053</v>
       </c>
       <c r="D47">
-        <v>0.6825248209638969</v>
+        <v>0.7265196896448429</v>
       </c>
       <c r="E47">
         <v>0.03888727525807953</v>
@@ -2105,7 +2105,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D48">
-        <v>0.7278325309909197</v>
+        <v>0.7477177449565879</v>
       </c>
       <c r="E48">
         <v>0.03888633595258084</v>
@@ -2131,7 +2131,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D49">
-        <v>0.7278325309909197</v>
+        <v>0.7477177449565879</v>
       </c>
       <c r="E49">
         <v>0.03888633595258084</v>
@@ -2157,7 +2157,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D50">
-        <v>0.7278325309909197</v>
+        <v>0.7477177449565879</v>
       </c>
       <c r="E50">
         <v>0.03888633595258084</v>
@@ -2183,7 +2183,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D51">
-        <v>0.7278325309909197</v>
+        <v>0.7477177449565879</v>
       </c>
       <c r="E51">
         <v>0.03888633595258084</v>
@@ -2209,7 +2209,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D52">
-        <v>0.7278325309909197</v>
+        <v>0.7477177449565879</v>
       </c>
       <c r="E52">
         <v>0.03888633595258084</v>
@@ -2235,7 +2235,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D53">
-        <v>0.7278325309909197</v>
+        <v>0.7477177449565879</v>
       </c>
       <c r="E53">
         <v>0.03888633595258084</v>
@@ -2261,7 +2261,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D54">
-        <v>0.7278325309909197</v>
+        <v>0.7477177449565879</v>
       </c>
       <c r="E54">
         <v>0.03888633595258084</v>
@@ -2287,7 +2287,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D55">
-        <v>0.7278325309909197</v>
+        <v>0.7477177449565879</v>
       </c>
       <c r="E55">
         <v>0.03888633595258084</v>
@@ -2313,7 +2313,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D56">
-        <v>0.7278325309909197</v>
+        <v>0.7477177449565879</v>
       </c>
       <c r="E56">
         <v>0.03888633595258084</v>
@@ -2339,7 +2339,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D57">
-        <v>0.7278325309909197</v>
+        <v>0.7477177449565879</v>
       </c>
       <c r="E57">
         <v>0.03888633595258084</v>
@@ -2365,7 +2365,7 @@
         <v>0.72740704571746</v>
       </c>
       <c r="D58">
-        <v>0.6620035251866065</v>
+        <v>0.725705079867345</v>
       </c>
       <c r="E58">
         <v>0.485760913641516</v>
@@ -2391,7 +2391,7 @@
         <v>0.8191770238141225</v>
       </c>
       <c r="D59">
-        <v>0.7072402978078594</v>
+        <v>0.751183902821287</v>
       </c>
       <c r="E59">
         <v>0.3956325908153508</v>
@@ -2417,7 +2417,7 @@
         <v>0.8868092261044049</v>
       </c>
       <c r="D60">
-        <v>0.6762129596343023</v>
+        <v>0.7027584950553283</v>
       </c>
       <c r="E60">
         <v>0.313019049343188</v>
@@ -2443,7 +2443,7 @@
         <v>0.9348383449761879</v>
       </c>
       <c r="D61">
-        <v>0.5894055372635247</v>
+        <v>0.6928911523366037</v>
       </c>
       <c r="E61">
         <v>0.2374987382259223</v>
@@ -2469,7 +2469,7 @@
         <v>0.9574967428985575</v>
       </c>
       <c r="D62">
-        <v>0.5171313294344659</v>
+        <v>0.6244292435610359</v>
       </c>
       <c r="E62">
         <v>0.1918122587552367</v>
@@ -2495,7 +2495,7 @@
         <v>0.9689789842148022</v>
       </c>
       <c r="D63">
-        <v>0.5754257311443318</v>
+        <v>0.6776109929983061</v>
       </c>
       <c r="E63">
         <v>0.16386766330376</v>
@@ -2521,7 +2521,7 @@
         <v>0.9824200326769011</v>
       </c>
       <c r="D64">
-        <v>0.5484898796453006</v>
+        <v>0.6280326467007606</v>
       </c>
       <c r="E64">
         <v>0.123359978568154</v>
@@ -2547,7 +2547,7 @@
         <v>0.9884687189342836</v>
       </c>
       <c r="D65">
-        <v>0.5960620953425886</v>
+        <v>0.6169627352835081</v>
       </c>
       <c r="E65">
         <v>0.09990886665006302</v>
@@ -2573,7 +2573,7 @@
         <v>0.9912772844771628</v>
       </c>
       <c r="D66">
-        <v>0.5903138857233841</v>
+        <v>0.6368745617406326</v>
       </c>
       <c r="E66">
         <v>0.08689426377821877</v>
@@ -2599,7 +2599,7 @@
         <v>0.9950589613517005</v>
       </c>
       <c r="D67">
-        <v>0.6033458341719418</v>
+        <v>0.635037684189512</v>
       </c>
       <c r="E67">
         <v>0.06539949261328341</v>
@@ -2625,7 +2625,7 @@
         <v>0.9965678660604235</v>
       </c>
       <c r="D68">
-        <v>0.5737710742883559</v>
+        <v>0.6033573416905356</v>
       </c>
       <c r="E68">
         <v>0.05450638349201309</v>
@@ -2651,7 +2651,7 @@
         <v>0.9973986661151883</v>
       </c>
       <c r="D69">
-        <v>0.4926991422498751</v>
+        <v>0.595083439901322</v>
       </c>
       <c r="E69">
         <v>0.04745295942161648</v>
@@ -2677,7 +2677,7 @@
         <v>0.9979173014907247</v>
       </c>
       <c r="D70">
-        <v>0.5707005902737102</v>
+        <v>0.6129662433858003</v>
       </c>
       <c r="E70">
         <v>0.04245985009964312</v>
@@ -2703,7 +2703,7 @@
         <v>0.998154813134039</v>
       </c>
       <c r="D71">
-        <v>0.598334915080326</v>
+        <v>0.6854561298713098</v>
       </c>
       <c r="E71">
         <v>0.03996551657558637</v>
@@ -2729,7 +2729,7 @@
         <v>0.9982233644409142</v>
       </c>
       <c r="D72">
-        <v>0.5577293839493723</v>
+        <v>0.6082274486366366</v>
       </c>
       <c r="E72">
         <v>0.03921610246150727</v>
@@ -2755,7 +2755,7 @@
         <v>0.9982517272797542</v>
       </c>
       <c r="D73">
-        <v>0.5737684787364243</v>
+        <v>0.6092166976157236</v>
       </c>
       <c r="E73">
         <v>0.03890181318920651</v>
@@ -2781,7 +2781,7 @@
         <v>0.9982529619650146</v>
       </c>
       <c r="D74">
-        <v>0.5662603855430506</v>
+        <v>0.675209162319683</v>
       </c>
       <c r="E74">
         <v>0.03888807392011995</v>
@@ -2807,7 +2807,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D75">
-        <v>0.5782459000637215</v>
+        <v>0.6156097565894771</v>
       </c>
       <c r="E75">
         <v>0.03888633595258084</v>
@@ -2833,7 +2833,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D76">
-        <v>0.5782459000637215</v>
+        <v>0.6156097565894771</v>
       </c>
       <c r="E76">
         <v>0.03888633595258084</v>
@@ -2859,7 +2859,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D77">
-        <v>0.5782459000637215</v>
+        <v>0.6156097565894771</v>
       </c>
       <c r="E77">
         <v>0.03888633595258084</v>
@@ -2885,7 +2885,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D78">
-        <v>0.5782459000637215</v>
+        <v>0.6156097565894771</v>
       </c>
       <c r="E78">
         <v>0.03888633595258084</v>
@@ -2911,7 +2911,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D79">
-        <v>0.5782459000637215</v>
+        <v>0.6156097565894771</v>
       </c>
       <c r="E79">
         <v>0.03888633595258084</v>
@@ -2937,7 +2937,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D80">
-        <v>0.5782459000637215</v>
+        <v>0.6156097565894771</v>
       </c>
       <c r="E80">
         <v>0.03888633595258084</v>
@@ -2963,7 +2963,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D81">
-        <v>0.5782459000637215</v>
+        <v>0.6156097565894771</v>
       </c>
       <c r="E81">
         <v>0.03888633595258084</v>
@@ -2989,7 +2989,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D82">
-        <v>0.5782459000637215</v>
+        <v>0.6156097565894771</v>
       </c>
       <c r="E82">
         <v>0.03888633595258084</v>
@@ -3015,7 +3015,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D83">
-        <v>0.5782459000637215</v>
+        <v>0.6156097565894771</v>
       </c>
       <c r="E83">
         <v>0.03888633595258084</v>
@@ -3041,7 +3041,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D84">
-        <v>0.5782459000637215</v>
+        <v>0.6156097565894771</v>
       </c>
       <c r="E84">
         <v>0.03888633595258084</v>
@@ -3067,7 +3067,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D85">
-        <v>0.5782459000637215</v>
+        <v>0.6156097565894771</v>
       </c>
       <c r="E85">
         <v>0.03888633595258084</v>
@@ -3093,7 +3093,7 @@
         <v>0.72740704571746</v>
       </c>
       <c r="D86">
-        <v>0.6620035251866042</v>
+        <v>0.7257050798673443</v>
       </c>
       <c r="E86">
         <v>0.485760913641516</v>
@@ -3119,7 +3119,7 @@
         <v>0.8191770238141225</v>
       </c>
       <c r="D87">
-        <v>0.7072402978078581</v>
+        <v>0.7511839028212867</v>
       </c>
       <c r="E87">
         <v>0.3956325908153508</v>
@@ -3145,7 +3145,7 @@
         <v>0.8868092261044049</v>
       </c>
       <c r="D88">
-        <v>0.6754177183454144</v>
+        <v>0.6972818581142299</v>
       </c>
       <c r="E88">
         <v>0.313019049343188</v>
@@ -3171,7 +3171,7 @@
         <v>0.9324426323677736</v>
       </c>
       <c r="D89">
-        <v>0.6890343914238246</v>
+        <v>0.7327241473985825</v>
       </c>
       <c r="E89">
         <v>0.2418252319462038</v>
@@ -3197,7 +3197,7 @@
         <v>0.9572817627022098</v>
       </c>
       <c r="D90">
-        <v>0.5213011158789593</v>
+        <v>0.6250035886139029</v>
       </c>
       <c r="E90">
         <v>0.1922967372270488</v>
@@ -3223,7 +3223,7 @@
         <v>0.9667157567325179</v>
       </c>
       <c r="D91">
-        <v>0.5865284516069607</v>
+        <v>0.687324221736801</v>
       </c>
       <c r="E91">
         <v>0.1697401561125539</v>
@@ -3249,7 +3249,7 @@
         <v>0.9852659835931871</v>
       </c>
       <c r="D92">
-        <v>0.4173711806971158</v>
+        <v>0.4623796957078694</v>
       </c>
       <c r="E92">
         <v>0.1129342905736125</v>
@@ -3275,7 +3275,7 @@
         <v>0.9910659266063855</v>
       </c>
       <c r="D93">
-        <v>0.627750828879164</v>
+        <v>0.710861147403242</v>
       </c>
       <c r="E93">
         <v>0.08794071887469575</v>
@@ -3301,7 +3301,7 @@
         <v>0.9936962735434343</v>
       </c>
       <c r="D94">
-        <v>0.41752351127823</v>
+        <v>0.4739812155679299</v>
       </c>
       <c r="E94">
         <v>0.0738692914110118</v>
@@ -3327,7 +3327,7 @@
         <v>0.9961151045478079</v>
       </c>
       <c r="D95">
-        <v>0.4409441395282439</v>
+        <v>0.4879327353886255</v>
       </c>
       <c r="E95">
         <v>0.05799024204232334</v>
@@ -3353,7 +3353,7 @@
         <v>0.9971502451123067</v>
       </c>
       <c r="D96">
-        <v>0.5243344892937782</v>
+        <v>0.554314914643665</v>
       </c>
       <c r="E96">
         <v>0.04966712336295145</v>
@@ -3379,7 +3379,7 @@
         <v>0.9978972237073443</v>
       </c>
       <c r="D97">
-        <v>0.4187475781440616</v>
+        <v>0.5396610658285217</v>
       </c>
       <c r="E97">
         <v>0.04266402149806126</v>
@@ -3405,7 +3405,7 @@
         <v>0.9981716170641876</v>
       </c>
       <c r="D98">
-        <v>0.4093245423945364</v>
+        <v>0.4597435698801877</v>
       </c>
       <c r="E98">
         <v>0.03978311939916591</v>
@@ -3431,7 +3431,7 @@
         <v>0.9982371214089832</v>
       </c>
       <c r="D99">
-        <v>0.5710029213150778</v>
+        <v>0.5915689638350096</v>
       </c>
       <c r="E99">
         <v>0.03906397697555081</v>
@@ -3457,7 +3457,7 @@
         <v>0.9982519791423018</v>
       </c>
       <c r="D100">
-        <v>0.5592067215658014</v>
+        <v>0.5954523376441201</v>
       </c>
       <c r="E100">
         <v>0.03889901091969574</v>
@@ -3483,7 +3483,7 @@
         <v>0.9982529619650146</v>
       </c>
       <c r="D101">
-        <v>0.4421458000796776</v>
+        <v>0.5502740847336364</v>
       </c>
       <c r="E101">
         <v>0.03888807392011995</v>
@@ -3509,7 +3509,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D102">
-        <v>0.6170229571151662</v>
+        <v>0.6929182092038721</v>
       </c>
       <c r="E102">
         <v>0.03888633595258084</v>
@@ -3535,7 +3535,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D103">
-        <v>0.6170229571151662</v>
+        <v>0.6929182092038721</v>
       </c>
       <c r="E103">
         <v>0.03888633595258084</v>
@@ -3561,7 +3561,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D104">
-        <v>0.6170229571151662</v>
+        <v>0.6929182092038721</v>
       </c>
       <c r="E104">
         <v>0.03888633595258084</v>
@@ -3587,7 +3587,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D105">
-        <v>0.6170229571151662</v>
+        <v>0.6929182092038721</v>
       </c>
       <c r="E105">
         <v>0.03888633595258084</v>
@@ -3613,7 +3613,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D106">
-        <v>0.6170229571151662</v>
+        <v>0.6929182092038721</v>
       </c>
       <c r="E106">
         <v>0.03888633595258084</v>
@@ -3639,7 +3639,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D107">
-        <v>0.6170229571151662</v>
+        <v>0.6929182092038721</v>
       </c>
       <c r="E107">
         <v>0.03888633595258084</v>
@@ -3665,7 +3665,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D108">
-        <v>0.6170229571151662</v>
+        <v>0.6929182092038721</v>
       </c>
       <c r="E108">
         <v>0.03888633595258084</v>
@@ -3691,7 +3691,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D109">
-        <v>0.6170229571151662</v>
+        <v>0.6929182092038721</v>
       </c>
       <c r="E109">
         <v>0.03888633595258084</v>
@@ -3717,7 +3717,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D110">
-        <v>0.6170229571151662</v>
+        <v>0.6929182092038721</v>
       </c>
       <c r="E110">
         <v>0.03888633595258084</v>
@@ -3743,7 +3743,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D111">
-        <v>0.6170229571151662</v>
+        <v>0.6929182092038721</v>
       </c>
       <c r="E111">
         <v>0.03888633595258084</v>
@@ -3769,7 +3769,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D112">
-        <v>0.6170229571151662</v>
+        <v>0.6929182092038721</v>
       </c>
       <c r="E112">
         <v>0.03888633595258084</v>
@@ -3795,7 +3795,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D113">
-        <v>0.6170229571151662</v>
+        <v>0.6929182092038721</v>
       </c>
       <c r="E113">
         <v>0.03888633595258084</v>
@@ -3821,7 +3821,7 @@
         <v>0.7214115563672288</v>
       </c>
       <c r="D114">
-        <v>0.253673630966091</v>
+        <v>0.6188857536586043</v>
       </c>
       <c r="E114">
         <v>0.4910738429708669</v>
@@ -3847,7 +3847,7 @@
         <v>0.8219600083472405</v>
       </c>
       <c r="D115">
-        <v>0.1195869594602187</v>
+        <v>0.5010993350263369</v>
       </c>
       <c r="E115">
         <v>0.3925762625982639</v>
@@ -3873,7 +3873,7 @@
         <v>0.8887267188232044</v>
       </c>
       <c r="D116">
-        <v>0.01327356482284348</v>
+        <v>0.4646775107729285</v>
       </c>
       <c r="E116">
         <v>0.3103563965499469</v>
@@ -3899,7 +3899,7 @@
         <v>0.9324329695231565</v>
       </c>
       <c r="D117">
-        <v>0.3122208534386733</v>
+        <v>0.5120253171669644</v>
       </c>
       <c r="E117">
         <v>0.2418425256639168</v>
@@ -3925,7 +3925,7 @@
         <v>0.9572954570670306</v>
       </c>
       <c r="D118">
-        <v>0.2452273217309732</v>
+        <v>0.4703327242390594</v>
       </c>
       <c r="E118">
         <v>0.1922659120698979</v>
@@ -3951,7 +3951,7 @@
         <v>0.9667163099882323</v>
       </c>
       <c r="D119">
-        <v>0.2630964114421328</v>
+        <v>0.5447942874495501</v>
       </c>
       <c r="E119">
         <v>0.1697387453834462</v>
@@ -3977,7 +3977,7 @@
         <v>0.9852668144245581</v>
       </c>
       <c r="D120">
-        <v>0.02626940421154267</v>
+        <v>0.4001368251551402</v>
       </c>
       <c r="E120">
         <v>0.1129311064223382</v>
@@ -4003,7 +4003,7 @@
         <v>0.9910659266063855</v>
       </c>
       <c r="D121">
-        <v>0.05463486403360995</v>
+        <v>0.3486199640520061</v>
       </c>
       <c r="E121">
         <v>0.08794071887469575</v>
@@ -4029,7 +4029,7 @@
         <v>0.9936962735434343</v>
       </c>
       <c r="D122">
-        <v>0.2707170651762754</v>
+        <v>0.5330538305392405</v>
       </c>
       <c r="E122">
         <v>0.07386929141101178</v>
@@ -4055,7 +4055,7 @@
         <v>0.9961151045478079</v>
       </c>
       <c r="D123">
-        <v>0.04243926046627589</v>
+        <v>0.2894797452324829</v>
       </c>
       <c r="E123">
         <v>0.05799024204232334</v>
@@ -4081,7 +4081,7 @@
         <v>0.9971502451123067</v>
       </c>
       <c r="D124">
-        <v>-0.0003257727079761796</v>
+        <v>0.388539373643605</v>
       </c>
       <c r="E124">
         <v>0.04966712336295146</v>
@@ -4107,7 +4107,7 @@
         <v>0.9977945650000301</v>
       </c>
       <c r="D125">
-        <v>0.03558788993214768</v>
+        <v>0.3103404274239541</v>
       </c>
       <c r="E125">
         <v>0.04369305231347526</v>
@@ -4133,7 +4133,7 @@
         <v>0.9981048423757145</v>
       </c>
       <c r="D126">
-        <v>0.1384829519306787</v>
+        <v>0.4785971910881834</v>
       </c>
       <c r="E126">
         <v>0.04050306808341195</v>
@@ -4159,7 +4159,7 @@
         <v>0.9982239256658171</v>
       </c>
       <c r="D127">
-        <v>0.2462604102097768</v>
+        <v>0.439642872254158</v>
       </c>
       <c r="E127">
         <v>0.03920990794638078</v>
@@ -4185,7 +4185,7 @@
         <v>0.998251205833192</v>
       </c>
       <c r="D128">
-        <v>0.2557151087944336</v>
+        <v>0.4322308734658772</v>
       </c>
       <c r="E128">
         <v>0.03890761425907197</v>
@@ -4211,7 +4211,7 @@
         <v>0.9982529619650146</v>
       </c>
       <c r="D129">
-        <v>-0.07944443023703407</v>
+        <v>0.3741711278051538</v>
       </c>
       <c r="E129">
         <v>0.03888807392011995</v>
@@ -4237,7 +4237,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D130">
-        <v>0.2351979724339566</v>
+        <v>0.4045456467406635</v>
       </c>
       <c r="E130">
         <v>0.03888633595258084</v>
@@ -4263,7 +4263,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D131">
-        <v>0.2351979724339566</v>
+        <v>0.4045456467406635</v>
       </c>
       <c r="E131">
         <v>0.03888633595258084</v>
@@ -4289,7 +4289,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D132">
-        <v>0.2351979724339566</v>
+        <v>0.4045456467406635</v>
       </c>
       <c r="E132">
         <v>0.03888633595258084</v>
@@ -4315,7 +4315,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D133">
-        <v>0.2351979724339566</v>
+        <v>0.4045456467406635</v>
       </c>
       <c r="E133">
         <v>0.03888633595258084</v>
@@ -4341,7 +4341,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D134">
-        <v>0.2351979724339566</v>
+        <v>0.4045456467406635</v>
       </c>
       <c r="E134">
         <v>0.03888633595258084</v>
@@ -4367,7 +4367,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D135">
-        <v>0.2351979724339566</v>
+        <v>0.4045456467406635</v>
       </c>
       <c r="E135">
         <v>0.03888633595258084</v>
@@ -4393,7 +4393,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D136">
-        <v>0.2351979724339566</v>
+        <v>0.4045456467406635</v>
       </c>
       <c r="E136">
         <v>0.03888633595258084</v>
@@ -4419,7 +4419,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D137">
-        <v>0.2351979724339566</v>
+        <v>0.4045456467406635</v>
       </c>
       <c r="E137">
         <v>0.03888633595258084</v>
@@ -4445,7 +4445,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D138">
-        <v>0.2351979724339566</v>
+        <v>0.4045456467406635</v>
       </c>
       <c r="E138">
         <v>0.03888633595258084</v>
@@ -4471,7 +4471,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D139">
-        <v>0.2351979724339566</v>
+        <v>0.4045456467406635</v>
       </c>
       <c r="E139">
         <v>0.03888633595258084</v>
@@ -4497,7 +4497,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D140">
-        <v>0.2351979724339566</v>
+        <v>0.4045456467406635</v>
       </c>
       <c r="E140">
         <v>0.03888633595258084</v>
@@ -4523,7 +4523,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D141">
-        <v>0.2351979724339566</v>
+        <v>0.4045456467406635</v>
       </c>
       <c r="E141">
         <v>0.03888633595258084</v>
@@ -4549,7 +4549,7 @@
         <v>0.7119619681117302</v>
       </c>
       <c r="D142">
-        <v>0.7470083017023035</v>
+        <v>0.8152225939845218</v>
       </c>
       <c r="E142">
         <v>0.4993328875356338</v>
@@ -4575,7 +4575,7 @@
         <v>0.796756637163182</v>
       </c>
       <c r="D143">
-        <v>0.7545238059428521</v>
+        <v>0.7950951617511622</v>
       </c>
       <c r="E143">
         <v>0.4194434718990812</v>
@@ -4601,7 +4601,7 @@
         <v>0.8587295977553804</v>
       </c>
       <c r="D144">
-        <v>0.6399800581293356</v>
+        <v>0.7182561505879341</v>
       </c>
       <c r="E144">
         <v>0.3496961447165218</v>
@@ -4627,7 +4627,7 @@
         <v>0.9104284007869332</v>
       </c>
       <c r="D145">
-        <v>0.775017005665654</v>
+        <v>0.791794983383066</v>
       </c>
       <c r="E145">
         <v>0.2784520487389444</v>
@@ -4653,7 +4653,7 @@
         <v>0.9384235632266718</v>
       </c>
       <c r="D146">
-        <v>0.7797825828294487</v>
+        <v>0.7967655592750211</v>
       </c>
       <c r="E146">
         <v>0.2308726726841977</v>
@@ -4679,7 +4679,7 @@
         <v>0.9652744207593744</v>
       </c>
       <c r="D147">
-        <v>0.7389354824989388</v>
+        <v>0.7521543711705713</v>
       </c>
       <c r="E147">
         <v>0.1733764087372016</v>
@@ -4705,7 +4705,7 @@
         <v>0.9790235770790404</v>
       </c>
       <c r="D148">
-        <v>0.7330445533128784</v>
+        <v>0.7501579275080339</v>
       </c>
       <c r="E148">
         <v>0.1347506810306702</v>
@@ -4731,7 +4731,7 @@
         <v>0.9861022701946438</v>
       </c>
       <c r="D149">
-        <v>0.7363560330339998</v>
+        <v>0.7530348427392211</v>
       </c>
       <c r="E149">
         <v>0.1096824607858674</v>
@@ -4757,7 +4757,7 @@
         <v>0.9951899735225097</v>
       </c>
       <c r="D150">
-        <v>0.7388626998670065</v>
+        <v>0.7630989398602201</v>
       </c>
       <c r="E150">
         <v>0.06452663044570728</v>
@@ -4783,7 +4783,7 @@
         <v>0.9971723033878457</v>
       </c>
       <c r="D151">
-        <v>0.7548182058812665</v>
+        <v>0.7690151848979507</v>
       </c>
       <c r="E151">
         <v>0.04947452796030835</v>
@@ -4809,7 +4809,7 @@
         <v>0.9979753690566</v>
       </c>
       <c r="D152">
-        <v>0.8076679662094358</v>
+        <v>0.801919870437215</v>
       </c>
       <c r="E152">
         <v>0.04186375581421694</v>
@@ -4835,7 +4835,7 @@
         <v>0.9981704798940728</v>
       </c>
       <c r="D153">
-        <v>0.735406624849859</v>
+        <v>0.7312583026721579</v>
       </c>
       <c r="E153">
         <v>0.03979548911161077</v>
@@ -4861,7 +4861,7 @@
         <v>0.9982462032972351</v>
       </c>
       <c r="D154">
-        <v>0.795768266403249</v>
+        <v>0.7842691054793132</v>
       </c>
       <c r="E154">
         <v>0.03896322336078471</v>
@@ -4887,7 +4887,7 @@
         <v>0.998251833030391</v>
       </c>
       <c r="D155">
-        <v>0.7471290975628498</v>
+        <v>0.7450493958882607</v>
       </c>
       <c r="E155">
         <v>0.03890063661255422</v>
@@ -4913,7 +4913,7 @@
         <v>0.9982529619650146</v>
       </c>
       <c r="D156">
-        <v>0.7609019120676151</v>
+        <v>0.7758258880375311</v>
       </c>
       <c r="E156">
         <v>0.03888807392011995</v>
@@ -4939,7 +4939,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D157">
-        <v>0.7456669567466025</v>
+        <v>0.7582553878544005</v>
       </c>
       <c r="E157">
         <v>0.03888633595258084</v>
@@ -4965,7 +4965,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D158">
-        <v>0.7456669567466025</v>
+        <v>0.7582553878544005</v>
       </c>
       <c r="E158">
         <v>0.03888633595258084</v>
@@ -4991,7 +4991,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D159">
-        <v>0.7456669567466025</v>
+        <v>0.7582553878544005</v>
       </c>
       <c r="E159">
         <v>0.03888633595258084</v>
@@ -5017,7 +5017,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D160">
-        <v>0.7456669567466025</v>
+        <v>0.7582553878544005</v>
       </c>
       <c r="E160">
         <v>0.03888633595258084</v>
@@ -5043,7 +5043,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D161">
-        <v>0.7456669567466025</v>
+        <v>0.7582553878544005</v>
       </c>
       <c r="E161">
         <v>0.03888633595258084</v>
@@ -5069,7 +5069,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D162">
-        <v>0.7456669567466025</v>
+        <v>0.7582553878544005</v>
       </c>
       <c r="E162">
         <v>0.03888633595258084</v>
@@ -5095,7 +5095,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D163">
-        <v>0.7456669567466025</v>
+        <v>0.7582553878544005</v>
       </c>
       <c r="E163">
         <v>0.03888633595258084</v>
@@ -5121,7 +5121,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D164">
-        <v>0.7456669567466025</v>
+        <v>0.7582553878544005</v>
       </c>
       <c r="E164">
         <v>0.03888633595258084</v>
@@ -5147,7 +5147,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D165">
-        <v>0.7456669567466025</v>
+        <v>0.7582553878544005</v>
       </c>
       <c r="E165">
         <v>0.03888633595258084</v>
@@ -5173,7 +5173,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D166">
-        <v>0.7456669567466025</v>
+        <v>0.7582553878544005</v>
       </c>
       <c r="E166">
         <v>0.03888633595258084</v>
@@ -5199,7 +5199,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D167">
-        <v>0.7456669567466025</v>
+        <v>0.7582553878544005</v>
       </c>
       <c r="E167">
         <v>0.03888633595258084</v>
@@ -5225,7 +5225,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D168">
-        <v>0.7456669567466025</v>
+        <v>0.7582553878544005</v>
       </c>
       <c r="E168">
         <v>0.03888633595258084</v>
@@ -5251,7 +5251,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D169">
-        <v>0.7456669567466025</v>
+        <v>0.7582553878544005</v>
       </c>
       <c r="E169">
         <v>0.03888633595258084</v>
@@ -5277,7 +5277,7 @@
         <v>0.696695733939747</v>
       </c>
       <c r="D170">
-        <v>0.6943304889957849</v>
+        <v>0.8222558953096406</v>
       </c>
       <c r="E170">
         <v>0.5123945631296672</v>
@@ -5303,7 +5303,7 @@
         <v>0.7944779314550005</v>
       </c>
       <c r="D171">
-        <v>0.7322225216201322</v>
+        <v>0.8092110516732016</v>
       </c>
       <c r="E171">
         <v>0.4217882573052799</v>
@@ -5329,7 +5329,7 @@
         <v>0.8592698485749698</v>
       </c>
       <c r="D172">
-        <v>0.6105113045249819</v>
+        <v>0.7173456892094778</v>
       </c>
       <c r="E172">
         <v>0.3490268445873398</v>
@@ -5355,7 +5355,7 @@
         <v>0.910664016169232</v>
       </c>
       <c r="D173">
-        <v>0.7777753807551784</v>
+        <v>0.782191242926095</v>
       </c>
       <c r="E173">
         <v>0.2780855777368428</v>
@@ -5381,7 +5381,7 @@
         <v>0.9385061058127483</v>
       </c>
       <c r="D174">
-        <v>0.7832661672121525</v>
+        <v>0.7888944512011018</v>
       </c>
       <c r="E174">
         <v>0.230717879559494</v>
@@ -5407,7 +5407,7 @@
         <v>0.9631943327211208</v>
       </c>
       <c r="D175">
-        <v>0.7498851613365354</v>
+        <v>0.759333434952428</v>
       </c>
       <c r="E175">
         <v>0.178493580513105</v>
@@ -5433,7 +5433,7 @@
         <v>0.977079173559263</v>
       </c>
       <c r="D176">
-        <v>0.758128466587393</v>
+        <v>0.7667156639419102</v>
       </c>
       <c r="E176">
         <v>0.1408576341949229</v>
@@ -5459,7 +5459,7 @@
         <v>0.98592946728022</v>
       </c>
       <c r="D177">
-        <v>0.7568788654304529</v>
+        <v>0.7555410801328707</v>
       </c>
       <c r="E177">
         <v>0.1103622443299599</v>
@@ -5485,7 +5485,7 @@
         <v>0.9951112957924763</v>
       </c>
       <c r="D178">
-        <v>0.7547445316157015</v>
+        <v>0.7649956724057072</v>
       </c>
       <c r="E178">
         <v>0.06505222178421292</v>
@@ -5511,7 +5511,7 @@
         <v>0.9971479433960009</v>
       </c>
       <c r="D179">
-        <v>0.7547475186768146</v>
+        <v>0.7493908932803512</v>
       </c>
       <c r="E179">
         <v>0.04968717711456219</v>
@@ -5537,7 +5537,7 @@
         <v>0.9979753690566</v>
       </c>
       <c r="D180">
-        <v>0.7658426150060015</v>
+        <v>0.7699659912252237</v>
       </c>
       <c r="E180">
         <v>0.04186375581421695</v>
@@ -5563,7 +5563,7 @@
         <v>0.9981704798940728</v>
       </c>
       <c r="D181">
-        <v>0.7636029169962502</v>
+        <v>0.7704340372744319</v>
       </c>
       <c r="E181">
         <v>0.03979548911161077</v>
@@ -5589,7 +5589,7 @@
         <v>0.9982462032972351</v>
       </c>
       <c r="D182">
-        <v>0.7687457549555837</v>
+        <v>0.7740205929954529</v>
       </c>
       <c r="E182">
         <v>0.03896322336078471</v>
@@ -5615,7 +5615,7 @@
         <v>0.998251833030391</v>
       </c>
       <c r="D183">
-        <v>0.7696756146331483</v>
+        <v>0.7612946351891554</v>
       </c>
       <c r="E183">
         <v>0.03890063661255422</v>
@@ -5641,7 +5641,7 @@
         <v>0.9982529619650146</v>
       </c>
       <c r="D184">
-        <v>0.7684951337082266</v>
+        <v>0.76582002228531</v>
       </c>
       <c r="E184">
         <v>0.03888807392011995</v>
@@ -5667,7 +5667,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D185">
-        <v>0.7742756543333794</v>
+        <v>0.7734414685918436</v>
       </c>
       <c r="E185">
         <v>0.03888633595258084</v>
@@ -5693,7 +5693,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D186">
-        <v>0.7742756543333794</v>
+        <v>0.7734414685918436</v>
       </c>
       <c r="E186">
         <v>0.03888633595258084</v>
@@ -5719,7 +5719,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D187">
-        <v>0.7742756543333794</v>
+        <v>0.7734414685918436</v>
       </c>
       <c r="E187">
         <v>0.03888633595258084</v>
@@ -5745,7 +5745,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D188">
-        <v>0.7742756543333794</v>
+        <v>0.7734414685918436</v>
       </c>
       <c r="E188">
         <v>0.03888633595258084</v>
@@ -5771,7 +5771,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D189">
-        <v>0.7742756543333794</v>
+        <v>0.7734414685918436</v>
       </c>
       <c r="E189">
         <v>0.03888633595258084</v>
@@ -5797,7 +5797,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D190">
-        <v>0.7742756543333794</v>
+        <v>0.7734414685918436</v>
       </c>
       <c r="E190">
         <v>0.03888633595258084</v>
@@ -5823,7 +5823,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D191">
-        <v>0.7742756543333794</v>
+        <v>0.7734414685918436</v>
       </c>
       <c r="E191">
         <v>0.03888633595258084</v>
@@ -5849,7 +5849,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D192">
-        <v>0.7742756543333794</v>
+        <v>0.7734414685918436</v>
       </c>
       <c r="E192">
         <v>0.03888633595258084</v>
@@ -5875,7 +5875,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D193">
-        <v>0.7742756543333794</v>
+        <v>0.7734414685918436</v>
       </c>
       <c r="E193">
         <v>0.03888633595258084</v>
@@ -5901,7 +5901,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D194">
-        <v>0.7742756543333794</v>
+        <v>0.7734414685918436</v>
       </c>
       <c r="E194">
         <v>0.03888633595258084</v>
@@ -5927,7 +5927,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D195">
-        <v>0.7742756543333794</v>
+        <v>0.7734414685918436</v>
       </c>
       <c r="E195">
         <v>0.03888633595258084</v>
@@ -5953,7 +5953,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D196">
-        <v>0.7742756543333794</v>
+        <v>0.7734414685918436</v>
       </c>
       <c r="E196">
         <v>0.03888633595258084</v>
@@ -5979,7 +5979,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D197">
-        <v>0.7742756543333794</v>
+        <v>0.7734414685918436</v>
       </c>
       <c r="E197">
         <v>0.03888633595258084</v>
@@ -6005,7 +6005,7 @@
         <v>0.6875021648854569</v>
       </c>
       <c r="D198">
-        <v>0.4660968732988494</v>
+        <v>0.707469220582462</v>
       </c>
       <c r="E198">
         <v>0.5201022828855739</v>
@@ -6031,7 +6031,7 @@
         <v>0.786985336031731</v>
       </c>
       <c r="D199">
-        <v>0.5434543489398254</v>
+        <v>0.665903625676314</v>
       </c>
       <c r="E199">
         <v>0.4294078744163848</v>
@@ -6057,7 +6057,7 @@
         <v>0.8598118461836737</v>
       </c>
       <c r="D200">
-        <v>0.3109048373322021</v>
+        <v>0.5723196069241763</v>
       </c>
       <c r="E200">
         <v>0.3483540882331806</v>
@@ -6083,7 +6083,7 @@
         <v>0.9096330071264882</v>
       </c>
       <c r="D201">
-        <v>0.3270361844556428</v>
+        <v>0.5549611976040687</v>
       </c>
       <c r="E201">
         <v>0.2796856399956794</v>
@@ -6109,7 +6109,7 @@
         <v>0.9454475763135667</v>
       </c>
       <c r="D202">
-        <v>0.2730207843237659</v>
+        <v>0.5779026922763879</v>
       </c>
       <c r="E202">
         <v>0.2173062807101398</v>
@@ -6135,7 +6135,7 @@
         <v>0.9637785500779958</v>
       </c>
       <c r="D203">
-        <v>0.2391876259060604</v>
+        <v>0.5387797425284977</v>
       </c>
       <c r="E203">
         <v>0.1770712972245292</v>
@@ -6161,7 +6161,7 @@
         <v>0.9770197184638877</v>
       </c>
       <c r="D204">
-        <v>0.1833020712505826</v>
+        <v>0.5294686387635641</v>
       </c>
       <c r="E204">
         <v>0.1410402035336267</v>
@@ -6187,7 +6187,7 @@
         <v>0.9856281830597888</v>
       </c>
       <c r="D205">
-        <v>0.2246381061969412</v>
+        <v>0.5420228733844779</v>
       </c>
       <c r="E205">
         <v>0.1115375477450936</v>
@@ -6213,7 +6213,7 @@
         <v>0.994882653422122</v>
       </c>
       <c r="D206">
-        <v>0.2246511974515661</v>
+        <v>0.5352867456423414</v>
       </c>
       <c r="E206">
         <v>0.06655606987589227</v>
@@ -6239,7 +6239,7 @@
         <v>0.9969078141276718</v>
       </c>
       <c r="D207">
-        <v>0.230588176526172</v>
+        <v>0.5376313928338502</v>
       </c>
       <c r="E207">
         <v>0.05173661962609286</v>
@@ -6265,7 +6265,7 @@
         <v>0.9978369916866451</v>
       </c>
       <c r="D208">
-        <v>0.2666630057305776</v>
+        <v>0.5481180939591823</v>
       </c>
       <c r="E208">
         <v>0.04327074253229234</v>
@@ -6291,7 +6291,7 @@
         <v>0.9981237900690547</v>
       </c>
       <c r="D209">
-        <v>0.2202793597964465</v>
+        <v>0.5232373609739203</v>
       </c>
       <c r="E209">
         <v>0.04030008560873011</v>
@@ -6317,7 +6317,7 @@
         <v>0.9982376674607891</v>
       </c>
       <c r="D210">
-        <v>0.2335054038025148</v>
+        <v>0.5392942364117455</v>
       </c>
       <c r="E210">
         <v>0.03905792647174625</v>
@@ -6343,7 +6343,7 @@
         <v>0.998251833030391</v>
       </c>
       <c r="D211">
-        <v>0.2030012089351899</v>
+        <v>0.5207161539255432</v>
       </c>
       <c r="E211">
         <v>0.03890063661255422</v>
@@ -6369,7 +6369,7 @@
         <v>0.9982529619650146</v>
       </c>
       <c r="D212">
-        <v>0.2037898771062971</v>
+        <v>0.5219382348449824</v>
       </c>
       <c r="E212">
         <v>0.03888807392011995</v>
@@ -6395,7 +6395,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D213">
-        <v>0.2699251941219422</v>
+        <v>0.5520645173287414</v>
       </c>
       <c r="E213">
         <v>0.03888633595258084</v>
@@ -6421,7 +6421,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D214">
-        <v>0.2699251941219422</v>
+        <v>0.5520645173287414</v>
       </c>
       <c r="E214">
         <v>0.03888633595258084</v>
@@ -6447,7 +6447,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D215">
-        <v>0.2699251941219422</v>
+        <v>0.5520645173287414</v>
       </c>
       <c r="E215">
         <v>0.03888633595258084</v>
@@ -6473,7 +6473,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D216">
-        <v>0.2699251941219422</v>
+        <v>0.5520645173287414</v>
       </c>
       <c r="E216">
         <v>0.03888633595258084</v>
@@ -6499,7 +6499,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D217">
-        <v>0.2699251941219422</v>
+        <v>0.5520645173287414</v>
       </c>
       <c r="E217">
         <v>0.03888633595258084</v>
@@ -6525,7 +6525,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D218">
-        <v>0.2699251941219422</v>
+        <v>0.5520645173287414</v>
       </c>
       <c r="E218">
         <v>0.03888633595258084</v>
@@ -6551,7 +6551,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D219">
-        <v>0.2699251941219422</v>
+        <v>0.5520645173287414</v>
       </c>
       <c r="E219">
         <v>0.03888633595258084</v>
@@ -6577,7 +6577,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D220">
-        <v>0.2699251941219422</v>
+        <v>0.5520645173287414</v>
       </c>
       <c r="E220">
         <v>0.03888633595258084</v>
@@ -6603,7 +6603,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D221">
-        <v>0.2699251941219422</v>
+        <v>0.5520645173287414</v>
       </c>
       <c r="E221">
         <v>0.03888633595258084</v>
@@ -6629,7 +6629,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D222">
-        <v>0.2699251941219422</v>
+        <v>0.5520645173287414</v>
       </c>
       <c r="E222">
         <v>0.03888633595258084</v>
@@ -6655,7 +6655,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D223">
-        <v>0.2699251941219422</v>
+        <v>0.5520645173287414</v>
       </c>
       <c r="E223">
         <v>0.03888633595258084</v>
@@ -6681,7 +6681,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D224">
-        <v>0.2699251941219422</v>
+        <v>0.5520645173287414</v>
       </c>
       <c r="E224">
         <v>0.03888633595258084</v>
@@ -6707,7 +6707,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D225">
-        <v>0.2699251941219422</v>
+        <v>0.5520645173287414</v>
       </c>
       <c r="E225">
         <v>0.03888633595258084</v>
@@ -6733,7 +6733,7 @@
         <v>0.6875021648854569</v>
       </c>
       <c r="D226">
-        <v>0.4660968732988474</v>
+        <v>0.7074692205824615</v>
       </c>
       <c r="E226">
         <v>0.5201022828855739</v>
@@ -6759,7 +6759,7 @@
         <v>0.7869853360317312</v>
       </c>
       <c r="D227">
-        <v>0.543454348939824</v>
+        <v>0.6659036256763133</v>
       </c>
       <c r="E227">
         <v>0.4294078744163848</v>
@@ -6785,7 +6785,7 @@
         <v>0.8598118461836737</v>
       </c>
       <c r="D228">
-        <v>0.3109048373322006</v>
+        <v>0.5723196069241759</v>
       </c>
       <c r="E228">
         <v>0.3483540882331806</v>
@@ -6811,7 +6811,7 @@
         <v>0.9096330071264882</v>
       </c>
       <c r="D229">
-        <v>0.3707115831116838</v>
+        <v>0.5789832684367644</v>
       </c>
       <c r="E229">
         <v>0.2796856399956794</v>
@@ -6837,7 +6837,7 @@
         <v>0.9454475763135667</v>
       </c>
       <c r="D230">
-        <v>0.3136213024004884</v>
+        <v>0.5975335319545961</v>
       </c>
       <c r="E230">
         <v>0.2173062807101398</v>
@@ -6863,7 +6863,7 @@
         <v>0.9637785500779958</v>
       </c>
       <c r="D231">
-        <v>0.2405811869008362</v>
+        <v>0.552812725708034</v>
       </c>
       <c r="E231">
         <v>0.1770712972245292</v>
@@ -6889,7 +6889,7 @@
         <v>0.9770197184638877</v>
       </c>
       <c r="D232">
-        <v>0.3846526280323584</v>
+        <v>0.5142067602967924</v>
       </c>
       <c r="E232">
         <v>0.1410402035336267</v>
@@ -6915,7 +6915,7 @@
         <v>0.9856281830597888</v>
       </c>
       <c r="D233">
-        <v>0.3807685144284154</v>
+        <v>0.51024560212486</v>
       </c>
       <c r="E233">
         <v>0.1115375477450936</v>
@@ -6941,7 +6941,7 @@
         <v>0.994882653422122</v>
       </c>
       <c r="D234">
-        <v>0.3784862010354977</v>
+        <v>0.504866014512066</v>
       </c>
       <c r="E234">
         <v>0.06655606987589227</v>
@@ -6967,7 +6967,7 @@
         <v>0.9969078141276718</v>
       </c>
       <c r="D235">
-        <v>0.3919683914054887</v>
+        <v>0.5086761871230898</v>
       </c>
       <c r="E235">
         <v>0.05173661962609286</v>
@@ -6993,7 +6993,7 @@
         <v>0.9978369916866451</v>
       </c>
       <c r="D236">
-        <v>0.4087784873888066</v>
+        <v>0.5180553480377607</v>
       </c>
       <c r="E236">
         <v>0.04327074253229234</v>
@@ -7019,7 +7019,7 @@
         <v>0.9981237900690547</v>
       </c>
       <c r="D237">
-        <v>0.432420942450977</v>
+        <v>0.5291158233057327</v>
       </c>
       <c r="E237">
         <v>0.0403000856087301</v>
@@ -7045,7 +7045,7 @@
         <v>0.9982376674607891</v>
       </c>
       <c r="D238">
-        <v>0.3714805500567038</v>
+        <v>0.4936847338431725</v>
       </c>
       <c r="E238">
         <v>0.03905792647174625</v>
@@ -7071,7 +7071,7 @@
         <v>0.998251833030391</v>
       </c>
       <c r="D239">
-        <v>0.3941507036464972</v>
+        <v>0.5147264836726402</v>
       </c>
       <c r="E239">
         <v>0.03890063661255422</v>
@@ -7097,7 +7097,7 @@
         <v>0.9982529619650146</v>
       </c>
       <c r="D240">
-        <v>0.3933113563913696</v>
+        <v>0.5125190708999323</v>
       </c>
       <c r="E240">
         <v>0.03888807392011995</v>
@@ -7123,7 +7123,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D241">
-        <v>0.3915564149212079</v>
+        <v>0.5154036617500528</v>
       </c>
       <c r="E241">
         <v>0.03888633595258084</v>
@@ -7149,7 +7149,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D242">
-        <v>0.3915564149212079</v>
+        <v>0.5154036617500528</v>
       </c>
       <c r="E242">
         <v>0.03888633595258084</v>
@@ -7175,7 +7175,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D243">
-        <v>0.3915564149212079</v>
+        <v>0.5154036617500528</v>
       </c>
       <c r="E243">
         <v>0.03888633595258084</v>
@@ -7201,7 +7201,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D244">
-        <v>0.3915564149212079</v>
+        <v>0.5154036617500528</v>
       </c>
       <c r="E244">
         <v>0.03888633595258084</v>
@@ -7227,7 +7227,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D245">
-        <v>0.3915564149212079</v>
+        <v>0.5154036617500528</v>
       </c>
       <c r="E245">
         <v>0.03888633595258084</v>
@@ -7253,7 +7253,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D246">
-        <v>0.3915564149212079</v>
+        <v>0.5154036617500528</v>
       </c>
       <c r="E246">
         <v>0.03888633595258084</v>
@@ -7279,7 +7279,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D247">
-        <v>0.3915564149212079</v>
+        <v>0.5154036617500528</v>
       </c>
       <c r="E247">
         <v>0.03888633595258084</v>
@@ -7305,7 +7305,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D248">
-        <v>0.3915564149212079</v>
+        <v>0.5154036617500528</v>
       </c>
       <c r="E248">
         <v>0.03888633595258084</v>
@@ -7331,7 +7331,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D249">
-        <v>0.3915564149212079</v>
+        <v>0.5154036617500528</v>
       </c>
       <c r="E249">
         <v>0.03888633595258084</v>
@@ -7357,7 +7357,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D250">
-        <v>0.3915564149212079</v>
+        <v>0.5154036617500528</v>
       </c>
       <c r="E250">
         <v>0.03888633595258084</v>
@@ -7383,7 +7383,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D251">
-        <v>0.3915564149212079</v>
+        <v>0.5154036617500528</v>
       </c>
       <c r="E251">
         <v>0.03888633595258084</v>
@@ -7409,7 +7409,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D252">
-        <v>0.3915564149212079</v>
+        <v>0.5154036617500528</v>
       </c>
       <c r="E252">
         <v>0.03888633595258084</v>
@@ -7435,7 +7435,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D253">
-        <v>0.3915564149212079</v>
+        <v>0.5154036617500528</v>
       </c>
       <c r="E253">
         <v>0.03888633595258084</v>
@@ -7461,7 +7461,7 @@
         <v>0.6875021648854569</v>
       </c>
       <c r="D254">
-        <v>0.4660968732988474</v>
+        <v>0.7074692205824615</v>
       </c>
       <c r="E254">
         <v>0.5201022828855739</v>
@@ -7487,7 +7487,7 @@
         <v>0.786985336031731</v>
       </c>
       <c r="D255">
-        <v>0.5434543489398235</v>
+        <v>0.6659036256763129</v>
       </c>
       <c r="E255">
         <v>0.4294078744163848</v>
@@ -7513,7 +7513,7 @@
         <v>0.8574854778046785</v>
       </c>
       <c r="D256">
-        <v>0.1972860854204663</v>
+        <v>0.5159866885704807</v>
       </c>
       <c r="E256">
         <v>0.3512325963490711</v>
@@ -7539,7 +7539,7 @@
         <v>0.9001381244664584</v>
       </c>
       <c r="D257">
-        <v>0.1130690361319867</v>
+        <v>0.4442005854718653</v>
       </c>
       <c r="E257">
         <v>0.2940120381512953</v>
@@ -7565,7 +7565,7 @@
         <v>0.9336434388996721</v>
       </c>
       <c r="D258">
-        <v>0.06989195386777924</v>
+        <v>0.3967849215862674</v>
       </c>
       <c r="E258">
         <v>0.2396664201287134</v>
@@ -7591,7 +7591,7 @@
         <v>0.9545277538666738</v>
       </c>
       <c r="D259">
-        <v>0.006029106104102011</v>
+        <v>0.3969990092517756</v>
       </c>
       <c r="E259">
         <v>0.1983985332058366</v>
@@ -7617,7 +7617,7 @@
         <v>0.9756007392858141</v>
       </c>
       <c r="D260">
-        <v>0.2856613730095808</v>
+        <v>0.3318681550764564</v>
       </c>
       <c r="E260">
         <v>0.1453294357301766</v>
@@ -7643,7 +7643,7 @@
         <v>0.9833541081745955</v>
       </c>
       <c r="D261">
-        <v>0.06875979786066266</v>
+        <v>0.3180952114974358</v>
       </c>
       <c r="E261">
         <v>0.1200380101305347</v>
@@ -7669,7 +7669,7 @@
         <v>0.9944180624202927</v>
       </c>
       <c r="D262">
-        <v>0.2818353362153345</v>
+        <v>0.3456769806707154</v>
       </c>
       <c r="E262">
         <v>0.06951167302376426</v>
@@ -7695,7 +7695,7 @@
         <v>0.9954998232801117</v>
       </c>
       <c r="D263">
-        <v>0.2369892053919262</v>
+        <v>0.3035213002523252</v>
       </c>
       <c r="E263">
         <v>0.062413715623182</v>
@@ -7721,7 +7721,7 @@
         <v>0.9964834026473375</v>
       </c>
       <c r="D264">
-        <v>0.237465410661988</v>
+        <v>0.3036101580534221</v>
       </c>
       <c r="E264">
         <v>0.05517299705395946</v>
@@ -7747,7 +7747,7 @@
         <v>0.9973108172784467</v>
       </c>
       <c r="D265">
-        <v>0.2295449936959983</v>
+        <v>0.2992586683376434</v>
       </c>
       <c r="E265">
         <v>0.04824756607946791</v>
@@ -7773,7 +7773,7 @@
         <v>0.9979556154240042</v>
       </c>
       <c r="D266">
-        <v>0.2332409467734783</v>
+        <v>0.2979919327567848</v>
       </c>
       <c r="E266">
         <v>0.04206748527413548</v>
@@ -7799,7 +7799,7 @@
         <v>0.9981889615881329</v>
       </c>
       <c r="D267">
-        <v>0.2309642995438507</v>
+        <v>0.2980894416854883</v>
       </c>
       <c r="E267">
         <v>0.03959397316291889</v>
@@ -7825,7 +7825,7 @@
         <v>0.9982417989150227</v>
       </c>
       <c r="D268">
-        <v>0.2242372440429257</v>
+        <v>0.2987861238071311</v>
       </c>
       <c r="E268">
         <v>0.03901211765981211</v>
@@ -7851,7 +7851,7 @@
         <v>0.9982526545027599</v>
       </c>
       <c r="D269">
-        <v>0.2309642995438507</v>
+        <v>0.2980894416854883</v>
       </c>
       <c r="E269">
         <v>0.03889149573711304</v>
@@ -7877,7 +7877,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D270">
-        <v>0.2263128069345298</v>
+        <v>0.2988026281406527</v>
       </c>
       <c r="E270">
         <v>0.03888633595258084</v>
@@ -7903,7 +7903,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D271">
-        <v>0.2263128069345298</v>
+        <v>0.2988026281406527</v>
       </c>
       <c r="E271">
         <v>0.03888633595258084</v>
@@ -7929,7 +7929,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D272">
-        <v>0.2263128069345298</v>
+        <v>0.2988026281406527</v>
       </c>
       <c r="E272">
         <v>0.03888633595258084</v>
@@ -7955,7 +7955,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D273">
-        <v>0.2263128069345298</v>
+        <v>0.2988026281406527</v>
       </c>
       <c r="E273">
         <v>0.03888633595258084</v>
@@ -7981,7 +7981,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D274">
-        <v>0.2263128069345298</v>
+        <v>0.2988026281406527</v>
       </c>
       <c r="E274">
         <v>0.03888633595258084</v>
@@ -8007,7 +8007,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D275">
-        <v>0.2263128069345298</v>
+        <v>0.2988026281406527</v>
       </c>
       <c r="E275">
         <v>0.03888633595258084</v>
@@ -8033,7 +8033,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D276">
-        <v>0.2263128069345298</v>
+        <v>0.2988026281406527</v>
       </c>
       <c r="E276">
         <v>0.03888633595258084</v>
@@ -8059,7 +8059,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D277">
-        <v>0.2263128069345298</v>
+        <v>0.2988026281406527</v>
       </c>
       <c r="E277">
         <v>0.03888633595258084</v>
@@ -8085,7 +8085,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D278">
-        <v>0.2263128069345298</v>
+        <v>0.2988026281406527</v>
       </c>
       <c r="E278">
         <v>0.03888633595258084</v>
@@ -8111,7 +8111,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D279">
-        <v>0.2263128069345298</v>
+        <v>0.2988026281406527</v>
       </c>
       <c r="E279">
         <v>0.03888633595258084</v>
@@ -8137,7 +8137,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D280">
-        <v>0.2263128069345298</v>
+        <v>0.2988026281406527</v>
       </c>
       <c r="E280">
         <v>0.03888633595258084</v>
@@ -8163,7 +8163,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D281">
-        <v>0.2263128069345298</v>
+        <v>0.2988026281406527</v>
       </c>
       <c r="E281">
         <v>0.03888633595258084</v>
@@ -8189,7 +8189,7 @@
         <v>0.6875021648854569</v>
       </c>
       <c r="D282">
-        <v>0.4660968732988476</v>
+        <v>0.7074692205824614</v>
       </c>
       <c r="E282">
         <v>0.5201022828855739</v>
@@ -8215,7 +8215,7 @@
         <v>0.7869853360317312</v>
       </c>
       <c r="D283">
-        <v>0.5434543489398242</v>
+        <v>0.6659036256763136</v>
       </c>
       <c r="E283">
         <v>0.4294078744163848</v>
@@ -8241,7 +8241,7 @@
         <v>0.8573068452451986</v>
       </c>
       <c r="D284">
-        <v>0.1987029924185371</v>
+        <v>0.5166679754906131</v>
       </c>
       <c r="E284">
         <v>0.3514526508684157</v>
@@ -8267,7 +8267,7 @@
         <v>0.9001416953079255</v>
       </c>
       <c r="D285">
-        <v>0.3806708262674133</v>
+        <v>0.4894908684051381</v>
       </c>
       <c r="E285">
         <v>0.2940067814917467</v>
@@ -8293,7 +8293,7 @@
         <v>0.9336434388996721</v>
       </c>
       <c r="D286">
-        <v>0.2668390373924115</v>
+        <v>0.4240313396386525</v>
       </c>
       <c r="E286">
         <v>0.2396664201287134</v>
@@ -8319,7 +8319,7 @@
         <v>0.9542117606954095</v>
       </c>
       <c r="D287">
-        <v>0.1515746307763605</v>
+        <v>0.4563208568746768</v>
       </c>
       <c r="E287">
         <v>0.1990866897063563</v>
@@ -8345,7 +8345,7 @@
         <v>0.9733688665793239</v>
       </c>
       <c r="D288">
-        <v>0.2263250652195118</v>
+        <v>0.4815821684677983</v>
       </c>
       <c r="E288">
         <v>0.1518308693499791</v>
@@ -8371,7 +8371,7 @@
         <v>0.9827216236851836</v>
       </c>
       <c r="D289">
-        <v>0.1983071074658991</v>
+        <v>0.4428489675763638</v>
       </c>
       <c r="E289">
         <v>0.1222972573904279</v>
@@ -8397,7 +8397,7 @@
         <v>0.98930567919273</v>
       </c>
       <c r="D290">
-        <v>0.2412604200862354</v>
+        <v>0.4831350271660395</v>
       </c>
       <c r="E290">
         <v>0.09621479468712052</v>
@@ -8423,7 +8423,7 @@
         <v>0.9957223709682429</v>
       </c>
       <c r="D291">
-        <v>0.255410364803039</v>
+        <v>0.4845132519470245</v>
       </c>
       <c r="E291">
         <v>0.0608508729405725</v>
@@ -8449,7 +8449,7 @@
         <v>0.9969257858776099</v>
       </c>
       <c r="D292">
-        <v>0.2358753344428833</v>
+        <v>0.4765304689751517</v>
       </c>
       <c r="E292">
         <v>0.05158605420689988</v>
@@ -8475,7 +8475,7 @@
         <v>0.9978913079115382</v>
       </c>
       <c r="D293">
-        <v>0.2306438246995872</v>
+        <v>0.4776845182866618</v>
       </c>
       <c r="E293">
         <v>0.04272399325411329</v>
@@ -8501,7 +8501,7 @@
         <v>0.9980645190241862</v>
       </c>
       <c r="D294">
-        <v>0.226034958921552</v>
+        <v>0.4757037396850411</v>
       </c>
       <c r="E294">
         <v>0.04093169289077053</v>
@@ -8527,7 +8527,7 @@
         <v>0.9981668068140658</v>
       </c>
       <c r="D295">
-        <v>0.2296408143119549</v>
+        <v>0.4778947347008357</v>
       </c>
       <c r="E295">
         <v>0.03983541726601313</v>
@@ -8553,7 +8553,7 @@
         <v>0.998197712183583</v>
       </c>
       <c r="D296">
-        <v>0.2288836713403087</v>
+        <v>0.4778788152522364</v>
       </c>
       <c r="E296">
         <v>0.03949820203688471</v>
@@ -8579,7 +8579,7 @@
         <v>0.9982259877631571</v>
       </c>
       <c r="D297">
-        <v>0.2302419798922292</v>
+        <v>0.4781282148446103</v>
       </c>
       <c r="E297">
         <v>0.03918713915571942</v>
@@ -8605,7 +8605,7 @@
         <v>0.9982456899641395</v>
       </c>
       <c r="D298">
-        <v>0.2243135862726678</v>
+        <v>0.4759172583876441</v>
       </c>
       <c r="E298">
         <v>0.03896892517578834</v>
@@ -8631,7 +8631,7 @@
         <v>0.9982510611573264</v>
       </c>
       <c r="D299">
-        <v>0.2241270935489434</v>
+        <v>0.4755749274022393</v>
       </c>
       <c r="E299">
         <v>0.03890922361838565</v>
@@ -8657,7 +8657,7 @@
         <v>0.9982530034177458</v>
       </c>
       <c r="D300">
-        <v>0.2295513874278629</v>
+        <v>0.4781299812688738</v>
       </c>
       <c r="E300">
         <v>0.03888761256026187</v>
@@ -8683,7 +8683,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D301">
-        <v>0.2344294687984603</v>
+        <v>0.480184867258074</v>
       </c>
       <c r="E301">
         <v>0.03888633595258084</v>
@@ -8709,7 +8709,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D302">
-        <v>0.2344294687984603</v>
+        <v>0.480184867258074</v>
       </c>
       <c r="E302">
         <v>0.03888633595258084</v>
@@ -8735,7 +8735,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D303">
-        <v>0.2344294687984603</v>
+        <v>0.480184867258074</v>
       </c>
       <c r="E303">
         <v>0.03888633595258084</v>
@@ -8761,7 +8761,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D304">
-        <v>0.2344294687984603</v>
+        <v>0.480184867258074</v>
       </c>
       <c r="E304">
         <v>0.03888633595258084</v>
@@ -8787,7 +8787,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D305">
-        <v>0.2344294687984603</v>
+        <v>0.480184867258074</v>
       </c>
       <c r="E305">
         <v>0.03888633595258084</v>
@@ -8813,7 +8813,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D306">
-        <v>0.2344294687984603</v>
+        <v>0.480184867258074</v>
       </c>
       <c r="E306">
         <v>0.03888633595258084</v>
@@ -8839,7 +8839,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D307">
-        <v>0.2344294687984603</v>
+        <v>0.480184867258074</v>
       </c>
       <c r="E307">
         <v>0.03888633595258084</v>
@@ -8865,7 +8865,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D308">
-        <v>0.2344294687984603</v>
+        <v>0.480184867258074</v>
       </c>
       <c r="E308">
         <v>0.03888633595258084</v>
@@ -8891,7 +8891,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D309">
-        <v>0.2344294687984603</v>
+        <v>0.480184867258074</v>
       </c>
       <c r="E309">
         <v>0.03888633595258084</v>
@@ -8917,7 +8917,7 @@
         <v>0.6875021648854569</v>
       </c>
       <c r="D310">
-        <v>0.4660968732988484</v>
+        <v>0.7074692205824618</v>
       </c>
       <c r="E310">
         <v>0.5201022828855739</v>
@@ -8943,7 +8943,7 @@
         <v>0.7869853360317312</v>
       </c>
       <c r="D311">
-        <v>0.5434543489398239</v>
+        <v>0.6659036256763133</v>
       </c>
       <c r="E311">
         <v>0.4294078744163848</v>
@@ -8969,7 +8969,7 @@
         <v>0.8573068452451986</v>
       </c>
       <c r="D312">
-        <v>0.1987029924185363</v>
+        <v>0.5166679754906132</v>
       </c>
       <c r="E312">
         <v>0.3514526508684157</v>
@@ -8995,7 +8995,7 @@
         <v>0.9001416953079255</v>
       </c>
       <c r="D313">
-        <v>0.08380063845043539</v>
+        <v>0.4284808363194976</v>
       </c>
       <c r="E313">
         <v>0.2940067814917467</v>
@@ -9021,7 +9021,7 @@
         <v>0.9336434388996721</v>
       </c>
       <c r="D314">
-        <v>0.01853254506157809</v>
+        <v>0.3706546057776262</v>
       </c>
       <c r="E314">
         <v>0.2396664201287135</v>
@@ -9047,7 +9047,7 @@
         <v>0.9542117606954095</v>
       </c>
       <c r="D315">
-        <v>0.1047918664160272</v>
+        <v>0.3686961108177601</v>
       </c>
       <c r="E315">
         <v>0.1990866897063564</v>
@@ -9073,7 +9073,7 @@
         <v>0.9724408623857769</v>
       </c>
       <c r="D316">
-        <v>0.1101734004822831</v>
+        <v>0.3912368434658119</v>
       </c>
       <c r="E316">
         <v>0.154453610648917</v>
@@ -9099,7 +9099,7 @@
         <v>0.9817319699460139</v>
       </c>
       <c r="D317">
-        <v>0.1107083160133951</v>
+        <v>0.3425559232825583</v>
       </c>
       <c r="E317">
         <v>0.1257509029632861</v>
@@ -9125,7 +9125,7 @@
         <v>0.9877688636659688</v>
       </c>
       <c r="D318">
-        <v>0.1440282758118602</v>
+        <v>0.3843427240025378</v>
       </c>
       <c r="E318">
         <v>0.1028960390447217</v>
@@ -9151,7 +9151,7 @@
         <v>0.9952495890077752</v>
       </c>
       <c r="D319">
-        <v>0.1078653465337946</v>
+        <v>0.3943833092837272</v>
       </c>
       <c r="E319">
         <v>0.06412551206137139</v>
@@ -9177,7 +9177,7 @@
         <v>0.9967400046624746</v>
       </c>
       <c r="D320">
-        <v>0.1168646196990508</v>
+        <v>0.3939713640111023</v>
       </c>
       <c r="E320">
         <v>0.0531219174938357</v>
@@ -9203,7 +9203,7 @@
         <v>0.9976969794983142</v>
       </c>
       <c r="D321">
-        <v>0.1224608103342704</v>
+        <v>0.3940660396122115</v>
       </c>
       <c r="E321">
         <v>0.04464924870264005</v>
@@ -9229,7 +9229,7 @@
         <v>0.998115493691113</v>
       </c>
       <c r="D322">
-        <v>0.1203713319392958</v>
+        <v>0.3940293852455642</v>
       </c>
       <c r="E322">
         <v>0.04038908842832683</v>
@@ -9255,7 +9255,7 @@
         <v>0.9981814367191634</v>
       </c>
       <c r="D323">
-        <v>0.1189043387572204</v>
+        <v>0.3939772640434172</v>
       </c>
       <c r="E323">
         <v>0.03967614442294852</v>
@@ -9281,7 +9281,7 @@
         <v>0.9982218788251191</v>
       </c>
       <c r="D324">
-        <v>0.1184256873479178</v>
+        <v>0.3936818402281745</v>
       </c>
       <c r="E324">
         <v>0.03923249521206831</v>
@@ -9307,7 +9307,7 @@
         <v>0.9982505593130737</v>
       </c>
       <c r="D325">
-        <v>0.1185641261820596</v>
+        <v>0.3934164059153844</v>
       </c>
       <c r="E325">
         <v>0.03891480556591761</v>
@@ -9333,7 +9333,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D326">
-        <v>0.1183559035552723</v>
+        <v>0.3933809277436032</v>
       </c>
       <c r="E326">
         <v>0.03888633595258084</v>
@@ -9359,7 +9359,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D327">
-        <v>0.1183559035552723</v>
+        <v>0.3933809277436032</v>
       </c>
       <c r="E327">
         <v>0.03888633595258084</v>
@@ -9385,7 +9385,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D328">
-        <v>0.1183559035552723</v>
+        <v>0.3933809277436032</v>
       </c>
       <c r="E328">
         <v>0.03888633595258084</v>
@@ -9411,7 +9411,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D329">
-        <v>0.1183559035552723</v>
+        <v>0.3933809277436032</v>
       </c>
       <c r="E329">
         <v>0.03888633595258084</v>
@@ -9437,7 +9437,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D330">
-        <v>0.1183559035552723</v>
+        <v>0.3933809277436032</v>
       </c>
       <c r="E330">
         <v>0.03888633595258084</v>
@@ -9463,7 +9463,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D331">
-        <v>0.1183559035552723</v>
+        <v>0.3933809277436032</v>
       </c>
       <c r="E331">
         <v>0.03888633595258084</v>
@@ -9489,7 +9489,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D332">
-        <v>0.1183559035552723</v>
+        <v>0.3933809277436032</v>
       </c>
       <c r="E332">
         <v>0.03888633595258084</v>
@@ -9515,7 +9515,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D333">
-        <v>0.1183559035552723</v>
+        <v>0.3933809277436032</v>
       </c>
       <c r="E333">
         <v>0.03888633595258084</v>
@@ -9541,7 +9541,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D334">
-        <v>0.1183559035552723</v>
+        <v>0.3933809277436032</v>
       </c>
       <c r="E334">
         <v>0.03888633595258084</v>
@@ -9567,7 +9567,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D335">
-        <v>0.1183559035552723</v>
+        <v>0.3933809277436032</v>
       </c>
       <c r="E335">
         <v>0.03888633595258084</v>
@@ -9593,7 +9593,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D336">
-        <v>0.1183559035552723</v>
+        <v>0.3933809277436032</v>
       </c>
       <c r="E336">
         <v>0.03888633595258084</v>
@@ -9619,7 +9619,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D337">
-        <v>0.1183559035552723</v>
+        <v>0.3933809277436032</v>
       </c>
       <c r="E337">
         <v>0.03888633595258084</v>
@@ -9645,7 +9645,7 @@
         <v>0.6875021648854569</v>
       </c>
       <c r="D338">
-        <v>0.4660968732988494</v>
+        <v>0.707469220582462</v>
       </c>
       <c r="E338">
         <v>0.5201022828855739</v>
@@ -9671,7 +9671,7 @@
         <v>0.786248483968317</v>
       </c>
       <c r="D339">
-        <v>0.4907493251942585</v>
+        <v>0.6299486414991545</v>
       </c>
       <c r="E339">
         <v>0.4301499287808465</v>
@@ -9697,7 +9697,7 @@
         <v>0.8523651496355351</v>
       </c>
       <c r="D340">
-        <v>0.1546941591670321</v>
+        <v>0.4988549970148694</v>
       </c>
       <c r="E340">
         <v>0.3574865425713673</v>
@@ -9723,7 +9723,7 @@
         <v>0.8922921880510698</v>
       </c>
       <c r="D341">
-        <v>0.3499500598962672</v>
+        <v>0.4368190532893044</v>
       </c>
       <c r="E341">
         <v>0.305343623625591</v>
@@ -9749,7 +9749,7 @@
         <v>0.9263380522412249</v>
       </c>
       <c r="D342">
-        <v>0.3268120902817163</v>
+        <v>0.4889436062788552</v>
       </c>
       <c r="E342">
         <v>0.2525148088591346</v>
@@ -9775,7 +9775,7 @@
         <v>0.9672433898868652</v>
       </c>
       <c r="D343">
-        <v>0.4462776375528139</v>
+        <v>0.4700797111166521</v>
       </c>
       <c r="E343">
         <v>0.1683893921676766</v>
@@ -9801,7 +9801,7 @@
         <v>0.9814365938582525</v>
       </c>
       <c r="D344">
-        <v>0.3964295495483289</v>
+        <v>0.5299817666842899</v>
       </c>
       <c r="E344">
         <v>0.126763460601815</v>
@@ -9827,7 +9827,7 @@
         <v>0.9901836107627946</v>
       </c>
       <c r="D345">
-        <v>0.3984345446737071</v>
+        <v>0.5341284388337229</v>
       </c>
       <c r="E345">
         <v>0.09218094134883177</v>
@@ -9853,7 +9853,7 @@
         <v>0.9956881049688929</v>
       </c>
       <c r="D346">
-        <v>0.3960742701042327</v>
+        <v>0.5326070655424486</v>
       </c>
       <c r="E346">
         <v>0.06109411012722356</v>
@@ -9879,7 +9879,7 @@
         <v>0.9978379388159309</v>
       </c>
       <c r="D347">
-        <v>0.4009200360276151</v>
+        <v>0.517670148224999</v>
       </c>
       <c r="E347">
         <v>0.04326126788659521</v>
@@ -9905,7 +9905,7 @@
         <v>0.9980144414174171</v>
       </c>
       <c r="D348">
-        <v>0.4001030752681659</v>
+        <v>0.5173055790610148</v>
       </c>
       <c r="E348">
         <v>0.04145783379239538</v>
@@ -9931,7 +9931,7 @@
         <v>0.9980967230818597</v>
       </c>
       <c r="D349">
-        <v>0.3994479705529832</v>
+        <v>0.5172959201533023</v>
       </c>
       <c r="E349">
         <v>0.04058973761314794</v>
@@ -9957,7 +9957,7 @@
         <v>0.9981615502819019</v>
       </c>
       <c r="D350">
-        <v>0.4001854299475759</v>
+        <v>0.5180576439081348</v>
       </c>
       <c r="E350">
         <v>0.03989248879070114</v>
@@ -9983,7 +9983,7 @@
         <v>0.9981927848369777</v>
       </c>
       <c r="D351">
-        <v>0.399347381894861</v>
+        <v>0.517296328810896</v>
       </c>
       <c r="E351">
         <v>0.03955215803955943</v>
@@ -10009,7 +10009,7 @@
         <v>0.9982268336249712</v>
       </c>
       <c r="D352">
-        <v>0.4004184805618145</v>
+        <v>0.5172592444331789</v>
       </c>
       <c r="E352">
         <v>0.03917779568670545</v>
@@ -10035,7 +10035,7 @@
         <v>0.9982502908767926</v>
       </c>
       <c r="D353">
-        <v>0.4012247802071661</v>
+        <v>0.5180453517423345</v>
       </c>
       <c r="E353">
         <v>0.03891779101866265</v>
@@ -10061,7 +10061,7 @@
         <v>0.9982530034177458</v>
       </c>
       <c r="D354">
-        <v>0.3998559673903344</v>
+        <v>0.5172878742338733</v>
       </c>
       <c r="E354">
         <v>0.03888761256026187</v>
@@ -10087,7 +10087,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D355">
-        <v>0.3998559673903344</v>
+        <v>0.5172878742338733</v>
       </c>
       <c r="E355">
         <v>0.03888633595258084</v>
@@ -10113,7 +10113,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D356">
-        <v>0.3998559673903344</v>
+        <v>0.5172878742338733</v>
       </c>
       <c r="E356">
         <v>0.03888633595258084</v>
@@ -10139,7 +10139,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D357">
-        <v>0.3998559673903344</v>
+        <v>0.5172878742338733</v>
       </c>
       <c r="E357">
         <v>0.03888633595258084</v>
@@ -10165,7 +10165,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D358">
-        <v>0.3998559673903344</v>
+        <v>0.5172878742338733</v>
       </c>
       <c r="E358">
         <v>0.03888633595258084</v>
@@ -10191,7 +10191,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D359">
-        <v>0.3998559673903344</v>
+        <v>0.5172878742338733</v>
       </c>
       <c r="E359">
         <v>0.03888633595258084</v>
@@ -10217,7 +10217,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D360">
-        <v>0.3998559673903344</v>
+        <v>0.5172878742338733</v>
       </c>
       <c r="E360">
         <v>0.03888633595258084</v>
@@ -10243,7 +10243,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D361">
-        <v>0.3998559673903344</v>
+        <v>0.5172878742338733</v>
       </c>
       <c r="E361">
         <v>0.03888633595258084</v>
@@ -10269,7 +10269,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D362">
-        <v>0.3998559673903344</v>
+        <v>0.5172878742338733</v>
       </c>
       <c r="E362">
         <v>0.03888633595258084</v>
@@ -10295,7 +10295,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D363">
-        <v>0.3998559673903344</v>
+        <v>0.5172878742338733</v>
       </c>
       <c r="E363">
         <v>0.03888633595258084</v>
@@ -10321,7 +10321,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D364">
-        <v>0.3998559673903344</v>
+        <v>0.5172878742338733</v>
       </c>
       <c r="E364">
         <v>0.03888633595258084</v>
@@ -10347,7 +10347,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D365">
-        <v>0.3998559673903344</v>
+        <v>0.5172878742338733</v>
       </c>
       <c r="E365">
         <v>0.03888633595258084</v>
@@ -10373,7 +10373,7 @@
         <v>0.6875021648854569</v>
       </c>
       <c r="D366">
-        <v>0.4660968732988476</v>
+        <v>0.7074692205824614</v>
       </c>
       <c r="E366">
         <v>0.5201022828855739</v>
@@ -10399,7 +10399,7 @@
         <v>0.786248483968317</v>
       </c>
       <c r="D367">
-        <v>0.4907493251942577</v>
+        <v>0.6299486414991544</v>
       </c>
       <c r="E367">
         <v>0.4301499287808464</v>
@@ -10425,7 +10425,7 @@
         <v>0.8523651496355351</v>
       </c>
       <c r="D368">
-        <v>0.1546941591670336</v>
+        <v>0.4988549970148694</v>
       </c>
       <c r="E368">
         <v>0.3574865425713673</v>
@@ -10451,7 +10451,7 @@
         <v>0.8922921880510698</v>
       </c>
       <c r="D369">
-        <v>0.2340947472147713</v>
+        <v>0.4868429936791251</v>
       </c>
       <c r="E369">
         <v>0.305343623625591</v>
@@ -10477,7 +10477,7 @@
         <v>0.9263380522412249</v>
       </c>
       <c r="D370">
-        <v>0.3174677996025785</v>
+        <v>0.4986672471703426</v>
       </c>
       <c r="E370">
         <v>0.2525148088591346</v>
@@ -10503,7 +10503,7 @@
         <v>0.9672433898868652</v>
       </c>
       <c r="D371">
-        <v>0.3677484443780226</v>
+        <v>0.520180512650305</v>
       </c>
       <c r="E371">
         <v>0.1683893921676766</v>
@@ -10529,7 +10529,7 @@
         <v>0.9814365938582525</v>
       </c>
       <c r="D372">
-        <v>0.403438498882116</v>
+        <v>0.5419397334105784</v>
       </c>
       <c r="E372">
         <v>0.126763460601815</v>
@@ -10555,7 +10555,7 @@
         <v>0.9901836107627946</v>
       </c>
       <c r="D373">
-        <v>0.3674687287981371</v>
+        <v>0.5049751614007649</v>
       </c>
       <c r="E373">
         <v>0.09218094134883177</v>
@@ -10581,7 +10581,7 @@
         <v>0.9953888705899878</v>
       </c>
       <c r="D374">
-        <v>0.3489955790106211</v>
+        <v>0.515399166913615</v>
       </c>
       <c r="E374">
         <v>0.06317844156579887</v>
@@ -10607,7 +10607,7 @@
         <v>0.9970705814082313</v>
       </c>
       <c r="D375">
-        <v>0.3802290986151159</v>
+        <v>0.5508132636121257</v>
       </c>
       <c r="E375">
         <v>0.05035655022659669</v>
@@ -10633,7 +10633,7 @@
         <v>0.9978701004001352</v>
       </c>
       <c r="D376">
-        <v>0.3789752523399564</v>
+        <v>0.5508481546519022</v>
       </c>
       <c r="E376">
         <v>0.04293829738022832</v>
@@ -10659,7 +10659,7 @@
         <v>0.9979990681579555</v>
       </c>
       <c r="D377">
-        <v>0.3785855882166665</v>
+        <v>0.5508774917106636</v>
       </c>
       <c r="E377">
         <v>0.04161801872299038</v>
@@ -10685,7 +10685,7 @@
         <v>0.9980868993891453</v>
       </c>
       <c r="D378">
-        <v>0.3777763993947741</v>
+        <v>0.5508632433543924</v>
       </c>
       <c r="E378">
         <v>0.04069435400070946</v>
@@ -10711,7 +10711,7 @@
         <v>0.9981561984026497</v>
       </c>
       <c r="D379">
-        <v>0.3772367571967712</v>
+        <v>0.5508568931841997</v>
       </c>
       <c r="E379">
         <v>0.0399505117618616</v>
@@ -10737,7 +10737,7 @@
         <v>0.9981859416326845</v>
       </c>
       <c r="D380">
-        <v>0.3768412163193791</v>
+        <v>0.5508456461374798</v>
       </c>
       <c r="E380">
         <v>0.03962697142190422</v>
@@ -10763,7 +10763,7 @@
         <v>0.9982259679047568</v>
       </c>
       <c r="D381">
-        <v>0.3777111600700369</v>
+        <v>0.5510908698108165</v>
       </c>
       <c r="E381">
         <v>0.03918735848670794</v>
@@ -10789,7 +10789,7 @@
         <v>0.9982369113149769</v>
       </c>
       <c r="D382">
-        <v>0.3777556442730737</v>
+        <v>0.5510545271411602</v>
       </c>
       <c r="E382">
         <v>0.03906630466361655</v>
@@ -10815,7 +10815,7 @@
         <v>0.998251043256036</v>
       </c>
       <c r="D383">
-        <v>0.3774218988507479</v>
+        <v>0.5510724242894878</v>
       </c>
       <c r="E383">
         <v>0.03890942274585379</v>
@@ -10841,7 +10841,7 @@
         <v>0.9982526544985676</v>
       </c>
       <c r="D384">
-        <v>0.3775467883823194</v>
+        <v>0.5511114511074972</v>
       </c>
       <c r="E384">
         <v>0.03889149578376766</v>
@@ -10867,7 +10867,7 @@
         <v>0.9982530034177458</v>
       </c>
       <c r="D385">
-        <v>0.3774817238760064</v>
+        <v>0.5511187468151606</v>
       </c>
       <c r="E385">
         <v>0.03888761256026187</v>
@@ -10893,7 +10893,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D386">
-        <v>0.3777707503118692</v>
+        <v>0.5511363646877483</v>
       </c>
       <c r="E386">
         <v>0.03888633595258084</v>
@@ -10919,7 +10919,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D387">
-        <v>0.3777707503118692</v>
+        <v>0.5511363646877483</v>
       </c>
       <c r="E387">
         <v>0.03888633595258084</v>
@@ -10945,7 +10945,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D388">
-        <v>0.3777707503118692</v>
+        <v>0.5511363646877483</v>
       </c>
       <c r="E388">
         <v>0.03888633595258084</v>
@@ -10971,7 +10971,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D389">
-        <v>0.3777707503118692</v>
+        <v>0.5511363646877483</v>
       </c>
       <c r="E389">
         <v>0.03888633595258084</v>
@@ -10997,7 +10997,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D390">
-        <v>0.3777707503118692</v>
+        <v>0.5511363646877483</v>
       </c>
       <c r="E390">
         <v>0.03888633595258084</v>
@@ -11023,7 +11023,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D391">
-        <v>0.3777707503118692</v>
+        <v>0.5511363646877483</v>
       </c>
       <c r="E391">
         <v>0.03888633595258084</v>
@@ -11049,7 +11049,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D392">
-        <v>0.3777707503118692</v>
+        <v>0.5511363646877483</v>
       </c>
       <c r="E392">
         <v>0.03888633595258084</v>
@@ -11075,7 +11075,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D393">
-        <v>0.3777707503118692</v>
+        <v>0.5511363646877483</v>
       </c>
       <c r="E393">
         <v>0.03888633595258084</v>
@@ -11101,7 +11101,7 @@
         <v>0.6875021648854569</v>
       </c>
       <c r="D394">
-        <v>0.4660968732988467</v>
+        <v>0.7074692205824613</v>
       </c>
       <c r="E394">
         <v>0.5201022828855739</v>
@@ -11127,7 +11127,7 @@
         <v>0.786248483968317</v>
       </c>
       <c r="D395">
-        <v>0.4907493251942598</v>
+        <v>0.6299486414991551</v>
       </c>
       <c r="E395">
         <v>0.4301499287808465</v>
@@ -11153,7 +11153,7 @@
         <v>0.8508326121979487</v>
       </c>
       <c r="D396">
-        <v>0.1676438265974389</v>
+        <v>0.494523856347706</v>
       </c>
       <c r="E396">
         <v>0.3593372135292817</v>
@@ -11179,7 +11179,7 @@
         <v>0.8854022509131126</v>
       </c>
       <c r="D397">
-        <v>0.2205269293829141</v>
+        <v>0.5032516399203151</v>
       </c>
       <c r="E397">
         <v>0.314958473707825</v>
@@ -11205,7 +11205,7 @@
         <v>0.9052492667505811</v>
       </c>
       <c r="D398">
-        <v>0.2091576737267145</v>
+        <v>0.5155573093948567</v>
       </c>
       <c r="E398">
         <v>0.2863891386578644</v>
@@ -11231,7 +11231,7 @@
         <v>0.9146789823087135</v>
       </c>
       <c r="D399">
-        <v>0.2516347723078425</v>
+        <v>0.5379756817891939</v>
       </c>
       <c r="E399">
         <v>0.2717648390589267</v>
@@ -11257,7 +11257,7 @@
         <v>0.9361758083189684</v>
       </c>
       <c r="D400">
-        <v>0.3250358855033495</v>
+        <v>0.5485515616898313</v>
       </c>
       <c r="E400">
         <v>0.2350487333370744</v>
@@ -11283,7 +11283,7 @@
         <v>0.9709034191171986</v>
       </c>
       <c r="D401">
-        <v>0.3195830716323532</v>
+        <v>0.5409013983739732</v>
       </c>
       <c r="E401">
         <v>0.1587034006151162</v>
@@ -11309,7 +11309,7 @@
         <v>0.9835886114274828</v>
       </c>
       <c r="D402">
-        <v>0.3075817364490576</v>
+        <v>0.5404110837950182</v>
       </c>
       <c r="E402">
         <v>0.1191894779878911</v>
@@ -11335,7 +11335,7 @@
         <v>0.9950406500384008</v>
       </c>
       <c r="D403">
-        <v>0.2235306021887103</v>
+        <v>0.4699789339384222</v>
       </c>
       <c r="E403">
         <v>0.06552056464036586</v>
@@ -11361,7 +11361,7 @@
         <v>0.996310809693902</v>
       </c>
       <c r="D404">
-        <v>0.2256666389137864</v>
+        <v>0.4690640190812432</v>
       </c>
       <c r="E404">
         <v>0.05651071248567383</v>
@@ -11387,7 +11387,7 @@
         <v>0.9969385718482192</v>
       </c>
       <c r="D405">
-        <v>0.2827363626283353</v>
+        <v>0.508043721442732</v>
       </c>
       <c r="E405">
         <v>0.05147866659670322</v>
@@ -11413,7 +11413,7 @@
         <v>0.9972856789060686</v>
       </c>
       <c r="D406">
-        <v>0.2875176489363535</v>
+        <v>0.5083167930945552</v>
       </c>
       <c r="E406">
         <v>0.04847254967578639</v>
@@ -11439,7 +11439,7 @@
         <v>0.9980340786312658</v>
       </c>
       <c r="D407">
-        <v>0.304124951656056</v>
+        <v>0.5100936076090528</v>
       </c>
       <c r="E407">
         <v>0.04125231498334122</v>
@@ -11465,7 +11465,7 @@
         <v>0.99816161223476</v>
       </c>
       <c r="D408">
-        <v>0.2907799292462281</v>
+        <v>0.5086521902202426</v>
       </c>
       <c r="E408">
         <v>0.03989181662803899</v>
@@ -11491,7 +11491,7 @@
         <v>0.9982009796020731</v>
       </c>
       <c r="D409">
-        <v>0.2895943687643412</v>
+        <v>0.5086009855471061</v>
       </c>
       <c r="E409">
         <v>0.03946238209169916</v>
@@ -11517,7 +11517,7 @@
         <v>0.9982275197724392</v>
       </c>
       <c r="D410">
-        <v>0.2992649510352846</v>
+        <v>0.5096379021691975</v>
       </c>
       <c r="E410">
         <v>0.03917021480012227</v>
@@ -11543,7 +11543,7 @@
         <v>0.9982380670216223</v>
       </c>
       <c r="D411">
-        <v>0.2881474992478548</v>
+        <v>0.5081371128499188</v>
       </c>
       <c r="E411">
         <v>0.03905349856101976</v>
@@ -11569,7 +11569,7 @@
         <v>0.9982443890810528</v>
       </c>
       <c r="D412">
-        <v>0.2873902528464756</v>
+        <v>0.5080291212431477</v>
       </c>
       <c r="E412">
         <v>0.03898337091806362</v>
@@ -11595,7 +11595,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D413">
-        <v>0.287681153777725</v>
+        <v>0.5080720565862982</v>
       </c>
       <c r="E413">
         <v>0.03888633595258084</v>
@@ -11621,7 +11621,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D414">
-        <v>0.287681153777725</v>
+        <v>0.5080720565862982</v>
       </c>
       <c r="E414">
         <v>0.03888633595258084</v>
@@ -11647,7 +11647,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D415">
-        <v>0.287681153777725</v>
+        <v>0.5080720565862982</v>
       </c>
       <c r="E415">
         <v>0.03888633595258084</v>
@@ -11673,7 +11673,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D416">
-        <v>0.287681153777725</v>
+        <v>0.5080720565862982</v>
       </c>
       <c r="E416">
         <v>0.03888633595258084</v>
@@ -11699,7 +11699,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D417">
-        <v>0.287681153777725</v>
+        <v>0.5080720565862982</v>
       </c>
       <c r="E417">
         <v>0.03888633595258084</v>
@@ -11725,7 +11725,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D418">
-        <v>0.287681153777725</v>
+        <v>0.5080720565862982</v>
       </c>
       <c r="E418">
         <v>0.03888633595258084</v>
@@ -11751,7 +11751,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D419">
-        <v>0.287681153777725</v>
+        <v>0.5080720565862982</v>
       </c>
       <c r="E419">
         <v>0.03888633595258084</v>
@@ -11777,7 +11777,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D420">
-        <v>0.287681153777725</v>
+        <v>0.5080720565862982</v>
       </c>
       <c r="E420">
         <v>0.03888633595258084</v>
@@ -11803,7 +11803,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D421">
-        <v>0.287681153777725</v>
+        <v>0.5080720565862982</v>
       </c>
       <c r="E421">
         <v>0.03888633595258084</v>
@@ -11829,7 +11829,7 @@
         <v>0.6866435365627983</v>
       </c>
       <c r="D422">
-        <v>0.07051972433704823</v>
+        <v>0.5164593457838126</v>
       </c>
       <c r="E422">
         <v>0.5208163169778951</v>
@@ -11855,7 +11855,7 @@
         <v>0.7934955164951701</v>
       </c>
       <c r="D423">
-        <v>0.3461297776668015</v>
+        <v>0.4782610395508742</v>
       </c>
       <c r="E423">
         <v>0.4227951493960002</v>
@@ -11881,7 +11881,7 @@
         <v>0.8690624399954117</v>
       </c>
       <c r="D424">
-        <v>0.3858230766360923</v>
+        <v>0.4455620542084585</v>
       </c>
       <c r="E424">
         <v>0.3366645397331735</v>
@@ -11907,7 +11907,7 @@
         <v>0.898921264870409</v>
       </c>
       <c r="D425">
-        <v>0.210801662630054</v>
+        <v>0.4387392895957112</v>
       </c>
       <c r="E425">
         <v>0.2957979452311576</v>
@@ -11933,7 +11933,7 @@
         <v>0.9143106072860501</v>
       </c>
       <c r="D426">
-        <v>0.2877846182304415</v>
+        <v>0.3813564274511942</v>
       </c>
       <c r="E426">
         <v>0.2723508819586103</v>
@@ -11959,7 +11959,7 @@
         <v>0.9238302945896839</v>
       </c>
       <c r="D427">
-        <v>0.1760946707774065</v>
+        <v>0.4180155764852034</v>
       </c>
       <c r="E427">
         <v>0.2567771601807968</v>
@@ -11985,7 +11985,7 @@
         <v>0.9408713448753944</v>
       </c>
       <c r="D428">
-        <v>0.230734650107249</v>
+        <v>0.425632215834401</v>
       </c>
       <c r="E428">
         <v>0.2262373234195911</v>
@@ -12011,7 +12011,7 @@
         <v>0.9704983106043902</v>
       </c>
       <c r="D429">
-        <v>0.2418279004218501</v>
+        <v>0.4213946163529628</v>
       </c>
       <c r="E429">
         <v>0.1598043866780899</v>
@@ -12037,7 +12037,7 @@
         <v>0.9833200109369731</v>
       </c>
       <c r="D430">
-        <v>0.2199157576757023</v>
+        <v>0.4237832911665306</v>
       </c>
       <c r="E430">
         <v>0.1201608894195386</v>
@@ -12063,7 +12063,7 @@
         <v>0.9953369668103543</v>
       </c>
       <c r="D431">
-        <v>0.2346620165816632</v>
+        <v>0.4341838036317205</v>
       </c>
       <c r="E431">
         <v>0.06353302103654017</v>
@@ -12089,7 +12089,7 @@
         <v>0.9978712151388439</v>
       </c>
       <c r="D432">
-        <v>0.2535147785893492</v>
+        <v>0.4162453565512966</v>
       </c>
       <c r="E432">
         <v>0.04292705946866993</v>
@@ -12115,7 +12115,7 @@
         <v>0.9982387670462792</v>
       </c>
       <c r="D433">
-        <v>0.2702933950917041</v>
+        <v>0.4163447748981952</v>
       </c>
       <c r="E433">
         <v>0.03904573971654987</v>
@@ -12141,7 +12141,7 @@
         <v>0.9982526544985676</v>
       </c>
       <c r="D434">
-        <v>0.2221697125139458</v>
+        <v>0.4279310147165499</v>
       </c>
       <c r="E434">
         <v>0.03889149578376766</v>
@@ -12167,7 +12167,7 @@
         <v>0.9982530034177458</v>
       </c>
       <c r="D435">
-        <v>0.2321710751302107</v>
+        <v>0.380019597762298</v>
       </c>
       <c r="E435">
         <v>0.03888761256026187</v>
@@ -12193,7 +12193,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D436">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E436">
         <v>0.03888633595258084</v>
@@ -12219,7 +12219,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D437">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E437">
         <v>0.03888633595258084</v>
@@ -12245,7 +12245,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D438">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E438">
         <v>0.03888633595258084</v>
@@ -12271,7 +12271,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D439">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E439">
         <v>0.03888633595258084</v>
@@ -12297,7 +12297,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D440">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E440">
         <v>0.03888633595258084</v>
@@ -12323,7 +12323,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D441">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E441">
         <v>0.03888633595258084</v>
@@ -12349,7 +12349,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D442">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E442">
         <v>0.03888633595258084</v>
@@ -12375,7 +12375,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D443">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E443">
         <v>0.03888633595258084</v>
@@ -12401,7 +12401,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D444">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E444">
         <v>0.03888633595258084</v>
@@ -12427,7 +12427,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D445">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E445">
         <v>0.03888633595258084</v>
@@ -12453,7 +12453,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D446">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E446">
         <v>0.03888633595258084</v>
@@ -12479,7 +12479,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D447">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E447">
         <v>0.03888633595258084</v>
@@ -12505,7 +12505,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D448">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E448">
         <v>0.03888633595258084</v>
@@ -12531,7 +12531,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D449">
-        <v>0.2276142187552377</v>
+        <v>0.4277088336844456</v>
       </c>
       <c r="E449">
         <v>0.03888633595258084</v>
@@ -12557,7 +12557,7 @@
         <v>0.6091199588495462</v>
       </c>
       <c r="D450">
-        <v>0.4264771454650093</v>
+        <v>0.7207219694926692</v>
       </c>
       <c r="E450">
         <v>0.5816838433943623</v>
@@ -12583,7 +12583,7 @@
         <v>0.71154465273409</v>
       </c>
       <c r="D451">
-        <v>0.4745791214990084</v>
+        <v>0.7209081503304733</v>
       </c>
       <c r="E451">
         <v>0.4996944784508127</v>
@@ -12609,7 +12609,7 @@
         <v>0.8152917556376698</v>
       </c>
       <c r="D452">
-        <v>0.3539704811761598</v>
+        <v>0.6925493631160472</v>
       </c>
       <c r="E452">
         <v>0.3998603977982371</v>
@@ -12635,7 +12635,7 @@
         <v>0.8671929471173845</v>
       </c>
       <c r="D453">
-        <v>0.3025591065049361</v>
+        <v>0.6374302811546551</v>
       </c>
       <c r="E453">
         <v>0.339059426583746</v>
@@ -12661,7 +12661,7 @@
         <v>0.8989161302998067</v>
       </c>
       <c r="D454">
-        <v>0.3010287849731442</v>
+        <v>0.6485695292579825</v>
       </c>
       <c r="E454">
         <v>0.2958054580682768</v>
@@ -12687,7 +12687,7 @@
         <v>0.9191766033738539</v>
       </c>
       <c r="D455">
-        <v>0.3074498214032756</v>
+        <v>0.5430268606324828</v>
       </c>
       <c r="E455">
         <v>0.2645049490900362</v>
@@ -12713,7 +12713,7 @@
         <v>0.9405613792866975</v>
       </c>
       <c r="D456">
-        <v>0.3528679410392224</v>
+        <v>0.6076817529638046</v>
       </c>
       <c r="E456">
         <v>0.2268295415357157</v>
@@ -12739,7 +12739,7 @@
         <v>0.9801507842892628</v>
       </c>
       <c r="D457">
-        <v>0.2062089892981476</v>
+        <v>0.3953327795232571</v>
       </c>
       <c r="E457">
         <v>0.1310801498610984</v>
@@ -12765,7 +12765,7 @@
         <v>0.9905026057426335</v>
       </c>
       <c r="D458">
-        <v>0.1979090511743716</v>
+        <v>0.3950459545074997</v>
       </c>
       <c r="E458">
         <v>0.0906708082191628</v>
@@ -12791,7 +12791,7 @@
         <v>0.9956983753474175</v>
       </c>
       <c r="D459">
-        <v>0.1605553222986379</v>
+        <v>0.4653402255173474</v>
       </c>
       <c r="E459">
         <v>0.06102130759959506</v>
@@ -12817,7 +12817,7 @@
         <v>0.9978215010659013</v>
       </c>
       <c r="D460">
-        <v>0.2192781171214194</v>
+        <v>0.4080669349406062</v>
       </c>
       <c r="E460">
         <v>0.0434254101879606</v>
@@ -12843,7 +12843,7 @@
         <v>0.9981102906184856</v>
       </c>
       <c r="D461">
-        <v>0.2182888743462</v>
+        <v>0.4844526048221246</v>
       </c>
       <c r="E461">
         <v>0.04044480660409479</v>
@@ -12869,7 +12869,7 @@
         <v>0.9982077915383754</v>
       </c>
       <c r="D462">
-        <v>0.2512572268182</v>
+        <v>0.4592344427159382</v>
       </c>
       <c r="E462">
         <v>0.03938759967635116</v>
@@ -12895,7 +12895,7 @@
         <v>0.9982369113149769</v>
       </c>
       <c r="D463">
-        <v>0.2078098519893017</v>
+        <v>0.4836383846895921</v>
       </c>
       <c r="E463">
         <v>0.03906630466361655</v>
@@ -12921,7 +12921,7 @@
         <v>0.998251043256036</v>
       </c>
       <c r="D464">
-        <v>0.176563025659028</v>
+        <v>0.4644003096730923</v>
       </c>
       <c r="E464">
         <v>0.03890942274585379</v>
@@ -12947,7 +12947,7 @@
         <v>0.9982526544985676</v>
       </c>
       <c r="D465">
-        <v>0.1867599920409917</v>
+        <v>0.4491606098220426</v>
       </c>
       <c r="E465">
         <v>0.03889149578376766</v>
@@ -12973,7 +12973,7 @@
         <v>0.9982530034177458</v>
       </c>
       <c r="D466">
-        <v>0.2065152030333511</v>
+        <v>0.3909139262816929</v>
       </c>
       <c r="E466">
         <v>0.03888761256026187</v>
@@ -12999,7 +12999,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D467">
-        <v>0.2089942935405878</v>
+        <v>0.443687778403884</v>
       </c>
       <c r="E467">
         <v>0.03888633595258084</v>
@@ -13025,7 +13025,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D468">
-        <v>0.2089942935405878</v>
+        <v>0.443687778403884</v>
       </c>
       <c r="E468">
         <v>0.03888633595258084</v>
@@ -13051,7 +13051,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D469">
-        <v>0.2089942935405878</v>
+        <v>0.443687778403884</v>
       </c>
       <c r="E469">
         <v>0.03888633595258084</v>
@@ -13077,7 +13077,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D470">
-        <v>0.2089942935405878</v>
+        <v>0.443687778403884</v>
       </c>
       <c r="E470">
         <v>0.03888633595258084</v>
@@ -13103,7 +13103,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D471">
-        <v>0.2089942935405878</v>
+        <v>0.443687778403884</v>
       </c>
       <c r="E471">
         <v>0.03888633595258084</v>
@@ -13129,7 +13129,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D472">
-        <v>0.2089942935405878</v>
+        <v>0.443687778403884</v>
       </c>
       <c r="E472">
         <v>0.03888633595258084</v>
@@ -13155,7 +13155,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D473">
-        <v>0.2089942935405878</v>
+        <v>0.443687778403884</v>
       </c>
       <c r="E473">
         <v>0.03888633595258084</v>
@@ -13181,7 +13181,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D474">
-        <v>0.2089942935405878</v>
+        <v>0.443687778403884</v>
       </c>
       <c r="E474">
         <v>0.03888633595258084</v>
@@ -13207,7 +13207,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D475">
-        <v>0.2089942935405878</v>
+        <v>0.443687778403884</v>
       </c>
       <c r="E475">
         <v>0.03888633595258084</v>
@@ -13233,7 +13233,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D476">
-        <v>0.2089942935405878</v>
+        <v>0.443687778403884</v>
       </c>
       <c r="E476">
         <v>0.03888633595258084</v>
@@ -13259,7 +13259,7 @@
         <v>0.9982531181171322</v>
       </c>
       <c r="D477">
-        <v>0.2089942935405878</v>
+        <v>0.443687778403884</v>
       </c>
       <c r="E477">
         <v>0.03888633595258084</v>
@@ -13285,7 +13285,7 @@
         <v>0.6335156572171697</v>
       </c>
       <c r="D478">
-        <v>-0.03512693233191433</v>
+        <v>0.5868024188400796</v>
       </c>
       <c r="E478">
         <v>0.5632393207489284</v>
@@ -13311,7 +13311,7 @@
         <v>0.721125934622411</v>
       </c>
       <c r="D479">
-        <v>0.2589290302233105</v>
+        <v>0.563047352720753</v>
       </c>
       <c r="E479">
         <v>0.4913255142782686</v>
@@ -13337,7 +13337,7 @@
         <v>0.7985022018930585</v>
       </c>
       <c r="D480">
-        <v>0.1299286894444921</v>
+        <v>0.4530408757465135</v>
       </c>
       <c r="E480">
         <v>0.4176383832424611</v>
@@ -13363,7 +13363,7 @@
         <v>0.8522633268113505</v>
       </c>
       <c r="D481">
-        <v>0.2844906245185288</v>
+        <v>0.4860413561097882</v>
       </c>
       <c r="E481">
         <v>0.3576097994283484</v>
@@ -13389,7 +13389,7 @@
         <v>0.9010271479572333</v>
       </c>
       <c r="D482">
-        <v>0.1069532286324898</v>
+        <v>0.4299959793802333</v>
       </c>
       <c r="E482">
         <v>0.2927003866575005</v>
@@ -13415,7 +13415,7 @@
         <v>0.9169245387531625</v>
       </c>
       <c r="D483">
-        <v>0.132213944652563</v>
+        <v>0.4341806618786771</v>
       </c>
       <c r="E483">
         <v>0.2681647156983915</v>
@@ -13441,7 +13441,7 @@
         <v>0.9524960738790302</v>
       </c>
       <c r="D484">
-        <v>0.0269530905723625</v>
+        <v>0.3463472338843238</v>
       </c>
       <c r="E484">
         <v>0.2027822819382573</v>
@@ -13467,7 +13467,7 @@
         <v>0.9585843223920778</v>
       </c>
       <c r="D485">
-        <v>0.01361809296869598</v>
+        <v>0.3415334374373794</v>
       </c>
       <c r="E485">
         <v>0.189342296006491</v>
@@ -13493,7 +13493,7 @@
         <v>0.9671890018353231</v>
       </c>
       <c r="D486">
-        <v>-0.05588295425064516</v>
+        <v>0.3137821699213558</v>
       </c>
       <c r="E486">
         <v>0.1685291284299648</v>
@@ -13519,7 +13519,7 @@
         <v>0.9744755036788261</v>
       </c>
       <c r="D487">
-        <v>-0.05643381002438419</v>
+        <v>0.3247043173594955</v>
       </c>
       <c r="E487">
         <v>0.1486427884843677</v>
@@ -13545,7 +13545,7 @@
         <v>0.9787932924074264</v>
       </c>
       <c r="D488">
-        <v>-0.03140824006681298</v>
+        <v>0.3115894880896737</v>
       </c>
       <c r="E488">
         <v>0.1354883261977366</v>
@@ -13571,7 +13571,7 @@
         <v>0.979795151818076</v>
       </c>
       <c r="D489">
-        <v>-0.01931253038984782</v>
+        <v>0.3094024204659234</v>
       </c>
       <c r="E489">
         <v>0.1322491986864293</v>
@@ -13597,7 +13597,7 @@
         <v>0.9801465021793762</v>
       </c>
       <c r="D490">
-        <v>-0.03752352050207519</v>
+        <v>0.2964820216562045</v>
       </c>
       <c r="E490">
         <v>0.1310942881863742</v>
@@ -13623,7 +13623,7 @@
         <v>0.9802961198077045</v>
       </c>
       <c r="D491">
-        <v>-0.06152768003053755</v>
+        <v>0.3314190359048648</v>
       </c>
       <c r="E491">
         <v>0.1305993852281349</v>
@@ -13649,7 +13649,7 @@
         <v>0.9803143411301404</v>
       </c>
       <c r="D492">
-        <v>-0.03110058269036098</v>
+        <v>0.3117442600016005</v>
       </c>
       <c r="E492">
         <v>0.1305389848425339</v>
@@ -13675,7 +13675,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D493">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E493">
         <v>0.1305374476802209</v>
@@ -13701,7 +13701,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D494">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E494">
         <v>0.1305374476802209</v>
@@ -13727,7 +13727,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D495">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E495">
         <v>0.1305374476802209</v>
@@ -13753,7 +13753,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D496">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E496">
         <v>0.1305374476802209</v>
@@ -13779,7 +13779,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D497">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E497">
         <v>0.1305374476802209</v>
@@ -13805,7 +13805,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D498">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E498">
         <v>0.1305374476802209</v>
@@ -13831,7 +13831,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D499">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E499">
         <v>0.1305374476802209</v>
@@ -13857,7 +13857,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D500">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E500">
         <v>0.1305374476802209</v>
@@ -13883,7 +13883,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D501">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E501">
         <v>0.1305374476802209</v>
@@ -13909,7 +13909,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D502">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E502">
         <v>0.1305374476802209</v>
@@ -13935,7 +13935,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D503">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E503">
         <v>0.1305374476802209</v>
@@ -13961,7 +13961,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D504">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E504">
         <v>0.1305374476802209</v>
@@ -13987,7 +13987,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D505">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E505">
         <v>0.1305374476802209</v>
@@ -14013,7 +14013,7 @@
         <v>0.6335156572171697</v>
       </c>
       <c r="D506">
-        <v>-0.03512693233191433</v>
+        <v>0.5868024188400796</v>
       </c>
       <c r="E506">
         <v>0.5632393207489284</v>
@@ -14039,7 +14039,7 @@
         <v>0.721125934622411</v>
       </c>
       <c r="D507">
-        <v>0.2589290302233105</v>
+        <v>0.563047352720753</v>
       </c>
       <c r="E507">
         <v>0.4913255142782686</v>
@@ -14065,7 +14065,7 @@
         <v>0.7985022018930585</v>
       </c>
       <c r="D508">
-        <v>0.1299286894444921</v>
+        <v>0.4530408757465135</v>
       </c>
       <c r="E508">
         <v>0.4176383832424611</v>
@@ -14091,7 +14091,7 @@
         <v>0.8522633268113505</v>
       </c>
       <c r="D509">
-        <v>0.2844906245185288</v>
+        <v>0.4860413561097882</v>
       </c>
       <c r="E509">
         <v>0.3576097994283484</v>
@@ -14117,7 +14117,7 @@
         <v>0.9010271479572333</v>
       </c>
       <c r="D510">
-        <v>0.1069532286324898</v>
+        <v>0.4299959793802333</v>
       </c>
       <c r="E510">
         <v>0.2927003866575005</v>
@@ -14143,7 +14143,7 @@
         <v>0.9169245387531625</v>
       </c>
       <c r="D511">
-        <v>0.132213944652563</v>
+        <v>0.4341806618786771</v>
       </c>
       <c r="E511">
         <v>0.2681647156983915</v>
@@ -14169,7 +14169,7 @@
         <v>0.9524960738790302</v>
       </c>
       <c r="D512">
-        <v>0.0269530905723625</v>
+        <v>0.3463472338843238</v>
       </c>
       <c r="E512">
         <v>0.2027822819382573</v>
@@ -14195,7 +14195,7 @@
         <v>0.9585843223920778</v>
       </c>
       <c r="D513">
-        <v>0.01361809296869598</v>
+        <v>0.3415334374373794</v>
       </c>
       <c r="E513">
         <v>0.189342296006491</v>
@@ -14221,7 +14221,7 @@
         <v>0.9671890018353231</v>
       </c>
       <c r="D514">
-        <v>-0.05588295425064516</v>
+        <v>0.3137821699213558</v>
       </c>
       <c r="E514">
         <v>0.1685291284299648</v>
@@ -14247,7 +14247,7 @@
         <v>0.9744755036788261</v>
       </c>
       <c r="D515">
-        <v>-0.05643381002438419</v>
+        <v>0.3247043173594955</v>
       </c>
       <c r="E515">
         <v>0.1486427884843677</v>
@@ -14273,7 +14273,7 @@
         <v>0.9787932924074264</v>
       </c>
       <c r="D516">
-        <v>-0.03140824006681298</v>
+        <v>0.3115894880896737</v>
       </c>
       <c r="E516">
         <v>0.1354883261977366</v>
@@ -14299,7 +14299,7 @@
         <v>0.979795151818076</v>
       </c>
       <c r="D517">
-        <v>-0.01931253038984782</v>
+        <v>0.3094024204659234</v>
       </c>
       <c r="E517">
         <v>0.1322491986864293</v>
@@ -14325,7 +14325,7 @@
         <v>0.9801465021793762</v>
       </c>
       <c r="D518">
-        <v>-0.03752352050207519</v>
+        <v>0.2964820216562045</v>
       </c>
       <c r="E518">
         <v>0.1310942881863742</v>
@@ -14351,7 +14351,7 @@
         <v>0.9802961198077045</v>
       </c>
       <c r="D519">
-        <v>-0.06152768003053755</v>
+        <v>0.3314190359048648</v>
       </c>
       <c r="E519">
         <v>0.1305993852281349</v>
@@ -14377,7 +14377,7 @@
         <v>0.9803143411301404</v>
       </c>
       <c r="D520">
-        <v>-0.03110058269036098</v>
+        <v>0.3117442600016005</v>
       </c>
       <c r="E520">
         <v>0.1305389848425339</v>
@@ -14403,7 +14403,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D521">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E521">
         <v>0.1305374476802209</v>
@@ -14429,7 +14429,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D522">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E522">
         <v>0.1305374476802209</v>
@@ -14455,7 +14455,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D523">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E523">
         <v>0.1305374476802209</v>
@@ -14481,7 +14481,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D524">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E524">
         <v>0.1305374476802209</v>
@@ -14507,7 +14507,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D525">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E525">
         <v>0.1305374476802209</v>
@@ -14533,7 +14533,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D526">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E526">
         <v>0.1305374476802209</v>
@@ -14559,7 +14559,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D527">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E527">
         <v>0.1305374476802209</v>
@@ -14585,7 +14585,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D528">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E528">
         <v>0.1305374476802209</v>
@@ -14611,7 +14611,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D529">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E529">
         <v>0.1305374476802209</v>
@@ -14637,7 +14637,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D530">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E530">
         <v>0.1305374476802209</v>
@@ -14663,7 +14663,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D531">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E531">
         <v>0.1305374476802209</v>
@@ -14689,7 +14689,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D532">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E532">
         <v>0.1305374476802209</v>
@@ -14715,7 +14715,7 @@
         <v>0.9803148047445126</v>
       </c>
       <c r="D533">
-        <v>-0.03800989299479207</v>
+        <v>0.2992454997938578</v>
       </c>
       <c r="E533">
         <v>0.1305374476802209</v>
@@ -14777,7 +14777,7 @@
         <v>0.8119428339420095</v>
       </c>
       <c r="D2">
-        <v>0.3391632157219306</v>
+        <v>0.5793433332672571</v>
       </c>
       <c r="E2">
         <v>0.4034690234098569</v>
@@ -14803,7 +14803,7 @@
         <v>0.8429593249505523</v>
       </c>
       <c r="D3">
-        <v>0.4578099650155754</v>
+        <v>0.6222309887867705</v>
       </c>
       <c r="E3">
         <v>0.3686984656069525</v>
@@ -14829,7 +14829,7 @@
         <v>0.8876948939714208</v>
       </c>
       <c r="D4">
-        <v>0.5045132355228548</v>
+        <v>0.6403599656143855</v>
       </c>
       <c r="E4">
         <v>0.3117920264212859</v>
@@ -14855,7 +14855,7 @@
         <v>0.8877332986828195</v>
       </c>
       <c r="D5">
-        <v>0.4035460985212499</v>
+        <v>0.6274701442051499</v>
       </c>
       <c r="E5">
         <v>0.3117387104720208</v>
@@ -14881,7 +14881,7 @@
         <v>0.8969979170423367</v>
       </c>
       <c r="D6">
-        <v>0.425264821036363</v>
+        <v>0.6427812476370951</v>
       </c>
       <c r="E6">
         <v>0.2985989368911812</v>
@@ -14907,7 +14907,7 @@
         <v>0.9038230098124094</v>
       </c>
       <c r="D7">
-        <v>0.4533398757339898</v>
+        <v>0.6423812538598054</v>
       </c>
       <c r="E7">
         <v>0.2885365565045674</v>
@@ -14933,7 +14933,7 @@
         <v>0.9160427400133784</v>
       </c>
       <c r="D8">
-        <v>0.5095305493024451</v>
+        <v>0.6578018088224438</v>
       </c>
       <c r="E8">
         <v>0.2695841668915973</v>
@@ -14959,7 +14959,7 @@
         <v>0.9085827885865515</v>
       </c>
       <c r="D9">
-        <v>0.4687491454565476</v>
+        <v>0.654155661399655</v>
       </c>
       <c r="E9">
         <v>0.2813061573140271</v>
@@ -14985,7 +14985,7 @@
         <v>0.9185706982090069</v>
       </c>
       <c r="D10">
-        <v>0.4881944028344374</v>
+        <v>0.6518290099592801</v>
       </c>
       <c r="E10">
         <v>0.2654945491276083</v>
@@ -15011,7 +15011,7 @@
         <v>0.9234949762234979</v>
       </c>
       <c r="D11">
-        <v>0.5288775587305237</v>
+        <v>0.6599528028157007</v>
       </c>
       <c r="E11">
         <v>0.2573417386083459</v>
@@ -15037,7 +15037,7 @@
         <v>0.9243567235801888</v>
       </c>
       <c r="D12">
-        <v>0.5110370385929521</v>
+        <v>0.6748855171782768</v>
       </c>
       <c r="E12">
         <v>0.2558882942692872</v>
@@ -15063,7 +15063,7 @@
         <v>0.9259326901101582</v>
       </c>
       <c r="D13">
-        <v>0.5129658537142481</v>
+        <v>0.6886784685807215</v>
       </c>
       <c r="E13">
         <v>0.2532086508525936</v>
@@ -15089,7 +15089,7 @@
         <v>0.9293213543747405</v>
       </c>
       <c r="D14">
-        <v>0.529243116793237</v>
+        <v>0.6932578606671155</v>
       </c>
       <c r="E14">
         <v>0.2473485466395331</v>
@@ -15115,7 +15115,7 @@
         <v>0.9315516182300115</v>
       </c>
       <c r="D15">
-        <v>0.5392596301995765</v>
+        <v>0.6921707549569321</v>
       </c>
       <c r="E15">
         <v>0.24341472467972</v>
@@ -15141,7 +15141,7 @@
         <v>0.9301152483877791</v>
       </c>
       <c r="D16">
-        <v>0.5596814629800706</v>
+        <v>0.7009785490362828</v>
       </c>
       <c r="E16">
         <v>0.2459554591511218</v>
@@ -15167,7 +15167,7 @@
         <v>0.9327001615721453</v>
       </c>
       <c r="D17">
-        <v>0.5544347900050353</v>
+        <v>0.7066370780234209</v>
       </c>
       <c r="E17">
         <v>0.2413638720285949</v>
@@ -15193,7 +15193,7 @@
         <v>0.9357556258417276</v>
       </c>
       <c r="D18">
-        <v>0.5738390042640757</v>
+        <v>0.7207645317240063</v>
       </c>
       <c r="E18">
         <v>0.2358211782264348</v>
@@ -15219,7 +15219,7 @@
         <v>0.9374128053488687</v>
       </c>
       <c r="D19">
-        <v>0.5956120580113713</v>
+        <v>0.7261714030472568</v>
       </c>
       <c r="E19">
         <v>0.2327598112289578</v>
@@ -15245,7 +15245,7 @@
         <v>0.9285134947716551</v>
       </c>
       <c r="D20">
-        <v>0.5675793237942419</v>
+        <v>0.7121076601197671</v>
       </c>
       <c r="E20">
         <v>0.2487581318207742</v>
@@ -15271,7 +15271,7 @@
         <v>0.8165091285178534</v>
       </c>
       <c r="D21">
-        <v>0.3438694689154772</v>
+        <v>0.6040138459026936</v>
       </c>
       <c r="E21">
         <v>0.3985405218920111</v>
@@ -15297,7 +15297,7 @@
         <v>0.8318088366890695</v>
       </c>
       <c r="D22">
-        <v>0.4364413862409113</v>
+        <v>0.6096105520431432</v>
       </c>
       <c r="E22">
         <v>0.3815635148457102</v>
@@ -15323,7 +15323,7 @@
         <v>0.8729850021144131</v>
       </c>
       <c r="D23">
-        <v>0.4844745786978792</v>
+        <v>0.637295233783731</v>
       </c>
       <c r="E23">
         <v>0.3315833814885633</v>
@@ -15349,7 +15349,7 @@
         <v>0.884636114406095</v>
       </c>
       <c r="D24">
-        <v>0.3990104678415927</v>
+        <v>0.6111729206757316</v>
       </c>
       <c r="E24">
         <v>0.3160095380966134</v>
@@ -15375,7 +15375,7 @@
         <v>0.8846190958793324</v>
       </c>
       <c r="D25">
-        <v>0.4219841041199803</v>
+        <v>0.6283814802326353</v>
       </c>
       <c r="E25">
         <v>0.3160328461640665</v>
@@ -15401,7 +15401,7 @@
         <v>0.8846123167775635</v>
       </c>
       <c r="D26">
-        <v>0.4671644972669342</v>
+        <v>0.6382674664502477</v>
       </c>
       <c r="E26">
         <v>0.3160421301412323</v>
@@ -15427,7 +15427,7 @@
         <v>0.8988310425016353</v>
       </c>
       <c r="D27">
-        <v>0.5217796201686949</v>
+        <v>0.6572558743060096</v>
       </c>
       <c r="E27">
         <v>0.2959299296619927</v>
@@ -15453,7 +15453,7 @@
         <v>0.8870515606683544</v>
       </c>
       <c r="D28">
-        <v>0.5053184776328534</v>
+        <v>0.6629312132033677</v>
       </c>
       <c r="E28">
         <v>0.3126837924306634</v>
@@ -15479,7 +15479,7 @@
         <v>0.9006544027078988</v>
       </c>
       <c r="D29">
-        <v>0.5199791588691458</v>
+        <v>0.6616217806515947</v>
       </c>
       <c r="E29">
         <v>0.2932510434560467</v>
@@ -15505,7 +15505,7 @@
         <v>0.9080394817788191</v>
       </c>
       <c r="D30">
-        <v>0.5690131117832742</v>
+        <v>0.680566444432061</v>
       </c>
       <c r="E30">
         <v>0.282140842264793</v>
@@ -15531,7 +15531,7 @@
         <v>0.9096513082342622</v>
       </c>
       <c r="D31">
-        <v>0.6000808193503107</v>
+        <v>0.6969149162544507</v>
       </c>
       <c r="E31">
         <v>0.2796573176179163</v>
@@ -15557,7 +15557,7 @@
         <v>0.9145681942323632</v>
       </c>
       <c r="D32">
-        <v>0.6154956939878715</v>
+        <v>0.7040054174036251</v>
       </c>
       <c r="E32">
         <v>0.2719412231264012</v>
@@ -15583,7 +15583,7 @@
         <v>0.9189365472211386</v>
       </c>
       <c r="D33">
-        <v>0.6209219390129342</v>
+        <v>0.706092025016517</v>
       </c>
       <c r="E33">
         <v>0.2648974651502656</v>
@@ -15609,7 +15609,7 @@
         <v>0.9203419925001169</v>
       </c>
       <c r="D34">
-        <v>0.6136199439693358</v>
+        <v>0.6966775259841973</v>
       </c>
       <c r="E34">
         <v>0.2625910822303713</v>
@@ -15635,7 +15635,7 @@
         <v>0.9183409115222877</v>
       </c>
       <c r="D35">
-        <v>0.6124545712126186</v>
+        <v>0.6975733267885115</v>
       </c>
       <c r="E35">
         <v>0.2658688869447146</v>
@@ -15661,7 +15661,7 @@
         <v>0.9217715627283662</v>
       </c>
       <c r="D36">
-        <v>0.6070458825680476</v>
+        <v>0.7045033749581325</v>
       </c>
       <c r="E36">
         <v>0.2602241393436512</v>
@@ -15687,7 +15687,7 @@
         <v>0.9265664798897993</v>
       </c>
       <c r="D37">
-        <v>0.6036432903765657</v>
+        <v>0.7027995941862655</v>
       </c>
       <c r="E37">
         <v>0.2521229773022487</v>
@@ -15713,7 +15713,7 @@
         <v>0.9292364600702347</v>
       </c>
       <c r="D38">
-        <v>0.6039428938230548</v>
+        <v>0.6982256901081437</v>
       </c>
       <c r="E38">
         <v>0.2474970510495581</v>
@@ -15739,7 +15739,7 @@
         <v>0.92302403133607</v>
       </c>
       <c r="D39">
-        <v>0.6040444827021838</v>
+        <v>0.6948957293133806</v>
       </c>
       <c r="E39">
         <v>0.2581325875795164</v>
@@ -15765,7 +15765,7 @@
         <v>0.8374574936447852</v>
       </c>
       <c r="D40">
-        <v>0.5559429636069523</v>
+        <v>0.6763838597479621</v>
       </c>
       <c r="E40">
         <v>0.3751014384399766</v>
@@ -15791,7 +15791,7 @@
         <v>0.8532176560486746</v>
       </c>
       <c r="D41">
-        <v>0.5593138919494314</v>
+        <v>0.6607998972806001</v>
       </c>
       <c r="E41">
         <v>0.3564529085849404</v>
@@ -15817,7 +15817,7 @@
         <v>0.8797937989261493</v>
       </c>
       <c r="D42">
-        <v>0.588794309276905</v>
+        <v>0.6881315850280969</v>
       </c>
       <c r="E42">
         <v>0.3225735023503328</v>
@@ -15843,7 +15843,7 @@
         <v>0.8796680303651158</v>
       </c>
       <c r="D43">
-        <v>0.5088206042089811</v>
+        <v>0.6894241381260358</v>
       </c>
       <c r="E43">
         <v>0.3227422082851265</v>
@@ -15869,7 +15869,7 @@
         <v>0.8885620704888593</v>
       </c>
       <c r="D44">
-        <v>0.5176918601513186</v>
+        <v>0.6958663334077229</v>
       </c>
       <c r="E44">
         <v>0.3105859250335531</v>
@@ -15895,7 +15895,7 @@
         <v>0.8920130899058156</v>
       </c>
       <c r="D45">
-        <v>0.5505878988263007</v>
+        <v>0.6983388974608729</v>
       </c>
       <c r="E45">
         <v>0.3057389789007128</v>
@@ -15921,7 +15921,7 @@
         <v>0.9063419834219378</v>
       </c>
       <c r="D46">
-        <v>0.5936360915563526</v>
+        <v>0.7118475126888733</v>
       </c>
       <c r="E46">
         <v>0.2847329526284561</v>
@@ -15947,7 +15947,7 @@
         <v>0.9062131785143053</v>
       </c>
       <c r="D47">
-        <v>0.5291115784472332</v>
+        <v>0.6830357577444364</v>
       </c>
       <c r="E47">
         <v>0.2849286774696049</v>
@@ -15973,7 +15973,7 @@
         <v>0.9121459594163376</v>
       </c>
       <c r="D48">
-        <v>0.5140574108397744</v>
+        <v>0.6706022078258483</v>
       </c>
       <c r="E48">
         <v>0.2757694314209637</v>
@@ -15999,7 +15999,7 @@
         <v>0.9174737050759585</v>
       </c>
       <c r="D49">
-        <v>0.5640539339489254</v>
+        <v>0.6881415976099265</v>
       </c>
       <c r="E49">
         <v>0.267276901103339</v>
@@ -16025,7 +16025,7 @@
         <v>0.9199644571191269</v>
       </c>
       <c r="D50">
-        <v>0.5569824497994247</v>
+        <v>0.6861871681537672</v>
       </c>
       <c r="E50">
         <v>0.2632126157122426</v>
@@ -16051,7 +16051,7 @@
         <v>0.9230830703694209</v>
       </c>
       <c r="D51">
-        <v>0.5740066906957002</v>
+        <v>0.6976594068154156</v>
       </c>
       <c r="E51">
         <v>0.2580335773169152</v>
@@ -16077,7 +16077,7 @@
         <v>0.9264325948261142</v>
       </c>
       <c r="D52">
-        <v>0.5974939110830892</v>
+        <v>0.7074147973375697</v>
       </c>
       <c r="E52">
         <v>0.2523527097796762</v>
@@ -16103,7 +16103,7 @@
         <v>0.9250316454080332</v>
       </c>
       <c r="D53">
-        <v>0.5986730997149268</v>
+        <v>0.7049647003069055</v>
       </c>
       <c r="E53">
         <v>0.2547441637668198</v>
@@ -16129,7 +16129,7 @@
         <v>0.9242109052124985</v>
       </c>
       <c r="D54">
-        <v>0.6156556146266314</v>
+        <v>0.7144853268569242</v>
       </c>
       <c r="E54">
         <v>0.2561348148470972</v>
@@ -16155,7 +16155,7 @@
         <v>0.926175508178589</v>
       </c>
       <c r="D55">
-        <v>0.6098462441435435</v>
+        <v>0.7197028214101155</v>
       </c>
       <c r="E55">
         <v>0.2527932576819302</v>
@@ -16181,7 +16181,7 @@
         <v>0.9289615211155905</v>
       </c>
       <c r="D56">
-        <v>0.5782598743525562</v>
+        <v>0.7069821110137984</v>
       </c>
       <c r="E56">
         <v>0.2479773874839434</v>
@@ -16207,7 +16207,7 @@
         <v>0.9324002289016688</v>
       </c>
       <c r="D57">
-        <v>0.5937350417049925</v>
+        <v>0.7104299107128966</v>
       </c>
       <c r="E57">
         <v>0.2419011127852041</v>
@@ -16233,7 +16233,7 @@
         <v>0.9246256114196645</v>
       </c>
       <c r="D58">
-        <v>0.5706777029910672</v>
+        <v>0.6990881411239036</v>
       </c>
       <c r="E58">
         <v>0.2554330885459397</v>
@@ -16259,7 +16259,7 @@
         <v>0.8492914615144849</v>
       </c>
       <c r="D59">
-        <v>0.6343275061303221</v>
+        <v>0.7529233699561025</v>
       </c>
       <c r="E59">
         <v>0.3611887232287389</v>
@@ -16285,7 +16285,7 @@
         <v>0.8636868131525235</v>
       </c>
       <c r="D60">
-        <v>0.6910989262556366</v>
+        <v>0.7515825714842288</v>
       </c>
       <c r="E60">
         <v>0.3435058907416451</v>
@@ -16311,7 +16311,7 @@
         <v>0.8985977977430726</v>
       </c>
       <c r="D61">
-        <v>0.6299535838959116</v>
+        <v>0.7113149942525805</v>
       </c>
       <c r="E61">
         <v>0.2962708660953314</v>
@@ -16337,7 +16337,7 @@
         <v>0.8896907424134894</v>
       </c>
       <c r="D62">
-        <v>0.5275935488058983</v>
+        <v>0.6947526375035986</v>
       </c>
       <c r="E62">
         <v>0.3090090752434726</v>
@@ -16363,7 +16363,7 @@
         <v>0.9036804666885633</v>
       </c>
       <c r="D63">
-        <v>0.5687910347246975</v>
+        <v>0.7168036177605071</v>
       </c>
       <c r="E63">
         <v>0.2887502961636513</v>
@@ -16389,7 +16389,7 @@
         <v>0.9060123728132629</v>
       </c>
       <c r="D64">
-        <v>0.5851291200683296</v>
+        <v>0.7132012977828794</v>
       </c>
       <c r="E64">
         <v>0.285233542849059</v>
@@ -16415,7 +16415,7 @@
         <v>0.917259072482602</v>
       </c>
       <c r="D65">
-        <v>0.6211487212216832</v>
+        <v>0.7279837772421285</v>
       </c>
       <c r="E65">
         <v>0.2676242393888331</v>
@@ -16441,7 +16441,7 @@
         <v>0.9146540252134512</v>
       </c>
       <c r="D66">
-        <v>0.5680020859284685</v>
+        <v>0.700099284516696</v>
       </c>
       <c r="E66">
         <v>0.2718045828714835</v>
@@ -16467,7 +16467,7 @@
         <v>0.9211866358717529</v>
       </c>
       <c r="D67">
-        <v>0.5932702974236173</v>
+        <v>0.7051461040976474</v>
       </c>
       <c r="E67">
         <v>0.2611951968212256</v>
@@ -16493,7 +16493,7 @@
         <v>0.9240161762707507</v>
       </c>
       <c r="D68">
-        <v>0.6074647214766238</v>
+        <v>0.7005942378274466</v>
       </c>
       <c r="E68">
         <v>0.25646365414024</v>
@@ -16519,7 +16519,7 @@
         <v>0.9276322395321805</v>
       </c>
       <c r="D69">
-        <v>0.6415758546745824</v>
+        <v>0.720500356553391</v>
       </c>
       <c r="E69">
         <v>0.2502867275181963</v>
@@ -16545,7 +16545,7 @@
         <v>0.928247375017104</v>
       </c>
       <c r="D70">
-        <v>0.6577324493783246</v>
+        <v>0.7305242835671228</v>
       </c>
       <c r="E70">
         <v>0.2492207223314798</v>
@@ -16571,7 +16571,7 @@
         <v>0.9316556126439381</v>
       </c>
       <c r="D71">
-        <v>0.6698558171316087</v>
+        <v>0.7350242867254451</v>
       </c>
       <c r="E71">
         <v>0.2432297429959578</v>
@@ -16597,7 +16597,7 @@
         <v>0.9331784875941844</v>
       </c>
       <c r="D72">
-        <v>0.6651520185714423</v>
+        <v>0.7257504378836627</v>
       </c>
       <c r="E72">
         <v>0.2405046092591983</v>
@@ -16623,7 +16623,7 @@
         <v>0.931121512922594</v>
       </c>
       <c r="D73">
-        <v>0.6760187948009762</v>
+        <v>0.731290939387396</v>
       </c>
       <c r="E73">
         <v>0.244178292875683</v>
@@ -16649,7 +16649,7 @@
         <v>0.9334851265200745</v>
       </c>
       <c r="D74">
-        <v>0.671630393355467</v>
+        <v>0.7366789198250867</v>
       </c>
       <c r="E74">
         <v>0.2399521458893812</v>
@@ -16675,7 +16675,7 @@
         <v>0.9380102021122567</v>
       </c>
       <c r="D75">
-        <v>0.6644955836881373</v>
+        <v>0.736811149374853</v>
       </c>
       <c r="E75">
         <v>0.2316462978274222</v>
@@ -16701,7 +16701,7 @@
         <v>0.939358438193347</v>
       </c>
       <c r="D76">
-        <v>0.6718160687025648</v>
+        <v>0.7371075923796024</v>
       </c>
       <c r="E76">
         <v>0.2291133748052034</v>
@@ -16727,7 +16727,7 @@
         <v>0.9345433628632541</v>
       </c>
       <c r="D77">
-        <v>0.6591866719995401</v>
+        <v>0.730043048069932</v>
       </c>
       <c r="E77">
         <v>0.2380357010440843</v>
@@ -16753,7 +16753,7 @@
         <v>0.8756747522903652</v>
       </c>
       <c r="D78">
-        <v>0.7083120545911757</v>
+        <v>0.7984913620420959</v>
       </c>
       <c r="E78">
         <v>0.3280536846969918</v>
@@ -16779,7 +16779,7 @@
         <v>0.8722552528114003</v>
       </c>
       <c r="D79">
-        <v>0.6818235909859358</v>
+        <v>0.7547716006712479</v>
       </c>
       <c r="E79">
         <v>0.3325345533349084</v>
@@ -16805,7 +16805,7 @@
         <v>0.8973254167597527</v>
       </c>
       <c r="D80">
-        <v>0.6587698708444764</v>
+        <v>0.7366353139014352</v>
       </c>
       <c r="E80">
         <v>0.2981238546344387</v>
@@ -16831,7 +16831,7 @@
         <v>0.8886462540698469</v>
       </c>
       <c r="D81">
-        <v>0.5680449931843441</v>
+        <v>0.7260006599514532</v>
       </c>
       <c r="E81">
         <v>0.3104685898709718</v>
@@ -16857,7 +16857,7 @@
         <v>0.8787567442889721</v>
       </c>
       <c r="D82">
-        <v>0.5962910701429538</v>
+        <v>0.7365322686461282</v>
       </c>
       <c r="E82">
         <v>0.3239619828304422</v>
@@ -16883,7 +16883,7 @@
         <v>0.8809609374814119</v>
       </c>
       <c r="D83">
-        <v>0.617411097429685</v>
+        <v>0.7335339026269483</v>
       </c>
       <c r="E83">
         <v>0.3210036735621257</v>
@@ -16909,7 +16909,7 @@
         <v>0.8927866012798542</v>
       </c>
       <c r="D84">
-        <v>0.6761064899036173</v>
+        <v>0.7666506318850268</v>
       </c>
       <c r="E84">
         <v>0.3046420051991918</v>
@@ -16935,7 +16935,7 @@
         <v>0.8960394920073724</v>
       </c>
       <c r="D85">
-        <v>0.6209146318376003</v>
+        <v>0.7369699337776504</v>
       </c>
       <c r="E85">
         <v>0.2999849382081424</v>
@@ -16961,7 +16961,7 @@
         <v>0.9040532175237552</v>
       </c>
       <c r="D86">
-        <v>0.6376218682093537</v>
+        <v>0.7377710690762884</v>
       </c>
       <c r="E86">
         <v>0.2881910313675991</v>
@@ -16987,7 +16987,7 @@
         <v>0.9096506293584737</v>
       </c>
       <c r="D87">
-        <v>0.6500862489666608</v>
+        <v>0.7348996013741709</v>
       </c>
       <c r="E87">
         <v>0.2796583682818586</v>
@@ -17013,7 +17013,7 @@
         <v>0.9154060612269386</v>
       </c>
       <c r="D88">
-        <v>0.6758137389128223</v>
+        <v>0.7487856205731152</v>
       </c>
       <c r="E88">
         <v>0.2706044142694492</v>
@@ -17039,7 +17039,7 @@
         <v>0.915761248964673</v>
       </c>
       <c r="D89">
-        <v>0.66032094016862</v>
+        <v>0.7470540172921984</v>
       </c>
       <c r="E89">
         <v>0.2700357182476917</v>
@@ -17065,7 +17065,7 @@
         <v>0.9200231544513215</v>
       </c>
       <c r="D90">
-        <v>0.6361855706771549</v>
+        <v>0.7309132625252686</v>
       </c>
       <c r="E90">
         <v>0.2631160791515783</v>
@@ -17091,7 +17091,7 @@
         <v>0.919971800402242</v>
       </c>
       <c r="D91">
-        <v>0.6351446333865219</v>
+        <v>0.7241041556729771</v>
       </c>
       <c r="E91">
         <v>0.2632005405202473</v>
@@ -17117,7 +17117,7 @@
         <v>0.918220188607535</v>
       </c>
       <c r="D92">
-        <v>0.6544245141037743</v>
+        <v>0.7348569923686654</v>
       </c>
       <c r="E92">
         <v>0.2660653415810784</v>
@@ -17143,7 +17143,7 @@
         <v>0.920367778707329</v>
       </c>
       <c r="D93">
-        <v>0.6482860997115005</v>
+        <v>0.7387238705155416</v>
       </c>
       <c r="E93">
         <v>0.2625485769233679</v>
@@ -17169,7 +17169,7 @@
         <v>0.9239111696020551</v>
       </c>
       <c r="D94">
-        <v>0.6437157502234586</v>
+        <v>0.7369841898392586</v>
       </c>
       <c r="E94">
         <v>0.2566408043208805</v>
@@ -17195,7 +17195,7 @@
         <v>0.9265793541205111</v>
       </c>
       <c r="D95">
-        <v>0.6518855500969801</v>
+        <v>0.7372060441497077</v>
       </c>
       <c r="E95">
         <v>0.2521008754633953</v>
@@ -17221,7 +17221,7 @@
         <v>0.9205631035510308</v>
       </c>
       <c r="D96">
-        <v>0.6613159583905384</v>
+        <v>0.7392956132821717</v>
       </c>
       <c r="E96">
         <v>0.2622263848238735</v>
@@ -17247,7 +17247,7 @@
         <v>0.8760161525369381</v>
       </c>
       <c r="D97">
-        <v>0.6485507850372429</v>
+        <v>0.7192648852249005</v>
       </c>
       <c r="E97">
         <v>0.3276029532336805</v>
@@ -17273,7 +17273,7 @@
         <v>0.8698459657427862</v>
       </c>
       <c r="D98">
-        <v>0.4917160107273745</v>
+        <v>0.7119671750832727</v>
       </c>
       <c r="E98">
         <v>0.3356557339299708</v>
@@ -17299,7 +17299,7 @@
         <v>0.8910042818076092</v>
       </c>
       <c r="D99">
-        <v>0.5075244322976427</v>
+        <v>0.6951631191897354</v>
       </c>
       <c r="E99">
         <v>0.3071637579036612</v>
@@ -17325,7 +17325,7 @@
         <v>0.8853021508002135</v>
       </c>
       <c r="D100">
-        <v>0.3951352129652236</v>
+        <v>0.6651896061624032</v>
       </c>
       <c r="E100">
         <v>0.315096000392738</v>
@@ -17351,7 +17351,7 @@
         <v>0.8790371497585054</v>
       </c>
       <c r="D101">
-        <v>0.4533165663536363</v>
+        <v>0.6968809014712825</v>
       </c>
       <c r="E101">
         <v>0.3235871442664901</v>
@@ -17377,7 +17377,7 @@
         <v>0.8898377167051804</v>
       </c>
       <c r="D102">
-        <v>0.5094000089234083</v>
+        <v>0.7057006325815429</v>
       </c>
       <c r="E102">
         <v>0.3088031472503985</v>
@@ -17403,7 +17403,7 @@
         <v>0.894252719333953</v>
       </c>
       <c r="D103">
-        <v>0.5399083088909185</v>
+        <v>0.7139125215893166</v>
       </c>
       <c r="E103">
         <v>0.3025518811676468</v>
@@ -17429,7 +17429,7 @@
         <v>0.8953410122982339</v>
       </c>
       <c r="D104">
-        <v>0.4613231609324775</v>
+        <v>0.6764884276773341</v>
       </c>
       <c r="E104">
         <v>0.3009910059240309</v>
@@ -17455,7 +17455,7 @@
         <v>0.9026281506298395</v>
       </c>
       <c r="D105">
-        <v>0.4939874891540588</v>
+        <v>0.6893150477744765</v>
       </c>
       <c r="E105">
         <v>0.290323347537332</v>
@@ -17481,7 +17481,7 @@
         <v>0.9078656650219801</v>
       </c>
       <c r="D106">
-        <v>0.5178656778380895</v>
+        <v>0.6866339862439059</v>
       </c>
       <c r="E106">
         <v>0.2824073569370626</v>
@@ -17507,7 +17507,7 @@
         <v>0.913959744198102</v>
       </c>
       <c r="D107">
-        <v>0.5516385074962424</v>
+        <v>0.6997043247069051</v>
       </c>
       <c r="E107">
         <v>0.272907895204687</v>
@@ -17533,7 +17533,7 @@
         <v>0.9160530919029433</v>
       </c>
       <c r="D108">
-        <v>0.5221796967620249</v>
+        <v>0.6919163537257604</v>
       </c>
       <c r="E108">
         <v>0.2695675465805427</v>
@@ -17559,7 +17559,7 @@
         <v>0.9182753545996708</v>
       </c>
       <c r="D109">
-        <v>0.5358889590538427</v>
+        <v>0.6956437011260217</v>
       </c>
       <c r="E109">
         <v>0.2659755869435292</v>
@@ -17585,7 +17585,7 @@
         <v>0.9213438105635835</v>
       </c>
       <c r="D110">
-        <v>0.5456630004243446</v>
+        <v>0.6920501031569077</v>
       </c>
       <c r="E110">
         <v>0.2609346206916021</v>
@@ -17611,7 +17611,7 @@
         <v>0.9163446775212037</v>
       </c>
       <c r="D111">
-        <v>0.5536623516327691</v>
+        <v>0.7009529609104159</v>
       </c>
       <c r="E111">
         <v>0.2690989742685024</v>
@@ -17637,7 +17637,7 @@
         <v>0.9206479824412287</v>
       </c>
       <c r="D112">
-        <v>0.5599255837245155</v>
+        <v>0.7138864460971703</v>
       </c>
       <c r="E112">
         <v>0.2620862519997799</v>
@@ -17663,7 +17663,7 @@
         <v>0.9250067438347442</v>
       </c>
       <c r="D113">
-        <v>0.5835267755277795</v>
+        <v>0.7256609315263077</v>
       </c>
       <c r="E113">
         <v>0.2547864683086321</v>
@@ -17689,7 +17689,7 @@
         <v>0.926630518776958</v>
       </c>
       <c r="D114">
-        <v>0.5959171771892111</v>
+        <v>0.7290434022380355</v>
       </c>
       <c r="E114">
         <v>0.2520130193673088</v>
@@ -17715,7 +17715,7 @@
         <v>0.9228078975608267</v>
       </c>
       <c r="D115">
-        <v>0.6129655027001834</v>
+        <v>0.7336178662711601</v>
       </c>
       <c r="E115">
         <v>0.2584947269834688</v>
@@ -17741,7 +17741,7 @@
         <v>0.8020502247350452</v>
       </c>
       <c r="D116">
-        <v>0.6905704741007379</v>
+        <v>0.7557626139028637</v>
       </c>
       <c r="E116">
         <v>0.4139451132932957</v>
@@ -17767,7 +17767,7 @@
         <v>0.856999393652311</v>
       </c>
       <c r="D117">
-        <v>0.6594296254522918</v>
+        <v>0.726001906227025</v>
       </c>
       <c r="E117">
         <v>0.3518310731394645</v>
@@ -17793,7 +17793,7 @@
         <v>0.8889507622168387</v>
       </c>
       <c r="D118">
-        <v>0.6463369463390108</v>
+        <v>0.7254217709515143</v>
       </c>
       <c r="E118">
         <v>0.310043795288657</v>
@@ -17819,7 +17819,7 @@
         <v>0.8802197411590962</v>
       </c>
       <c r="D119">
-        <v>0.5538761863269479</v>
+        <v>0.7246078802059415</v>
       </c>
       <c r="E119">
         <v>0.3220014868988391</v>
@@ -17845,7 +17845,7 @@
         <v>0.8888215329529922</v>
       </c>
       <c r="D120">
-        <v>0.5846756977514864</v>
+        <v>0.7444541349453477</v>
       </c>
       <c r="E120">
         <v>0.3102241435849373</v>
@@ -17871,7 +17871,7 @@
         <v>0.8957478348614434</v>
       </c>
       <c r="D121">
-        <v>0.6254271047493698</v>
+        <v>0.7503317536036014</v>
       </c>
       <c r="E121">
         <v>0.3004054415037718</v>
@@ -17897,7 +17897,7 @@
         <v>0.9018774958903899</v>
       </c>
       <c r="D122">
-        <v>0.6422430322124876</v>
+        <v>0.7621055103143223</v>
       </c>
       <c r="E122">
         <v>0.2914402729648063</v>
@@ -17923,7 +17923,7 @@
         <v>0.8989104894804045</v>
       </c>
       <c r="D123">
-        <v>0.5592092622323818</v>
+        <v>0.7202809786078883</v>
       </c>
       <c r="E123">
         <v>0.2958137114221233</v>
@@ -17949,7 +17949,7 @@
         <v>0.9071810509264742</v>
       </c>
       <c r="D124">
-        <v>0.5963927436310502</v>
+        <v>0.7367358525347315</v>
       </c>
       <c r="E124">
         <v>0.2834546441778619</v>
@@ -17975,7 +17975,7 @@
         <v>0.9148184890849118</v>
       </c>
       <c r="D125">
-        <v>0.6205194456018588</v>
+        <v>0.7377242939205235</v>
       </c>
       <c r="E125">
         <v>0.2715425694001014</v>
@@ -18001,7 +18001,7 @@
         <v>0.9169146497391581</v>
       </c>
       <c r="D126">
-        <v>0.6541938118214532</v>
+        <v>0.7534477922086126</v>
       </c>
       <c r="E126">
         <v>0.2681806759210381</v>
@@ -18027,7 +18027,7 @@
         <v>0.9188805643702534</v>
       </c>
       <c r="D127">
-        <v>0.6157704367649834</v>
+        <v>0.7361882631549176</v>
       </c>
       <c r="E127">
         <v>0.2649889191612705</v>
@@ -18053,7 +18053,7 @@
         <v>0.9223979700764513</v>
       </c>
       <c r="D128">
-        <v>0.6320780027085733</v>
+        <v>0.7423042387044025</v>
       </c>
       <c r="E128">
         <v>0.2591801843161607</v>
@@ -18079,7 +18079,7 @@
         <v>0.9253738118644993</v>
       </c>
       <c r="D129">
-        <v>0.634812254311885</v>
+        <v>0.7358868006893502</v>
       </c>
       <c r="E129">
         <v>0.2541621542359901</v>
@@ -18105,7 +18105,7 @@
         <v>0.9231386310472953</v>
       </c>
       <c r="D130">
-        <v>0.6491808489629496</v>
+        <v>0.740882217462707</v>
       </c>
       <c r="E130">
         <v>0.2579403656503911</v>
@@ -18131,7 +18131,7 @@
         <v>0.9263496026468282</v>
       </c>
       <c r="D131">
-        <v>0.6508858914544816</v>
+        <v>0.7485096747189419</v>
       </c>
       <c r="E131">
         <v>0.2524950105582779</v>
@@ -18157,7 +18157,7 @@
         <v>0.9303248216623853</v>
       </c>
       <c r="D132">
-        <v>0.6440136651595221</v>
+        <v>0.7413916095862494</v>
       </c>
       <c r="E132">
         <v>0.2455863915635557</v>
@@ -18183,7 +18183,7 @@
         <v>0.930650997775794</v>
       </c>
       <c r="D133">
-        <v>0.6398747996153809</v>
+        <v>0.7388511664510992</v>
       </c>
       <c r="E133">
         <v>0.245010875385908</v>
@@ -18209,7 +18209,7 @@
         <v>0.9264834845546703</v>
       </c>
       <c r="D134">
-        <v>0.6347768327132588</v>
+        <v>0.7378603600164124</v>
       </c>
       <c r="E134">
         <v>0.2522654130855253</v>
@@ -18235,7 +18235,7 @@
         <v>0.8315607388067733</v>
       </c>
       <c r="D135">
-        <v>0.7577401383071876</v>
+        <v>0.7675031616910856</v>
       </c>
       <c r="E135">
         <v>0.3818448322879012</v>
@@ -18261,7 +18261,7 @@
         <v>0.8478570487275442</v>
       </c>
       <c r="D136">
-        <v>0.6925756437011883</v>
+        <v>0.7657924958832698</v>
       </c>
       <c r="E136">
         <v>0.3629035125266231</v>
@@ -18287,7 +18287,7 @@
         <v>0.8795856052148369</v>
       </c>
       <c r="D137">
-        <v>0.5767819081548891</v>
+        <v>0.7089217916759611</v>
       </c>
       <c r="E137">
         <v>0.3228527255532242</v>
@@ -18313,7 +18313,7 @@
         <v>0.8735605070706012</v>
       </c>
       <c r="D138">
-        <v>0.3380339754380414</v>
+        <v>0.643865167896559</v>
       </c>
       <c r="E138">
         <v>0.3308313264793138</v>
@@ -18339,7 +18339,7 @@
         <v>0.8772808050151305</v>
       </c>
       <c r="D139">
-        <v>0.3785652274623351</v>
+        <v>0.6642300793065161</v>
       </c>
       <c r="E139">
         <v>0.3259278729419985</v>
@@ -18365,7 +18365,7 @@
         <v>0.8895143863430737</v>
       </c>
       <c r="D140">
-        <v>0.4869098347301027</v>
+        <v>0.6946270111683446</v>
       </c>
       <c r="E140">
         <v>0.3092559895265684</v>
@@ -18391,7 +18391,7 @@
         <v>0.9037611989402621</v>
       </c>
       <c r="D141">
-        <v>0.4796537802631879</v>
+        <v>0.6915595615799999</v>
       </c>
       <c r="E141">
         <v>0.2886292597155753</v>
@@ -18417,7 +18417,7 @@
         <v>0.902670218567865</v>
       </c>
       <c r="D142">
-        <v>0.3933429164424155</v>
+        <v>0.6431974708029784</v>
       </c>
       <c r="E142">
         <v>0.2902606260007894</v>
@@ -18443,7 +18443,7 @@
         <v>0.9078688480675694</v>
       </c>
       <c r="D143">
-        <v>0.4481596440016559</v>
+        <v>0.6657388162711442</v>
       </c>
       <c r="E143">
         <v>0.2824024786077396</v>
@@ -18469,7 +18469,7 @@
         <v>0.9117945962795559</v>
       </c>
       <c r="D144">
-        <v>0.4782760262429555</v>
+        <v>0.6677538196446708</v>
       </c>
       <c r="E144">
         <v>0.2763203367889279</v>
@@ -18495,7 +18495,7 @@
         <v>0.9120269447309112</v>
       </c>
       <c r="D145">
-        <v>0.4734264462807569</v>
+        <v>0.680903638335185</v>
       </c>
       <c r="E145">
         <v>0.2759561587702415</v>
@@ -18521,7 +18521,7 @@
         <v>0.9120260908343555</v>
       </c>
       <c r="D146">
-        <v>0.442252524356421</v>
+        <v>0.6678953190030832</v>
       </c>
       <c r="E146">
         <v>0.2759574980294101</v>
@@ -18547,7 +18547,7 @@
         <v>0.9149711004066271</v>
       </c>
       <c r="D147">
-        <v>0.4893459827522623</v>
+        <v>0.6854934487107993</v>
       </c>
       <c r="E147">
         <v>0.2712992123157963</v>
@@ -18573,7 +18573,7 @@
         <v>0.9184305044761135</v>
       </c>
       <c r="D148">
-        <v>0.508780539361812</v>
+        <v>0.6854031350388174</v>
       </c>
       <c r="E148">
         <v>0.2657229967779555</v>
@@ -18599,7 +18599,7 @@
         <v>0.9162547264389044</v>
       </c>
       <c r="D149">
-        <v>0.5379535906834467</v>
+        <v>0.7002637941957343</v>
       </c>
       <c r="E149">
         <v>0.269243610855291</v>
@@ -18625,7 +18625,7 @@
         <v>0.9193354110296871</v>
       </c>
       <c r="D150">
-        <v>0.5362670324644717</v>
+        <v>0.7043192701775137</v>
       </c>
       <c r="E150">
         <v>0.2642449620888129</v>
@@ -18651,7 +18651,7 @@
         <v>0.9247933232015662</v>
       </c>
       <c r="D151">
-        <v>0.5567855013833548</v>
+        <v>0.7055405210543535</v>
       </c>
       <c r="E151">
         <v>0.2551487545991027</v>
@@ -18677,7 +18677,7 @@
         <v>0.927434394996615</v>
       </c>
       <c r="D152">
-        <v>0.557985674651406</v>
+        <v>0.7077295221782592</v>
       </c>
       <c r="E152">
         <v>0.2506286205330951</v>
@@ -18703,7 +18703,7 @@
         <v>0.9233996707854293</v>
       </c>
       <c r="D153">
-        <v>0.5839467972728891</v>
+        <v>0.717954767057619</v>
       </c>
       <c r="E153">
         <v>0.257501979285322</v>
@@ -18729,7 +18729,7 @@
         <v>0.8813240943665268</v>
       </c>
       <c r="D154">
-        <v>0.7377529609718413</v>
+        <v>0.7546535339440653</v>
       </c>
       <c r="E154">
         <v>0.320513650634784</v>
@@ -18755,7 +18755,7 @@
         <v>0.8835572535662215</v>
       </c>
       <c r="D155">
-        <v>0.6349441288655457</v>
+        <v>0.7411556722028693</v>
       </c>
       <c r="E155">
         <v>0.3174837296977606</v>
@@ -18781,7 +18781,7 @@
         <v>0.8991473503491169</v>
       </c>
       <c r="D156">
-        <v>0.5765867962725872</v>
+        <v>0.7050543283381419</v>
       </c>
       <c r="E156">
         <v>0.2954669504998732</v>
@@ -18807,7 +18807,7 @@
         <v>0.8982644992157537</v>
       </c>
       <c r="D157">
-        <v>0.4489474408275494</v>
+        <v>0.6716462495786859</v>
       </c>
       <c r="E157">
         <v>0.2967573724617913</v>
@@ -18833,7 +18833,7 @@
         <v>0.8952969574505655</v>
       </c>
       <c r="D158">
-        <v>0.468005788515506</v>
+        <v>0.6837536869155296</v>
       </c>
       <c r="E158">
         <v>0.3010543483950506</v>
@@ -18859,7 +18859,7 @@
         <v>0.9045105012173669</v>
       </c>
       <c r="D159">
-        <v>0.5481988392065984</v>
+        <v>0.7089504215358939</v>
       </c>
       <c r="E159">
         <v>0.2875034499107632</v>
@@ -18885,7 +18885,7 @@
         <v>0.9161102250080373</v>
       </c>
       <c r="D160">
-        <v>0.5323550041795574</v>
+        <v>0.7014668867561069</v>
       </c>
       <c r="E160">
         <v>0.2694757989946205</v>
@@ -18911,7 +18911,7 @@
         <v>0.9139615703295053</v>
       </c>
       <c r="D161">
-        <v>0.4413743713654525</v>
+        <v>0.6648010842473344</v>
       </c>
       <c r="E161">
         <v>0.2729049990700964</v>
@@ -18937,7 +18937,7 @@
         <v>0.9172061162838798</v>
       </c>
       <c r="D162">
-        <v>0.4910316110735867</v>
+        <v>0.68911160627812</v>
       </c>
       <c r="E162">
         <v>0.2677098686891725</v>
@@ -18963,7 +18963,7 @@
         <v>0.9189398160112182</v>
       </c>
       <c r="D163">
-        <v>0.5136798864285195</v>
+        <v>0.6875647345208737</v>
       </c>
       <c r="E163">
         <v>0.2648921242543025</v>
@@ -18989,7 +18989,7 @@
         <v>0.9201527617223859</v>
       </c>
       <c r="D164">
-        <v>0.4994556431738811</v>
+        <v>0.6977224471702143</v>
       </c>
       <c r="E164">
         <v>0.262902795019469</v>
@@ -19015,7 +19015,7 @@
         <v>0.9206960611284581</v>
       </c>
       <c r="D165">
-        <v>0.4801897852756761</v>
+        <v>0.6936745655626499</v>
       </c>
       <c r="E165">
         <v>0.2620068420958104</v>
@@ -19041,7 +19041,7 @@
         <v>0.9214235099745013</v>
       </c>
       <c r="D166">
-        <v>0.5186207380699308</v>
+        <v>0.7073511494828475</v>
       </c>
       <c r="E166">
         <v>0.2608023894812136</v>
@@ -19067,7 +19067,7 @@
         <v>0.9220117299352297</v>
       </c>
       <c r="D167">
-        <v>0.5355697858246948</v>
+        <v>0.7059955368662654</v>
       </c>
       <c r="E167">
         <v>0.2598243784093882</v>
@@ -19093,7 +19093,7 @@
         <v>0.9197326649334228</v>
       </c>
       <c r="D168">
-        <v>0.5685856396079265</v>
+        <v>0.7181403484666947</v>
       </c>
       <c r="E168">
         <v>0.2635934872331864</v>
@@ -19119,7 +19119,7 @@
         <v>0.9236388239395347</v>
       </c>
       <c r="D169">
-        <v>0.5672582081566409</v>
+        <v>0.7212729234959097</v>
       </c>
       <c r="E169">
         <v>0.2570996928146856</v>
@@ -19145,7 +19145,7 @@
         <v>0.9259663282187908</v>
       </c>
       <c r="D170">
-        <v>0.5685859639581907</v>
+        <v>0.7155464945133232</v>
       </c>
       <c r="E170">
         <v>0.2531511462166065</v>
@@ -19171,7 +19171,7 @@
         <v>0.9277064405494935</v>
       </c>
       <c r="D171">
-        <v>0.5740975581589802</v>
+        <v>0.7173459869827101</v>
       </c>
       <c r="E171">
         <v>0.2501583810513296</v>
@@ -19197,7 +19197,7 @@
         <v>0.9227719948007568</v>
       </c>
       <c r="D172">
-        <v>0.5893372556380696</v>
+        <v>0.7216844064067085</v>
       </c>
       <c r="E172">
         <v>0.2585548341381392</v>
@@ -19223,7 +19223,7 @@
         <v>0.9121923676741128</v>
       </c>
       <c r="D173">
-        <v>0.7819504090538536</v>
+        <v>0.7552290813270645</v>
       </c>
       <c r="E173">
         <v>0.2756965852016479</v>
@@ -19249,7 +19249,7 @@
         <v>0.8907998124047685</v>
       </c>
       <c r="D174">
-        <v>0.7264261734969051</v>
+        <v>0.7666264204554145</v>
       </c>
       <c r="E174">
         <v>0.3074517332659656</v>
@@ -19275,7 +19275,7 @@
         <v>0.9018204502398424</v>
       </c>
       <c r="D175">
-        <v>0.6566222962077088</v>
+        <v>0.7275004927972111</v>
       </c>
       <c r="E175">
         <v>0.2915249782239904</v>
@@ -19301,7 +19301,7 @@
         <v>0.9037012354144048</v>
       </c>
       <c r="D176">
-        <v>0.4585829593822958</v>
+        <v>0.6666948918704232</v>
       </c>
       <c r="E176">
         <v>0.2887191638541491</v>
@@ -19327,7 +19327,7 @@
         <v>0.900550618331288</v>
       </c>
       <c r="D177">
-        <v>0.5612162848904643</v>
+        <v>0.7078143525209106</v>
       </c>
       <c r="E177">
         <v>0.2934041802483957</v>
@@ -19353,7 +19353,7 @@
         <v>0.9006357443947053</v>
       </c>
       <c r="D178">
-        <v>0.4655501239083146</v>
+        <v>0.6572489301664722</v>
       </c>
       <c r="E178">
         <v>0.2932785802220411</v>
@@ -19379,7 +19379,7 @@
         <v>0.9144867287442773</v>
       </c>
       <c r="D179">
-        <v>0.4902546643275103</v>
+        <v>0.664430710373729</v>
       </c>
       <c r="E179">
         <v>0.2720708501749367</v>
@@ -19405,7 +19405,7 @@
         <v>0.9162973794597653</v>
       </c>
       <c r="D180">
-        <v>0.4275248359477268</v>
+        <v>0.6328935589268952</v>
       </c>
       <c r="E180">
         <v>0.2691750367406281</v>
@@ -19431,7 +19431,7 @@
         <v>0.9181854281511066</v>
       </c>
       <c r="D181">
-        <v>0.3966290214035089</v>
+        <v>0.6265063336071188</v>
       </c>
       <c r="E181">
         <v>0.266121881025176</v>
@@ -19457,7 +19457,7 @@
         <v>0.9207615881307442</v>
       </c>
       <c r="D182">
-        <v>0.4245682021312683</v>
+        <v>0.6261793010477442</v>
       </c>
       <c r="E182">
         <v>0.2618985746431518</v>
@@ -19483,7 +19483,7 @@
         <v>0.9215221229946261</v>
       </c>
       <c r="D183">
-        <v>0.4084378878016435</v>
+        <v>0.6422743607318067</v>
       </c>
       <c r="E183">
         <v>0.2606386853918253</v>
@@ -19509,7 +19509,7 @@
         <v>0.9227215812803138</v>
       </c>
       <c r="D184">
-        <v>0.3922173086431933</v>
+        <v>0.6357791064900719</v>
       </c>
       <c r="E184">
         <v>0.258639211125861</v>
@@ -19535,7 +19535,7 @@
         <v>0.9273550731091778</v>
       </c>
       <c r="D185">
-        <v>0.4128743026702865</v>
+        <v>0.6416471157676681</v>
       </c>
       <c r="E185">
         <v>0.25076556492545</v>
@@ -19561,7 +19561,7 @@
         <v>0.9290710181505638</v>
       </c>
       <c r="D186">
-        <v>0.4397921739466879</v>
+        <v>0.6455938675036962</v>
       </c>
       <c r="E186">
         <v>0.2477862005361439</v>
@@ -19587,7 +19587,7 @@
         <v>0.926985416911545</v>
       </c>
       <c r="D187">
-        <v>0.4847592166424004</v>
+        <v>0.6610135828485673</v>
       </c>
       <c r="E187">
         <v>0.2514027699254734</v>
@@ -19613,7 +19613,7 @@
         <v>0.9311766795085635</v>
       </c>
       <c r="D188">
-        <v>0.4808508236125384</v>
+        <v>0.667443934452193</v>
       </c>
       <c r="E188">
         <v>0.2440804888903324</v>
@@ -19639,7 +19639,7 @@
         <v>0.9335538378935364</v>
       </c>
       <c r="D189">
-        <v>0.4888049795770154</v>
+        <v>0.6663463360231552</v>
       </c>
       <c r="E189">
         <v>0.2398281758596542</v>
@@ -19665,7 +19665,7 @@
         <v>0.9340570714222349</v>
       </c>
       <c r="D190">
-        <v>0.5095461182094914</v>
+        <v>0.6753800416229653</v>
       </c>
       <c r="E190">
         <v>0.2389182740906215</v>
@@ -19691,7 +19691,7 @@
         <v>0.9297063731455883</v>
       </c>
       <c r="D191">
-        <v>0.5214925427012791</v>
+        <v>0.6809952829872368</v>
       </c>
       <c r="E191">
         <v>0.2466739165406363</v>
@@ -19717,7 +19717,7 @@
         <v>0.9116570615193773</v>
       </c>
       <c r="D192">
-        <v>0.7779383845222463</v>
+        <v>0.7799473339472065</v>
       </c>
       <c r="E192">
         <v>0.2765356798792509</v>
@@ -19743,7 +19743,7 @@
         <v>0.8602359685822016</v>
       </c>
       <c r="D193">
-        <v>0.6990412491586121</v>
+        <v>0.7629782923645891</v>
       </c>
       <c r="E193">
         <v>0.3478267373737113</v>
@@ -19769,7 +19769,7 @@
         <v>0.8863525357600899</v>
       </c>
       <c r="D194">
-        <v>0.6359838048874149</v>
+        <v>0.7206427765754277</v>
       </c>
       <c r="E194">
         <v>0.3136498820070096</v>
@@ -19795,7 +19795,7 @@
         <v>0.878441415173375</v>
       </c>
       <c r="D195">
-        <v>0.4982934392082764</v>
+        <v>0.6822214283171352</v>
       </c>
       <c r="E195">
         <v>0.3243829889733806</v>
@@ -19821,7 +19821,7 @@
         <v>0.8707126713946619</v>
       </c>
       <c r="D196">
-        <v>0.510256497716759</v>
+        <v>0.6738061390604694</v>
       </c>
       <c r="E196">
         <v>0.3345362886187362</v>
@@ -19847,7 +19847,7 @@
         <v>0.8721656039480076</v>
       </c>
       <c r="D197">
-        <v>0.4596775716537992</v>
+        <v>0.6376064552100256</v>
       </c>
       <c r="E197">
         <v>0.332651216121345</v>
@@ -19873,7 +19873,7 @@
         <v>0.8944887266053273</v>
       </c>
       <c r="D198">
-        <v>0.4735764342288495</v>
+        <v>0.6550428739251333</v>
       </c>
       <c r="E198">
         <v>0.3022140742368883</v>
@@ -19899,7 +19899,7 @@
         <v>0.8996568050434729</v>
       </c>
       <c r="D199">
-        <v>0.4287303994567353</v>
+        <v>0.6361970497716343</v>
       </c>
       <c r="E199">
         <v>0.294719733629363</v>
@@ -19925,7 +19925,7 @@
         <v>0.9021489767275132</v>
       </c>
       <c r="D200">
-        <v>0.4065541579904081</v>
+        <v>0.6507613254209761</v>
       </c>
       <c r="E200">
         <v>0.2910368219290863</v>
@@ -19951,7 +19951,7 @@
         <v>0.9105146958425084</v>
       </c>
       <c r="D201">
-        <v>0.4704113293799754</v>
+        <v>0.6667801258213893</v>
       </c>
       <c r="E201">
         <v>0.2783178833029472</v>
@@ -19977,7 +19977,7 @@
         <v>0.9089552075874754</v>
       </c>
       <c r="D202">
-        <v>0.4447101933563493</v>
+        <v>0.6742517683725582</v>
       </c>
       <c r="E202">
         <v>0.2807325745499093</v>
@@ -20003,7 +20003,7 @@
         <v>0.9111492259963345</v>
       </c>
       <c r="D203">
-        <v>0.4441888221562164</v>
+        <v>0.6785265743585802</v>
       </c>
       <c r="E203">
         <v>0.2773293675324193</v>
@@ -20029,7 +20029,7 @@
         <v>0.9153013255891475</v>
       </c>
       <c r="D204">
-        <v>0.4872437570630241</v>
+        <v>0.6907301986408938</v>
       </c>
       <c r="E204">
         <v>0.2707718799249691</v>
@@ -20055,7 +20055,7 @@
         <v>0.9180474284994335</v>
       </c>
       <c r="D205">
-        <v>0.4813294064232764</v>
+        <v>0.6864120163191976</v>
       </c>
       <c r="E205">
         <v>0.2663462252517849</v>
@@ -20081,7 +20081,7 @@
         <v>0.9148610553504724</v>
       </c>
       <c r="D206">
-        <v>0.500091326732423</v>
+        <v>0.6929571173973744</v>
       </c>
       <c r="E206">
         <v>0.2714747143142668</v>
@@ -20107,7 +20107,7 @@
         <v>0.9202234612245089</v>
       </c>
       <c r="D207">
-        <v>0.5079041308386625</v>
+        <v>0.7053585549672694</v>
       </c>
       <c r="E207">
         <v>0.2627863776370241</v>
@@ -20133,7 +20133,7 @@
         <v>0.9249211676696106</v>
       </c>
       <c r="D208">
-        <v>0.5293332795170309</v>
+        <v>0.7093876841849642</v>
       </c>
       <c r="E208">
         <v>0.2549317975916368</v>
@@ -20159,7 +20159,7 @@
         <v>0.9269488708263856</v>
       </c>
       <c r="D209">
-        <v>0.5477867856057677</v>
+        <v>0.7148138864701188</v>
       </c>
       <c r="E209">
         <v>0.2514656795336935</v>
@@ -20185,7 +20185,7 @@
         <v>0.9215683056875177</v>
       </c>
       <c r="D210">
-        <v>0.5653161286620805</v>
+        <v>0.7221237491937416</v>
       </c>
       <c r="E210">
         <v>0.2605619837261593</v>
@@ -20211,7 +20211,7 @@
         <v>0.8999323800937348</v>
       </c>
       <c r="D211">
-        <v>0.7865450851920539</v>
+        <v>0.7566666458398132</v>
       </c>
       <c r="E211">
         <v>0.2943147572655018</v>
@@ -20237,7 +20237,7 @@
         <v>0.8483725324514424</v>
       </c>
       <c r="D212">
-        <v>0.7200096356271148</v>
+        <v>0.7563914536620998</v>
       </c>
       <c r="E212">
         <v>0.3622882044308428</v>
@@ -20263,7 +20263,7 @@
         <v>0.8834333535858644</v>
       </c>
       <c r="D213">
-        <v>0.6112147220458264</v>
+        <v>0.6790115115995707</v>
       </c>
       <c r="E213">
         <v>0.3176525928119978</v>
@@ -20289,7 +20289,7 @@
         <v>0.8809918302006168</v>
       </c>
       <c r="D214">
-        <v>0.4786734201482203</v>
+        <v>0.6549293232719267</v>
       </c>
       <c r="E214">
         <v>0.3209620178248724</v>
@@ -20315,7 +20315,7 @@
         <v>0.8806694607129927</v>
       </c>
       <c r="D215">
-        <v>0.5077872222077335</v>
+        <v>0.6667377198835009</v>
       </c>
       <c r="E215">
         <v>0.3213964350053893</v>
@@ -20341,7 +20341,7 @@
         <v>0.8860750471366244</v>
       </c>
       <c r="D216">
-        <v>0.4800531290342122</v>
+        <v>0.6457456894374094</v>
       </c>
       <c r="E216">
         <v>0.3140325619563339</v>
@@ -20367,7 +20367,7 @@
         <v>0.9033059571746513</v>
       </c>
       <c r="D217">
-        <v>0.4807820928467197</v>
+        <v>0.6650178132860717</v>
       </c>
       <c r="E217">
         <v>0.2893111108603504</v>
@@ -20393,7 +20393,7 @@
         <v>0.9027606719934018</v>
       </c>
       <c r="D218">
-        <v>0.4099134848864463</v>
+        <v>0.6405247543078258</v>
       </c>
       <c r="E218">
         <v>0.2901257178030807</v>
@@ -20419,7 +20419,7 @@
         <v>0.9074371076479819</v>
       </c>
       <c r="D219">
-        <v>0.381122329527614</v>
+        <v>0.6347114252277017</v>
       </c>
       <c r="E219">
         <v>0.2830633954450493</v>
@@ -20445,7 +20445,7 @@
         <v>0.9118610338613093</v>
       </c>
       <c r="D220">
-        <v>0.4083693666421241</v>
+        <v>0.6330605601822674</v>
       </c>
       <c r="E220">
         <v>0.2762162529551633</v>
@@ -20471,7 +20471,7 @@
         <v>0.9123424522574561</v>
       </c>
       <c r="D221">
-        <v>0.3685165996271172</v>
+        <v>0.6337623873569038</v>
       </c>
       <c r="E221">
         <v>0.2754608682011342</v>
@@ -20497,7 +20497,7 @@
         <v>0.9125618525242355</v>
       </c>
       <c r="D222">
-        <v>0.3659559301000823</v>
+        <v>0.6408177087615872</v>
       </c>
       <c r="E222">
         <v>0.2751159232777377</v>
@@ -20523,7 +20523,7 @@
         <v>0.9189902604086677</v>
       </c>
       <c r="D223">
-        <v>0.4207643112849596</v>
+        <v>0.6587648888388931</v>
       </c>
       <c r="E223">
         <v>0.2648096891890418</v>
@@ -20549,7 +20549,7 @@
         <v>0.9217685239696973</v>
       </c>
       <c r="D224">
-        <v>0.4411444551522763</v>
+        <v>0.6692656044043732</v>
       </c>
       <c r="E224">
         <v>0.2602291934563744</v>
@@ -20575,7 +20575,7 @@
         <v>0.9201431875387922</v>
       </c>
       <c r="D225">
-        <v>0.4618069136372778</v>
+        <v>0.6782802222867219</v>
       </c>
       <c r="E225">
         <v>0.2629185563922618</v>
@@ -20601,7 +20601,7 @@
         <v>0.9255988898293969</v>
       </c>
       <c r="D226">
-        <v>0.4709809019010085</v>
+        <v>0.6884264928641182</v>
       </c>
       <c r="E226">
         <v>0.2537785791022938</v>
@@ -20627,7 +20627,7 @@
         <v>0.9289849605598394</v>
       </c>
       <c r="D227">
-        <v>0.4954434575334339</v>
+        <v>0.6933970842480067</v>
       </c>
       <c r="E227">
         <v>0.2479364735188638</v>
@@ -20653,7 +20653,7 @@
         <v>0.9306076940433227</v>
       </c>
       <c r="D228">
-        <v>0.5070791885255626</v>
+        <v>0.6932300517924094</v>
       </c>
       <c r="E228">
         <v>0.2450873597569091</v>
@@ -20679,7 +20679,7 @@
         <v>0.9260209877311414</v>
       </c>
       <c r="D229">
-        <v>0.5373476826375556</v>
+        <v>0.7043879142530869</v>
       </c>
       <c r="E229">
         <v>0.2530576774420562</v>
@@ -20705,7 +20705,7 @@
         <v>0.8725308704861513</v>
       </c>
       <c r="D230">
-        <v>0.7816647075180847</v>
+        <v>0.7536407952609756</v>
       </c>
       <c r="E230">
         <v>0.3321756270686508</v>
@@ -20731,7 +20731,7 @@
         <v>0.8412752864666262</v>
       </c>
       <c r="D231">
-        <v>0.7157301686420937</v>
+        <v>0.7212506058648208</v>
       </c>
       <c r="E231">
         <v>0.3706700780448968</v>
@@ -20757,7 +20757,7 @@
         <v>0.8667986669519874</v>
       </c>
       <c r="D232">
-        <v>0.6322876725777276</v>
+        <v>0.6643946389317036</v>
       </c>
       <c r="E232">
         <v>0.3395623566981033</v>
@@ -20783,7 +20783,7 @@
         <v>0.8701627352963019</v>
       </c>
       <c r="D233">
-        <v>0.5602895918051135</v>
+        <v>0.6475118709234713</v>
       </c>
       <c r="E233">
         <v>0.3352470247788413</v>
@@ -20809,7 +20809,7 @@
         <v>0.8693232413008726</v>
       </c>
       <c r="D234">
-        <v>0.5842066289767621</v>
+        <v>0.678328120337682</v>
       </c>
       <c r="E234">
         <v>0.3363290885596627</v>
@@ -20835,7 +20835,7 @@
         <v>0.8793191659640961</v>
       </c>
       <c r="D235">
-        <v>0.5785538239747099</v>
+        <v>0.6684120580377841</v>
       </c>
       <c r="E235">
         <v>0.3232097140463968</v>
@@ -20861,7 +20861,7 @@
         <v>0.8937904074563205</v>
       </c>
       <c r="D236">
-        <v>0.6064825754287887</v>
+        <v>0.7097307070873856</v>
       </c>
       <c r="E236">
         <v>0.3032125165246041</v>
@@ -20887,7 +20887,7 @@
         <v>0.8960040101225112</v>
       </c>
       <c r="D237">
-        <v>0.5383588557756755</v>
+        <v>0.6805339533437403</v>
       </c>
       <c r="E237">
         <v>0.3000361265064296</v>
@@ -20913,7 +20913,7 @@
         <v>0.9036859920000382</v>
       </c>
       <c r="D238">
-        <v>0.5285860630843674</v>
+        <v>0.6845305771394291</v>
       </c>
       <c r="E238">
         <v>0.2887420140522723</v>
@@ -20939,7 +20939,7 @@
         <v>0.9096969188874046</v>
       </c>
       <c r="D239">
-        <v>0.5367747049909939</v>
+        <v>0.6805520953239195</v>
       </c>
       <c r="E239">
         <v>0.2795867191239688</v>
@@ -20965,7 +20965,7 @@
         <v>0.9116425409851812</v>
       </c>
       <c r="D240">
-        <v>0.5671568894450031</v>
+        <v>0.6879670120424148</v>
       </c>
       <c r="E240">
         <v>0.2765584054127146</v>
@@ -20991,7 +20991,7 @@
         <v>0.9136768364065208</v>
       </c>
       <c r="D241">
-        <v>0.5852086815165586</v>
+        <v>0.6979208404707782</v>
       </c>
       <c r="E241">
         <v>0.2733561993554143</v>
@@ -21017,7 +21017,7 @@
         <v>0.9179100613395887</v>
       </c>
       <c r="D242">
-        <v>0.607646615260656</v>
+        <v>0.7081611658710285</v>
       </c>
       <c r="E242">
         <v>0.2665693537331874</v>
@@ -21043,7 +21043,7 @@
         <v>0.9225333419252784</v>
       </c>
       <c r="D243">
-        <v>0.6004296623643044</v>
+        <v>0.7014944113200019</v>
       </c>
       <c r="E243">
         <v>0.2589540238966228</v>
@@ -21069,7 +21069,7 @@
         <v>0.9187743689962333</v>
       </c>
       <c r="D244">
-        <v>0.620597287142198</v>
+        <v>0.7129461682456013</v>
       </c>
       <c r="E244">
         <v>0.2651623140653772</v>
@@ -21095,7 +21095,7 @@
         <v>0.9227027328087238</v>
       </c>
       <c r="D245">
-        <v>0.6168295987381922</v>
+        <v>0.7244856809217477</v>
       </c>
       <c r="E245">
         <v>0.258670750698522</v>
@@ -21121,7 +21121,7 @@
         <v>0.9250381632207615</v>
       </c>
       <c r="D246">
-        <v>0.6387143862456947</v>
+        <v>0.7334599014559473</v>
       </c>
       <c r="E246">
         <v>0.2547330896886152</v>
@@ -21147,7 +21147,7 @@
         <v>0.9262356570434774</v>
       </c>
       <c r="D247">
-        <v>0.6386788613977088</v>
+        <v>0.7294352043012564</v>
       </c>
       <c r="E247">
         <v>0.2526902544270383</v>
@@ -21173,7 +21173,7 @@
         <v>0.9221583011042593</v>
       </c>
       <c r="D248">
-        <v>0.644017287703635</v>
+        <v>0.7305482678758404</v>
       </c>
       <c r="E248">
         <v>0.2595801065921257</v>
@@ -21199,7 +21199,7 @@
         <v>0.8469322918088019</v>
       </c>
       <c r="D249">
-        <v>0.7551214878560217</v>
+        <v>0.749140377488354</v>
       </c>
       <c r="E249">
         <v>0.364004743694624</v>
@@ -21225,7 +21225,7 @@
         <v>0.8516630367137992</v>
       </c>
       <c r="D250">
-        <v>0.6144548657884785</v>
+        <v>0.6871109967573862</v>
       </c>
       <c r="E250">
         <v>0.3583355907803308</v>
@@ -21251,7 +21251,7 @@
         <v>0.876774184681169</v>
       </c>
       <c r="D251">
-        <v>0.5578296292670972</v>
+        <v>0.6412078257401388</v>
       </c>
       <c r="E251">
         <v>0.3265999423000015</v>
@@ -21277,7 +21277,7 @@
         <v>0.8769447374282917</v>
       </c>
       <c r="D252">
-        <v>0.4741486251899755</v>
+        <v>0.6197718844404243</v>
       </c>
       <c r="E252">
         <v>0.326373845988223</v>
@@ -21303,7 +21303,7 @@
         <v>0.876274336123739</v>
       </c>
       <c r="D253">
-        <v>0.5315806600640984</v>
+        <v>0.6600305049148789</v>
       </c>
       <c r="E253">
         <v>0.3272616757756784</v>
@@ -21329,7 +21329,7 @@
         <v>0.8848082967623896</v>
       </c>
       <c r="D254">
-        <v>0.5056146910559629</v>
+        <v>0.641648019865048</v>
       </c>
       <c r="E254">
         <v>0.3157736255136723</v>
@@ -21355,7 +21355,7 @@
         <v>0.9017107202846881</v>
       </c>
       <c r="D255">
-        <v>0.5221750653344037</v>
+        <v>0.6876602982364648</v>
       </c>
       <c r="E255">
         <v>0.291687843554691</v>
@@ -21381,7 +21381,7 @@
         <v>0.8992387900351946</v>
       </c>
       <c r="D256">
-        <v>0.4447405372473801</v>
+        <v>0.6532466928712468</v>
       </c>
       <c r="E256">
         <v>0.2953329751803688</v>
@@ -21407,7 +21407,7 @@
         <v>0.9077283399570416</v>
       </c>
       <c r="D257">
-        <v>0.4456345449784728</v>
+        <v>0.6626822714369816</v>
       </c>
       <c r="E257">
         <v>0.2826177408754957</v>
@@ -21433,7 +21433,7 @@
         <v>0.9121698879826943</v>
       </c>
       <c r="D258">
-        <v>0.4535652413528258</v>
+        <v>0.6519195135891664</v>
       </c>
       <c r="E258">
         <v>0.2757318735779873</v>
@@ -21459,7 +21459,7 @@
         <v>0.9146228099461566</v>
       </c>
       <c r="D259">
-        <v>0.4969543192271793</v>
+        <v>0.6656309896068314</v>
       </c>
       <c r="E259">
         <v>0.2718542845537989</v>
@@ -21485,7 +21485,7 @@
         <v>0.9157067811962039</v>
       </c>
       <c r="D260">
-        <v>0.5175506454339869</v>
+        <v>0.674102447069603</v>
       </c>
       <c r="E260">
         <v>0.2701230050724844</v>
@@ -21511,7 +21511,7 @@
         <v>0.9187462450829825</v>
       </c>
       <c r="D261">
-        <v>0.5420289020644036</v>
+        <v>0.6794113900560355</v>
       </c>
       <c r="E261">
         <v>0.2652082155647992</v>
@@ -21537,7 +21537,7 @@
         <v>0.9210750946998999</v>
       </c>
       <c r="D262">
-        <v>0.5595776026217367</v>
+        <v>0.6784039798261623</v>
       </c>
       <c r="E262">
         <v>0.2613799606484921</v>
@@ -21563,7 +21563,7 @@
         <v>0.917704220106148</v>
       </c>
       <c r="D263">
-        <v>0.5847709637986483</v>
+        <v>0.6931041588592316</v>
       </c>
       <c r="E263">
         <v>0.2669033569689568</v>
@@ -21589,7 +21589,7 @@
         <v>0.9212983859550954</v>
       </c>
       <c r="D264">
-        <v>0.5851347005898442</v>
+        <v>0.7089125337367934</v>
       </c>
       <c r="E264">
         <v>0.261009955781468</v>
@@ -21615,7 +21615,7 @@
         <v>0.9244201560515192</v>
       </c>
       <c r="D265">
-        <v>0.595539683059657</v>
+        <v>0.7096181825293415</v>
       </c>
       <c r="E265">
         <v>0.2557809811547563</v>
@@ -21641,7 +21641,7 @@
         <v>0.9264428072026751</v>
       </c>
       <c r="D266">
-        <v>0.5987910071959668</v>
+        <v>0.7080793977181679</v>
       </c>
       <c r="E266">
         <v>0.2523351938000426</v>
@@ -21667,7 +21667,7 @@
         <v>0.9212354002962564</v>
       </c>
       <c r="D267">
-        <v>0.6096786940786856</v>
+        <v>0.7140191988512032</v>
       </c>
       <c r="E267">
         <v>0.2611143792821428</v>
@@ -21693,7 +21693,7 @@
         <v>0.8521309502753837</v>
       </c>
       <c r="D268">
-        <v>0.6958112374501895</v>
+        <v>0.7346558059704095</v>
       </c>
       <c r="E268">
         <v>0.3577699781635109</v>
@@ -21719,7 +21719,7 @@
         <v>0.8560076430400246</v>
       </c>
       <c r="D269">
-        <v>0.6069010576900273</v>
+        <v>0.707859542338271</v>
       </c>
       <c r="E269">
         <v>0.3530489903202016</v>
@@ -21745,7 +21745,7 @@
         <v>0.8837469054606842</v>
       </c>
       <c r="D270">
-        <v>0.5226859180683066</v>
+        <v>0.6475402131222181</v>
       </c>
       <c r="E270">
         <v>0.3172250792905525</v>
@@ -21771,7 +21771,7 @@
         <v>0.8859481394767593</v>
       </c>
       <c r="D271">
-        <v>0.453822505593541</v>
+        <v>0.6388307859670199</v>
       </c>
       <c r="E271">
         <v>0.3142074228803496</v>
@@ -21797,7 +21797,7 @@
         <v>0.8853813342120017</v>
       </c>
       <c r="D272">
-        <v>0.4972380131027485</v>
+        <v>0.666452885630197</v>
       </c>
       <c r="E272">
         <v>0.3149872159463362</v>
@@ -21823,7 +21823,7 @@
         <v>0.89030943971187</v>
       </c>
       <c r="D273">
-        <v>0.4849899918479397</v>
+        <v>0.6557479638174049</v>
       </c>
       <c r="E273">
         <v>0.3081412790435969</v>
@@ -21849,7 +21849,7 @@
         <v>0.904184926143825</v>
       </c>
       <c r="D274">
-        <v>0.4958675788823843</v>
+        <v>0.6703466021618951</v>
       </c>
       <c r="E274">
         <v>0.2879931598118906</v>
@@ -21875,7 +21875,7 @@
         <v>0.9031515694627845</v>
       </c>
       <c r="D275">
-        <v>0.3945186871066722</v>
+        <v>0.6510389640764418</v>
       </c>
       <c r="E275">
         <v>0.2895419847807021</v>
@@ -21901,7 +21901,7 @@
         <v>0.9083827157140419</v>
       </c>
       <c r="D276">
-        <v>0.3822732751162864</v>
+        <v>0.6468728268448757</v>
       </c>
       <c r="E276">
         <v>0.2816138180357756</v>
@@ -21927,7 +21927,7 @@
         <v>0.9156038513523618</v>
       </c>
       <c r="D277">
-        <v>0.4226067081693626</v>
+        <v>0.6515905208575907</v>
       </c>
       <c r="E277">
         <v>0.2702878773870823</v>
@@ -21953,7 +21953,7 @@
         <v>0.9148771294134731</v>
       </c>
       <c r="D278">
-        <v>0.4913972068955285</v>
+        <v>0.6754972471525185</v>
       </c>
       <c r="E278">
         <v>0.2714490861621741</v>
@@ -21979,7 +21979,7 @@
         <v>0.9142549120522372</v>
       </c>
       <c r="D279">
-        <v>0.4879716909111412</v>
+        <v>0.671803039164825</v>
       </c>
       <c r="E279">
         <v>0.2724393770546326</v>
@@ -22005,7 +22005,7 @@
         <v>0.9186654569446876</v>
       </c>
       <c r="D280">
-        <v>0.5178510551772422</v>
+        <v>0.6834046588725134</v>
       </c>
       <c r="E280">
         <v>0.265340027041935</v>
@@ -22031,7 +22031,7 @@
         <v>0.9197542899265695</v>
       </c>
       <c r="D281">
-        <v>0.5303063122819273</v>
+        <v>0.6837394618262095</v>
       </c>
       <c r="E281">
         <v>0.2635579772008166</v>
@@ -22057,7 +22057,7 @@
         <v>0.9155977735990243</v>
       </c>
       <c r="D282">
-        <v>0.5402239184228164</v>
+        <v>0.6932906212916909</v>
       </c>
       <c r="E282">
         <v>0.2702976095460783</v>
@@ -22083,7 +22083,7 @@
         <v>0.9190421786969007</v>
       </c>
       <c r="D283">
-        <v>0.5392248446494299</v>
+        <v>0.7074543599775808</v>
       </c>
       <c r="E283">
         <v>0.264724818719408</v>
@@ -22109,7 +22109,7 @@
         <v>0.9205842823721715</v>
       </c>
       <c r="D284">
-        <v>0.5723191215081972</v>
+        <v>0.717954228220095</v>
       </c>
       <c r="E284">
         <v>0.2621914261575156</v>
@@ -22135,7 +22135,7 @@
         <v>0.9206846541490425</v>
       </c>
       <c r="D285">
-        <v>0.5771654272655344</v>
+        <v>0.7168559764425768</v>
       </c>
       <c r="E285">
         <v>0.2620256847865508</v>
@@ -22161,7 +22161,7 @@
         <v>0.915189663746991</v>
       </c>
       <c r="D286">
-        <v>0.5769855887525072</v>
+        <v>0.7159375273915232</v>
       </c>
       <c r="E286">
         <v>0.2709503061441971</v>
@@ -22187,7 +22187,7 @@
         <v>0.8691068779646112</v>
       </c>
       <c r="D287">
-        <v>0.7158878612549631</v>
+        <v>0.7165294913015974</v>
       </c>
       <c r="E287">
         <v>0.3366074057908096</v>
@@ -22213,7 +22213,7 @@
         <v>0.8764092585685685</v>
       </c>
       <c r="D288">
-        <v>0.7145052297820722</v>
+        <v>0.7560421774341537</v>
       </c>
       <c r="E288">
         <v>0.3270831881915911</v>
@@ -22239,7 +22239,7 @@
         <v>0.894314208508339</v>
       </c>
       <c r="D289">
-        <v>0.6307258468657102</v>
+        <v>0.7073657474825121</v>
       </c>
       <c r="E289">
         <v>0.30246390552216</v>
@@ -22265,7 +22265,7 @@
         <v>0.8915210298565548</v>
       </c>
       <c r="D290">
-        <v>0.5649026927525342</v>
+        <v>0.7058609173905541</v>
       </c>
       <c r="E290">
         <v>0.3064347620650896</v>
@@ -22291,7 +22291,7 @@
         <v>0.8858224416499201</v>
       </c>
       <c r="D291">
-        <v>0.6328547059532377</v>
+        <v>0.7289207901622259</v>
       </c>
       <c r="E291">
         <v>0.3143805209517962</v>
@@ -22317,7 +22317,7 @@
         <v>0.8952581871238833</v>
       </c>
       <c r="D292">
-        <v>0.609848972058293</v>
+        <v>0.7079756088935572</v>
       </c>
       <c r="E292">
         <v>0.3011100817092542</v>
@@ -22343,7 +22343,7 @@
         <v>0.9077289565049768</v>
       </c>
       <c r="D293">
-        <v>0.6115588729901331</v>
+        <v>0.7358746268865726</v>
       </c>
       <c r="E293">
         <v>0.2826167966653472</v>
@@ -22369,7 +22369,7 @@
         <v>0.904937587890935</v>
       </c>
       <c r="D294">
-        <v>0.542924173144679</v>
+        <v>0.7020876721239226</v>
       </c>
       <c r="E294">
         <v>0.2868597849107595</v>
@@ -22395,7 +22395,7 @@
         <v>0.9086157848232931</v>
       </c>
       <c r="D295">
-        <v>0.5537142214438753</v>
+        <v>0.7010504029098701</v>
       </c>
       <c r="E295">
         <v>0.2812553852431046</v>
@@ -22421,7 +22421,7 @@
         <v>0.9130135546272919</v>
       </c>
       <c r="D296">
-        <v>0.5361498364531886</v>
+        <v>0.6797893811561091</v>
       </c>
       <c r="E296">
         <v>0.2744043840085744</v>
@@ -22447,7 +22447,7 @@
         <v>0.9137773360890399</v>
       </c>
       <c r="D297">
-        <v>0.584238321865811</v>
+        <v>0.6986586363056455</v>
       </c>
       <c r="E297">
         <v>0.2731970287995034</v>
@@ -22473,7 +22473,7 @@
         <v>0.9138457154011643</v>
       </c>
       <c r="D298">
-        <v>0.5909899935982281</v>
+        <v>0.7002969529958019</v>
       </c>
       <c r="E298">
         <v>0.2730886771823328</v>
@@ -22499,7 +22499,7 @@
         <v>0.9175122642815486</v>
       </c>
       <c r="D299">
-        <v>0.6132110249175455</v>
+        <v>0.7053572358612334</v>
       </c>
       <c r="E299">
         <v>0.2672144531944625</v>
@@ -22525,7 +22525,7 @@
         <v>0.9188300151792506</v>
       </c>
       <c r="D300">
-        <v>0.6100792867733631</v>
+        <v>0.7007076265719083</v>
       </c>
       <c r="E300">
         <v>0.2650714695961967</v>
@@ -22551,7 +22551,7 @@
         <v>0.914672709504572</v>
       </c>
       <c r="D301">
-        <v>0.6157795542821511</v>
+        <v>0.7108020808826474</v>
       </c>
       <c r="E301">
         <v>0.2717748289554511</v>
@@ -22577,7 +22577,7 @@
         <v>0.9170242293123929</v>
       </c>
       <c r="D302">
-        <v>0.616406054575604</v>
+        <v>0.7266808059134078</v>
       </c>
       <c r="E302">
         <v>0.2680037685610795</v>
@@ -22603,7 +22603,7 @@
         <v>0.9182421688986153</v>
       </c>
       <c r="D303">
-        <v>0.6217312415126313</v>
+        <v>0.727207295517437</v>
       </c>
       <c r="E303">
         <v>0.26602958344855</v>
@@ -22629,7 +22629,7 @@
         <v>0.9204204567421693</v>
       </c>
       <c r="D304">
-        <v>0.621464239891785</v>
+        <v>0.7282279929486934</v>
       </c>
       <c r="E304">
         <v>0.2624617224384739</v>
@@ -22655,7 +22655,7 @@
         <v>0.9167205004894655</v>
       </c>
       <c r="D305">
-        <v>0.6206650539080948</v>
+        <v>0.7324164946979398</v>
       </c>
       <c r="E305">
         <v>0.2684938279717242</v>
@@ -22681,7 +22681,7 @@
         <v>0.7682842984761138</v>
       </c>
       <c r="D306">
-        <v>0.2706801594956916</v>
+        <v>0.5469105024850693</v>
       </c>
       <c r="E306">
         <v>0.4478607316383833</v>
@@ -22707,7 +22707,7 @@
         <v>0.8340290785603145</v>
       </c>
       <c r="D307">
-        <v>0.378858273350308</v>
+        <v>0.6638343333938758</v>
       </c>
       <c r="E307">
         <v>0.3790366945585317</v>
@@ -22733,7 +22733,7 @@
         <v>0.8558841782688597</v>
       </c>
       <c r="D308">
-        <v>0.2871246677205704</v>
+        <v>0.6209677591007838</v>
       </c>
       <c r="E308">
         <v>0.3532003170085209</v>
@@ -22759,7 +22759,7 @@
         <v>0.8588817284898649</v>
       </c>
       <c r="D309">
-        <v>0.2433003927041104</v>
+        <v>0.606044594688897</v>
       </c>
       <c r="E309">
         <v>0.349507804269617</v>
@@ -22785,7 +22785,7 @@
         <v>0.8750727079545788</v>
       </c>
       <c r="D310">
-        <v>0.3812600889386615</v>
+        <v>0.6487052361567038</v>
       </c>
       <c r="E310">
         <v>0.3288470245128504</v>
@@ -22811,7 +22811,7 @@
         <v>0.8816831419687294</v>
       </c>
       <c r="D311">
-        <v>0.4122274595145712</v>
+        <v>0.6611503442448106</v>
       </c>
       <c r="E311">
         <v>0.3200284349084946</v>
@@ -22837,7 +22837,7 @@
         <v>0.8936193928183493</v>
       </c>
       <c r="D312">
-        <v>0.3882032161438395</v>
+        <v>0.6522016073939988</v>
       </c>
       <c r="E312">
         <v>0.3034565289581498</v>
@@ -22863,7 +22863,7 @@
         <v>0.8854715725319002</v>
       </c>
       <c r="D313">
-        <v>0.2728412735750069</v>
+        <v>0.6330168966242256</v>
       </c>
       <c r="E313">
         <v>0.3148631981275865</v>
@@ -22889,7 +22889,7 @@
         <v>0.8971165697419298</v>
       </c>
       <c r="D314">
-        <v>0.2463906591950511</v>
+        <v>0.6364417881061212</v>
       </c>
       <c r="E314">
         <v>0.2984269026077612</v>
@@ -22915,7 +22915,7 @@
         <v>0.8992066135858331</v>
       </c>
       <c r="D315">
-        <v>0.2842841076950096</v>
+        <v>0.6551976405146898</v>
       </c>
       <c r="E315">
         <v>0.2953801263013544</v>
@@ -22941,7 +22941,7 @@
         <v>0.8941313586513704</v>
       </c>
       <c r="D316">
-        <v>0.3181138910259457</v>
+        <v>0.6604677353678831</v>
       </c>
       <c r="E316">
         <v>0.3027254429548409</v>
@@ -22967,7 +22967,7 @@
         <v>0.8933586501504255</v>
       </c>
       <c r="D317">
-        <v>0.359697685815776</v>
+        <v>0.675741254087836</v>
       </c>
       <c r="E317">
         <v>0.3038281927529156</v>
@@ -22993,7 +22993,7 @@
         <v>0.8953774999370148</v>
       </c>
       <c r="D318">
-        <v>0.4246008236178164</v>
+        <v>0.7024865223908026</v>
       </c>
       <c r="E318">
         <v>0.3009385335625005</v>
@@ -23019,7 +23019,7 @@
         <v>0.8992815467937626</v>
       </c>
       <c r="D319">
-        <v>0.4817814031335019</v>
+        <v>0.7164386564192499</v>
       </c>
       <c r="E319">
         <v>0.2952703081054894</v>
@@ -23045,7 +23045,7 @@
         <v>0.8933203258476475</v>
       </c>
       <c r="D320">
-        <v>0.4673032428156539</v>
+        <v>0.7175492958221261</v>
       </c>
       <c r="E320">
         <v>0.3038827820736298</v>
@@ -23071,7 +23071,7 @@
         <v>0.8983934858103388</v>
       </c>
       <c r="D321">
-        <v>0.3997435661426482</v>
+        <v>0.7064065770545775</v>
       </c>
       <c r="E321">
         <v>0.296569189069497</v>
@@ -23097,7 +23097,7 @@
         <v>0.9051269429952801</v>
       </c>
       <c r="D322">
-        <v>0.3812802210560925</v>
+        <v>0.7032330407337641</v>
       </c>
       <c r="E322">
         <v>0.2865739440642034</v>
@@ -23123,7 +23123,7 @@
         <v>0.9076798679115343</v>
       </c>
       <c r="D323">
-        <v>0.3670619276287842</v>
+        <v>0.6922235958440963</v>
       </c>
       <c r="E323">
         <v>0.2826919633473206</v>
@@ -23149,7 +23149,7 @@
         <v>0.9053481350546915</v>
       </c>
       <c r="D324">
-        <v>0.3419680237508425</v>
+        <v>0.6864642417134855</v>
       </c>
       <c r="E324">
         <v>0.2862396823019082</v>
@@ -23175,7 +23175,7 @@
         <v>0.8237253521167123</v>
       </c>
       <c r="D325">
-        <v>0.3625236997502</v>
+        <v>0.492082836659974</v>
       </c>
       <c r="E325">
         <v>0.3906251319805923</v>
@@ -23201,7 +23201,7 @@
         <v>0.819378937516738</v>
       </c>
       <c r="D326">
-        <v>0.4192182209395323</v>
+        <v>0.6142840305325452</v>
       </c>
       <c r="E326">
         <v>0.3954116400388025</v>
@@ -23227,7 +23227,7 @@
         <v>0.8617250769357885</v>
       </c>
       <c r="D327">
-        <v>0.2480263939411275</v>
+        <v>0.4956514783080164</v>
       </c>
       <c r="E327">
         <v>0.3459688247335609</v>
@@ -23253,7 +23253,7 @@
         <v>0.8617716789527835</v>
       </c>
       <c r="D328">
-        <v>0.1492151709737097</v>
+        <v>0.472072245483647</v>
       </c>
       <c r="E328">
         <v>0.3459105198603074</v>
@@ -23279,7 +23279,7 @@
         <v>0.8760762974958931</v>
       </c>
       <c r="D329">
-        <v>0.2817546788162568</v>
+        <v>0.5328953046226772</v>
       </c>
       <c r="E329">
         <v>0.3275234829771246</v>
@@ -23305,7 +23305,7 @@
         <v>0.8873018385867987</v>
       </c>
       <c r="D330">
-        <v>0.2167013888326774</v>
+        <v>0.4996917339103929</v>
       </c>
       <c r="E330">
         <v>0.3123371685668489</v>
@@ -23331,7 +23331,7 @@
         <v>0.8913122712993498</v>
       </c>
       <c r="D331">
-        <v>0.1964817947331685</v>
+        <v>0.4943666106876703</v>
       </c>
       <c r="E331">
         <v>0.3067294741722838</v>
@@ -23357,7 +23357,7 @@
         <v>0.8851505319600163</v>
       </c>
       <c r="D332">
-        <v>0.05877910115122276</v>
+        <v>0.462619404370695</v>
       </c>
       <c r="E332">
         <v>0.3153041939754477</v>
@@ -23383,7 +23383,7 @@
         <v>0.8978826091203164</v>
       </c>
       <c r="D333">
-        <v>-0.02501474827904726</v>
+        <v>0.4227843735731219</v>
       </c>
       <c r="E333">
         <v>0.2973138279150497</v>
@@ -23409,7 +23409,7 @@
         <v>0.9006940821490708</v>
       </c>
       <c r="D334">
-        <v>-0.02682281364345851</v>
+        <v>0.4245847644116136</v>
       </c>
       <c r="E334">
         <v>0.2931924741789032</v>
@@ -23435,7 +23435,7 @@
         <v>0.8988911629700564</v>
       </c>
       <c r="D335">
-        <v>-0.006399348437647445</v>
+        <v>0.4518982056077548</v>
       </c>
       <c r="E335">
         <v>0.295841987221968</v>
@@ -23461,7 +23461,7 @@
         <v>0.8973547060047842</v>
       </c>
       <c r="D336">
-        <v>0.04911931023743943</v>
+        <v>0.4804924375829585</v>
       </c>
       <c r="E336">
         <v>0.298081329770166</v>
@@ -23487,7 +23487,7 @@
         <v>0.9039317580931604</v>
       </c>
       <c r="D337">
-        <v>0.04947193271216399</v>
+        <v>0.4821968807283679</v>
       </c>
       <c r="E337">
         <v>0.2883733847873836</v>
@@ -23513,7 +23513,7 @@
         <v>0.9021606443558667</v>
       </c>
       <c r="D338">
-        <v>0.1518992219380069</v>
+        <v>0.5227199478226914</v>
       </c>
       <c r="E338">
         <v>0.2910194699863425</v>
@@ -23539,7 +23539,7 @@
         <v>0.8976019544334245</v>
       </c>
       <c r="D339">
-        <v>0.1304333212726135</v>
+        <v>0.5313930593211793</v>
       </c>
       <c r="E339">
         <v>0.2977221093293561</v>
@@ -23565,7 +23565,7 @@
         <v>0.9013445903655408</v>
       </c>
       <c r="D340">
-        <v>0.1000803341762269</v>
+        <v>0.536500528530546</v>
       </c>
       <c r="E340">
         <v>0.2922306106682838</v>
@@ -23591,7 +23591,7 @@
         <v>0.9033254331211732</v>
       </c>
       <c r="D341">
-        <v>0.1154109271738731</v>
+        <v>0.5323483578282744</v>
       </c>
       <c r="E341">
         <v>0.2892819731217914</v>
@@ -23617,7 +23617,7 @@
         <v>0.9090069352878275</v>
       </c>
       <c r="D342">
-        <v>0.1254676867801098</v>
+        <v>0.5340794049318656</v>
       </c>
       <c r="E342">
         <v>0.2806528131855324</v>
@@ -23643,7 +23643,7 @@
         <v>0.910494409213523</v>
       </c>
       <c r="D343">
-        <v>0.1608521306748187</v>
+        <v>0.5390284402768796</v>
       </c>
       <c r="E343">
         <v>0.2783494293301333</v>
@@ -23669,7 +23669,7 @@
         <v>0.8237253521167123</v>
       </c>
       <c r="D344">
-        <v>0.3625236997502</v>
+        <v>0.492082836659974</v>
       </c>
       <c r="E344">
         <v>0.3906251319805923</v>
@@ -23695,7 +23695,7 @@
         <v>0.819378937516738</v>
       </c>
       <c r="D345">
-        <v>0.4192182209395323</v>
+        <v>0.6142840305325452</v>
       </c>
       <c r="E345">
         <v>0.3954116400388025</v>
@@ -23721,7 +23721,7 @@
         <v>0.8617250769357885</v>
       </c>
       <c r="D346">
-        <v>0.2480263939411275</v>
+        <v>0.4956514783080164</v>
       </c>
       <c r="E346">
         <v>0.3459688247335609</v>
@@ -23747,7 +23747,7 @@
         <v>0.8617716789527835</v>
       </c>
       <c r="D347">
-        <v>0.1492151709737097</v>
+        <v>0.472072245483647</v>
       </c>
       <c r="E347">
         <v>0.3459105198603074</v>
@@ -23773,7 +23773,7 @@
         <v>0.8760762974958931</v>
       </c>
       <c r="D348">
-        <v>0.2817546788162568</v>
+        <v>0.5328953046226772</v>
       </c>
       <c r="E348">
         <v>0.3275234829771246</v>
@@ -23799,7 +23799,7 @@
         <v>0.8873018385867987</v>
       </c>
       <c r="D349">
-        <v>0.2167013888326774</v>
+        <v>0.4996917339103929</v>
       </c>
       <c r="E349">
         <v>0.3123371685668489</v>
@@ -23825,7 +23825,7 @@
         <v>0.8913122712993498</v>
       </c>
       <c r="D350">
-        <v>0.1964817947331685</v>
+        <v>0.4943666106876703</v>
       </c>
       <c r="E350">
         <v>0.3067294741722838</v>
@@ -23851,7 +23851,7 @@
         <v>0.8851505319600163</v>
       </c>
       <c r="D351">
-        <v>0.05877910115122276</v>
+        <v>0.462619404370695</v>
       </c>
       <c r="E351">
         <v>0.3153041939754477</v>
@@ -23877,7 +23877,7 @@
         <v>0.8978826091203164</v>
       </c>
       <c r="D352">
-        <v>-0.02501474827904726</v>
+        <v>0.4227843735731219</v>
       </c>
       <c r="E352">
         <v>0.2973138279150497</v>
@@ -23903,7 +23903,7 @@
         <v>0.9006940821490708</v>
       </c>
       <c r="D353">
-        <v>-0.02682281364345851</v>
+        <v>0.4245847644116136</v>
       </c>
       <c r="E353">
         <v>0.2931924741789032</v>
@@ -23929,7 +23929,7 @@
         <v>0.8988911629700564</v>
       </c>
       <c r="D354">
-        <v>-0.006399348437647445</v>
+        <v>0.4518982056077548</v>
       </c>
       <c r="E354">
         <v>0.295841987221968</v>
@@ -23955,7 +23955,7 @@
         <v>0.8973547060047842</v>
       </c>
       <c r="D355">
-        <v>0.04911931023743943</v>
+        <v>0.4804924375829585</v>
       </c>
       <c r="E355">
         <v>0.298081329770166</v>
@@ -23981,7 +23981,7 @@
         <v>0.9039317580931604</v>
       </c>
       <c r="D356">
-        <v>0.04947193271216399</v>
+        <v>0.4821968807283679</v>
       </c>
       <c r="E356">
         <v>0.2883733847873836</v>
@@ -24007,7 +24007,7 @@
         <v>0.9021606443558667</v>
       </c>
       <c r="D357">
-        <v>0.1518992219380069</v>
+        <v>0.5227199478226914</v>
       </c>
       <c r="E357">
         <v>0.2910194699863425</v>
@@ -24033,7 +24033,7 @@
         <v>0.8976019544334245</v>
       </c>
       <c r="D358">
-        <v>0.1304333212726135</v>
+        <v>0.5313930593211793</v>
       </c>
       <c r="E358">
         <v>0.2977221093293561</v>
@@ -24059,7 +24059,7 @@
         <v>0.9013445903655408</v>
       </c>
       <c r="D359">
-        <v>0.1000803341762269</v>
+        <v>0.536500528530546</v>
       </c>
       <c r="E359">
         <v>0.2922306106682838</v>
@@ -24085,7 +24085,7 @@
         <v>0.9033254331211732</v>
       </c>
       <c r="D360">
-        <v>0.1154109271738731</v>
+        <v>0.5323483578282744</v>
       </c>
       <c r="E360">
         <v>0.2892819731217914</v>
@@ -24111,7 +24111,7 @@
         <v>0.9090069352878275</v>
       </c>
       <c r="D361">
-        <v>0.1254676867801098</v>
+        <v>0.5340794049318656</v>
       </c>
       <c r="E361">
         <v>0.2806528131855324</v>
@@ -24137,7 +24137,7 @@
         <v>0.910494409213523</v>
       </c>
       <c r="D362">
-        <v>0.1608521306748187</v>
+        <v>0.5390284402768796</v>
       </c>
       <c r="E362">
         <v>0.2783494293301333</v>
@@ -24196,7 +24196,7 @@
         <v>0.5705717330830602</v>
       </c>
       <c r="D2">
-        <v>0.2857136284446529</v>
+        <v>0.6789288488390955</v>
       </c>
       <c r="E2">
         <v>0.6096920998578274</v>
@@ -24219,7 +24219,7 @@
         <v>0.5727386298048116</v>
       </c>
       <c r="D3">
-        <v>0.2857136284446529</v>
+        <v>0.6789288488390955</v>
       </c>
       <c r="E3">
         <v>0.608151900071587</v>
@@ -24242,7 +24242,7 @@
         <v>0.5725085395921835</v>
       </c>
       <c r="D4">
-        <v>0.2695462824707376</v>
+        <v>0.671096490028418</v>
       </c>
       <c r="E4">
         <v>0.6083156300223422</v>
@@ -24265,7 +24265,7 @@
         <v>0.5748743421519171</v>
       </c>
       <c r="D5">
-        <v>0.2670559921373742</v>
+        <v>0.6705966570306817</v>
       </c>
       <c r="E5">
         <v>0.6066300392423208</v>
@@ -24288,7 +24288,7 @@
         <v>0.5615996457982833</v>
       </c>
       <c r="D6">
-        <v>0.2726664929379987</v>
+        <v>0.671879801058981</v>
       </c>
       <c r="E6">
         <v>0.6160283536445816</v>
@@ -24311,7 +24311,7 @@
         <v>0.659617731390437</v>
       </c>
       <c r="D7">
-        <v>0.4532146972690246</v>
+        <v>0.6492406708204006</v>
       </c>
       <c r="E7">
         <v>0.5428110971751596</v>
@@ -24334,7 +24334,7 @@
         <v>0.6638545614346942</v>
       </c>
       <c r="D8">
-        <v>0.4507748258005861</v>
+        <v>0.643021918789539</v>
       </c>
       <c r="E8">
         <v>0.5394222605349845</v>
@@ -24357,7 +24357,7 @@
         <v>0.6584427724504471</v>
       </c>
       <c r="D9">
-        <v>0.6521192887137772</v>
+        <v>0.7375287206764736</v>
       </c>
       <c r="E9">
         <v>0.5437471496259777</v>
@@ -24380,7 +24380,7 @@
         <v>0.6659394277750124</v>
       </c>
       <c r="D10">
-        <v>0.4614361449076705</v>
+        <v>0.6585551716033835</v>
       </c>
       <c r="E10">
         <v>0.5377468361211875</v>
@@ -24403,7 +24403,7 @@
         <v>0.5592929648433402</v>
       </c>
       <c r="D11">
-        <v>0.6492310019089473</v>
+        <v>0.7842858033021864</v>
       </c>
       <c r="E11">
         <v>0.6176468703788927</v>
@@ -24426,7 +24426,7 @@
         <v>0.5312756296497305</v>
       </c>
       <c r="D12">
-        <v>0.6456925163599643</v>
+        <v>0.7908931226800845</v>
       </c>
       <c r="E12">
         <v>0.6369773954114357</v>
@@ -24449,7 +24449,7 @@
         <v>0.5312756296497305</v>
       </c>
       <c r="D13">
-        <v>0.6456925163599643</v>
+        <v>0.7908931226800845</v>
       </c>
       <c r="E13">
         <v>0.6369773954114357</v>
@@ -24472,7 +24472,7 @@
         <v>0.5312756296497305</v>
       </c>
       <c r="D14">
-        <v>0.6140102115342799</v>
+        <v>0.7734249171307009</v>
       </c>
       <c r="E14">
         <v>0.6369773954114357</v>
@@ -24495,7 +24495,7 @@
         <v>0.5383296331278296</v>
       </c>
       <c r="D15">
-        <v>0.6776924634351356</v>
+        <v>0.815329126430542</v>
       </c>
       <c r="E15">
         <v>0.632166173117214</v>
@@ -24518,7 +24518,7 @@
         <v>0.5383296331278296</v>
       </c>
       <c r="D16">
-        <v>0.6776924634351356</v>
+        <v>0.815329126430542</v>
       </c>
       <c r="E16">
         <v>0.632166173117214</v>
@@ -24541,7 +24541,7 @@
         <v>0.5385107542529746</v>
       </c>
       <c r="D17">
-        <v>0.6776924634351356</v>
+        <v>0.815329126430542</v>
       </c>
       <c r="E17">
         <v>0.6320421561898619</v>
@@ -24564,7 +24564,7 @@
         <v>0.5198016455033538</v>
       </c>
       <c r="D18">
-        <v>0.6524513612437245</v>
+        <v>0.8030338952645971</v>
       </c>
       <c r="E18">
         <v>0.6447265980032406</v>
@@ -24587,7 +24587,7 @@
         <v>0.4926643581637682</v>
       </c>
       <c r="D19">
-        <v>0.5604855707062526</v>
+        <v>0.7633277638944249</v>
       </c>
       <c r="E19">
         <v>0.6626938503329243</v>
@@ -24610,7 +24610,7 @@
         <v>0.4926643581637682</v>
       </c>
       <c r="D20">
-        <v>0.5604855707062526</v>
+        <v>0.7633277638944249</v>
       </c>
       <c r="E20">
         <v>0.6626938503329243</v>
@@ -24666,7 +24666,7 @@
         <v>0.706721171838687</v>
       </c>
       <c r="D2">
-        <v>0.5567197973813862</v>
+        <v>0.7117334489577651</v>
       </c>
       <c r="E2">
         <v>0.5038550429742871</v>
@@ -24689,7 +24689,7 @@
         <v>0.7042526574659966</v>
       </c>
       <c r="D3">
-        <v>0.5735165994258375</v>
+        <v>0.7186108568587914</v>
       </c>
       <c r="E3">
         <v>0.5059710620269589</v>
@@ -24712,7 +24712,7 @@
         <v>0.659777547371484</v>
       </c>
       <c r="D4">
-        <v>0.3202944436502526</v>
+        <v>0.5992731520309811</v>
       </c>
       <c r="E4">
         <v>0.5426836521213287</v>
@@ -24735,7 +24735,7 @@
         <v>0.6084436740683465</v>
       </c>
       <c r="D5">
-        <v>0.09603124936008922</v>
+        <v>0.5292537948571692</v>
       </c>
       <c r="E5">
         <v>0.5821868288146598</v>
@@ -24758,7 +24758,7 @@
         <v>0.5995510476708</v>
       </c>
       <c r="D6">
-        <v>-0.1565816893267313</v>
+        <v>0.5417935985411653</v>
       </c>
       <c r="E6">
         <v>0.5887607290456154</v>
@@ -24781,7 +24781,7 @@
         <v>0.5828898009968723</v>
       </c>
       <c r="D7">
-        <v>0.0211149604029699</v>
+        <v>0.5955587987607862</v>
       </c>
       <c r="E7">
         <v>0.6008840250040746</v>
@@ -24804,7 +24804,7 @@
         <v>0.5623589313959446</v>
       </c>
       <c r="D8">
-        <v>0.07401279782760328</v>
+        <v>0.6006329657809829</v>
       </c>
       <c r="E8">
         <v>0.6154946586401655</v>
@@ -24827,7 +24827,7 @@
         <v>0.570155807187585</v>
       </c>
       <c r="D9">
-        <v>0.1708382106093332</v>
+        <v>0.6166866838728174</v>
       </c>
       <c r="E9">
         <v>0.6099872892742274</v>
@@ -24850,7 +24850,7 @@
         <v>0.5695985966665319</v>
       </c>
       <c r="D10">
-        <v>0.1678703982005014</v>
+        <v>0.616421265384125</v>
       </c>
       <c r="E10">
         <v>0.6103825269688802</v>
@@ -24873,7 +24873,7 @@
         <v>0.5508406270080237</v>
       </c>
       <c r="D11">
-        <v>-0.1236058942465137</v>
+        <v>0.5580762980339844</v>
       </c>
       <c r="E11">
         <v>0.6235416774319347</v>
@@ -24896,7 +24896,7 @@
         <v>0.5123172307700519</v>
       </c>
       <c r="D12">
-        <v>0.06317085644104181</v>
+        <v>0.6244870789292927</v>
       </c>
       <c r="E12">
         <v>0.6497315548452089</v>
@@ -24919,7 +24919,7 @@
         <v>0.5114612545309623</v>
       </c>
       <c r="D13">
-        <v>0.07700273916882316</v>
+        <v>0.6220256201833574</v>
       </c>
       <c r="E13">
         <v>0.65030150623813</v>
@@ -24942,7 +24942,7 @@
         <v>0.5125742826293085</v>
       </c>
       <c r="D14">
-        <v>0.08579681393074989</v>
+        <v>0.6224148188420263</v>
       </c>
       <c r="E14">
         <v>0.6495602993401922</v>
@@ -24965,7 +24965,7 @@
         <v>0.4891600858896916</v>
       </c>
       <c r="D15">
-        <v>0.2041326023310192</v>
+        <v>0.6203542031925422</v>
       </c>
       <c r="E15">
         <v>0.6649785936097834</v>
@@ -24988,7 +24988,7 @@
         <v>0.4899866948518661</v>
       </c>
       <c r="D16">
-        <v>0.2166030277021462</v>
+        <v>0.6241326931380493</v>
       </c>
       <c r="E16">
         <v>0.6644403625580281</v>
@@ -25011,7 +25011,7 @@
         <v>0.4891309465550133</v>
       </c>
       <c r="D17">
-        <v>0.1892625971510492</v>
+        <v>0.6262630370704714</v>
       </c>
       <c r="E17">
         <v>0.664997559196594</v>
@@ -25034,7 +25034,7 @@
         <v>0.4869018447959919</v>
       </c>
       <c r="D18">
-        <v>0.08212997142038259</v>
+        <v>0.5971674089367424</v>
       </c>
       <c r="E18">
         <v>0.666446789421322</v>
@@ -25057,7 +25057,7 @@
         <v>0.4817882148371915</v>
       </c>
       <c r="D19">
-        <v>0.2860000880797611</v>
+        <v>0.6626155081380332</v>
       </c>
       <c r="E19">
         <v>0.6697595212937382</v>
@@ -25080,7 +25080,7 @@
         <v>0.4817882148371915</v>
       </c>
       <c r="D20">
-        <v>0.2860000880797611</v>
+        <v>0.6626155081380332</v>
       </c>
       <c r="E20">
         <v>0.6697595212937382</v>
